--- a/out_test/tables/F5122subx2/F5122subx2_30.xlsx
+++ b/out_test/tables/F5122subx2/F5122subx2_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
   <si>
     <t>RWS</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>Num_loose</t>
+  </si>
+  <si>
+    <t>Avg_NI_loose</t>
+  </si>
+  <si>
+    <t>Sigma_NI_loose</t>
+  </si>
+  <si>
+    <t>Avg_Num_loose</t>
+  </si>
+  <si>
+    <t>Sigma_Num_loose</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -662,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MM3"/>
+  <dimension ref="A1:OA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -673,15 +685,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:351">
+    <row r="1" spans="1:391">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -711,13 +723,13 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -742,9 +754,7 @@
       <c r="BF1" s="1"/>
       <c r="BG1" s="1"/>
       <c r="BH1" s="1"/>
-      <c r="BI1" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="BI1" s="1"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -752,7 +762,9 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
+      <c r="BQ1" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -773,9 +785,7 @@
       <c r="CI1" s="1"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
-      <c r="CL1" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="CL1" s="1"/>
       <c r="CM1" s="1"/>
       <c r="CN1" s="1"/>
       <c r="CO1" s="1"/>
@@ -787,7 +797,9 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
+      <c r="CX1" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -804,9 +816,7 @@
       <c r="DL1" s="1"/>
       <c r="DM1" s="1"/>
       <c r="DN1" s="1"/>
-      <c r="DO1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="DO1" s="1"/>
       <c r="DP1" s="1"/>
       <c r="DQ1" s="1"/>
       <c r="DR1" s="1"/>
@@ -822,7 +832,9 @@
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
+      <c r="EE1" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -835,9 +847,7 @@
       <c r="EO1" s="1"/>
       <c r="EP1" s="1"/>
       <c r="EQ1" s="1"/>
-      <c r="ER1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="ER1" s="1"/>
       <c r="ES1" s="1"/>
       <c r="ET1" s="1"/>
       <c r="EU1" s="1"/>
@@ -857,7 +867,9 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
+      <c r="FL1" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
       <c r="FO1" s="1"/>
@@ -866,9 +878,7 @@
       <c r="FR1" s="1"/>
       <c r="FS1" s="1"/>
       <c r="FT1" s="1"/>
-      <c r="FU1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="FU1" s="1"/>
       <c r="FV1" s="1"/>
       <c r="FW1" s="1"/>
       <c r="FX1" s="1"/>
@@ -892,14 +902,14 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
+      <c r="GS1" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
       <c r="GW1" s="1"/>
-      <c r="GX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="GX1" s="1"/>
       <c r="GY1" s="1"/>
       <c r="GZ1" s="1"/>
       <c r="HA1" s="1"/>
@@ -927,10 +937,10 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
       <c r="ID1" s="1"/>
@@ -959,12 +969,12 @@
       <c r="JA1" s="1"/>
       <c r="JB1" s="1"/>
       <c r="JC1" s="1"/>
-      <c r="JD1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1"/>
+      <c r="JG1" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -990,16 +1000,16 @@
       <c r="KD1" s="1"/>
       <c r="KE1" s="1"/>
       <c r="KF1" s="1"/>
-      <c r="KG1" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="KG1" s="1"/>
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
       <c r="KK1" s="1"/>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1"/>
+      <c r="KN1" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1032,7 +1042,9 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1"/>
+      <c r="LU1" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
@@ -1051,8 +1063,48 @@
       <c r="MK1" s="1"/>
       <c r="ML1" s="1"/>
       <c r="MM1" s="1"/>
+      <c r="MN1" s="1"/>
+      <c r="MO1" s="1"/>
+      <c r="MP1" s="1"/>
+      <c r="MQ1" s="1"/>
+      <c r="MR1" s="1"/>
+      <c r="MS1" s="1"/>
+      <c r="MT1" s="1"/>
+      <c r="MU1" s="1"/>
+      <c r="MV1" s="1"/>
+      <c r="MW1" s="1"/>
+      <c r="MX1" s="1"/>
+      <c r="MY1" s="1"/>
+      <c r="MZ1" s="1"/>
+      <c r="NA1" s="1"/>
+      <c r="NB1" s="1"/>
+      <c r="NC1" s="1"/>
+      <c r="ND1" s="1"/>
+      <c r="NE1" s="1"/>
+      <c r="NF1" s="1"/>
+      <c r="NG1" s="1"/>
+      <c r="NH1" s="1"/>
+      <c r="NI1" s="1"/>
+      <c r="NJ1" s="1"/>
+      <c r="NK1" s="1"/>
+      <c r="NL1" s="1"/>
+      <c r="NM1" s="1"/>
+      <c r="NN1" s="1"/>
+      <c r="NO1" s="1"/>
+      <c r="NP1" s="1"/>
+      <c r="NQ1" s="1"/>
+      <c r="NR1" s="1"/>
+      <c r="NS1" s="1"/>
+      <c r="NT1" s="1"/>
+      <c r="NU1" s="1"/>
+      <c r="NV1" s="1"/>
+      <c r="NW1" s="1"/>
+      <c r="NX1" s="1"/>
+      <c r="NY1" s="1"/>
+      <c r="NZ1" s="1"/>
+      <c r="OA1" s="1"/>
     </row>
-    <row r="2" spans="1:351">
+    <row r="2" spans="1:391">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1143,967 +1195,1087 @@
         <v>30</v>
       </c>
       <c r="AF2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>4</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AM2" t="s">
         <v>5</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>6</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AO2" t="s">
         <v>7</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AP2" t="s">
         <v>8</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AR2" t="s">
         <v>10</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AS2" t="s">
         <v>11</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AT2" t="s">
         <v>12</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AU2" t="s">
         <v>13</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AV2" t="s">
         <v>14</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AW2" t="s">
         <v>15</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AX2" t="s">
         <v>16</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AY2" t="s">
         <v>17</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AZ2" t="s">
         <v>18</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BA2" t="s">
         <v>19</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BB2" t="s">
         <v>20</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BC2" t="s">
         <v>21</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BD2" t="s">
         <v>22</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BE2" t="s">
         <v>23</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BF2" t="s">
         <v>24</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BG2" t="s">
         <v>25</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BH2" t="s">
         <v>26</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BI2" t="s">
         <v>27</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BJ2" t="s">
         <v>28</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BK2" t="s">
         <v>29</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BL2" t="s">
         <v>30</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BM2" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>33</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>34</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>2</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>3</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>4</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>5</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BU2" t="s">
         <v>6</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>7</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>8</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>9</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BY2" t="s">
         <v>10</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BZ2" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CA2" t="s">
         <v>12</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CB2" t="s">
         <v>13</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CC2" t="s">
         <v>14</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CD2" t="s">
         <v>15</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CE2" t="s">
         <v>16</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CF2" t="s">
         <v>17</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CG2" t="s">
         <v>18</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CH2" t="s">
         <v>19</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CI2" t="s">
         <v>20</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CJ2" t="s">
         <v>21</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CK2" t="s">
         <v>22</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CL2" t="s">
         <v>23</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CM2" t="s">
         <v>24</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CN2" t="s">
         <v>25</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CO2" t="s">
         <v>26</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CP2" t="s">
         <v>27</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CQ2" t="s">
         <v>28</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="CR2" t="s">
         <v>29</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CS2" t="s">
         <v>30</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CT2" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>32</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>34</v>
+      </c>
+      <c r="CX2" t="s">
         <v>2</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CY2" t="s">
         <v>3</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CZ2" t="s">
         <v>4</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DA2" t="s">
         <v>5</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DB2" t="s">
         <v>6</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DC2" t="s">
         <v>7</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DD2" t="s">
         <v>8</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DE2" t="s">
         <v>9</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DF2" t="s">
         <v>10</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DG2" t="s">
         <v>11</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DH2" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DI2" t="s">
         <v>13</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DJ2" t="s">
         <v>14</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DK2" t="s">
         <v>15</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DL2" t="s">
         <v>16</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DM2" t="s">
         <v>17</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="DN2" t="s">
         <v>18</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="DO2" t="s">
         <v>19</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="DP2" t="s">
         <v>20</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DQ2" t="s">
         <v>21</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DR2" t="s">
         <v>22</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DS2" t="s">
         <v>23</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DT2" t="s">
         <v>24</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DU2" t="s">
         <v>25</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DV2" t="s">
         <v>26</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DW2" t="s">
         <v>27</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="DX2" t="s">
         <v>28</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="DY2" t="s">
         <v>29</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="DZ2" t="s">
         <v>30</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="EC2" t="s">
+        <v>33</v>
+      </c>
+      <c r="ED2" t="s">
+        <v>34</v>
+      </c>
+      <c r="EE2" t="s">
         <v>2</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EF2" t="s">
         <v>3</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="EG2" t="s">
         <v>4</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="EH2" t="s">
         <v>5</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="EI2" t="s">
         <v>6</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EJ2" t="s">
         <v>7</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EK2" t="s">
         <v>8</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EL2" t="s">
         <v>9</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EM2" t="s">
         <v>10</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EN2" t="s">
         <v>11</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EO2" t="s">
         <v>12</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EP2" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EQ2" t="s">
         <v>14</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="ER2" t="s">
         <v>15</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ES2" t="s">
         <v>16</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="ET2" t="s">
         <v>17</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EU2" t="s">
         <v>18</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EV2" t="s">
         <v>19</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EW2" t="s">
         <v>20</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EX2" t="s">
         <v>21</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="EY2" t="s">
         <v>22</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="EZ2" t="s">
         <v>23</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FA2" t="s">
         <v>24</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FB2" t="s">
         <v>25</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FC2" t="s">
         <v>26</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FD2" t="s">
         <v>27</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FE2" t="s">
         <v>28</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FF2" t="s">
         <v>29</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="FG2" t="s">
         <v>30</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="FH2" t="s">
+        <v>31</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>34</v>
+      </c>
+      <c r="FL2" t="s">
         <v>2</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="FM2" t="s">
         <v>3</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="FN2" t="s">
         <v>4</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="FO2" t="s">
         <v>5</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="FP2" t="s">
         <v>6</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="FQ2" t="s">
         <v>7</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="FR2" t="s">
         <v>8</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="FS2" t="s">
         <v>9</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="FT2" t="s">
         <v>10</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FU2" t="s">
         <v>11</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="FV2" t="s">
         <v>12</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="FW2" t="s">
         <v>13</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FX2" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FY2" t="s">
         <v>15</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FZ2" t="s">
         <v>16</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GA2" t="s">
         <v>17</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GB2" t="s">
         <v>18</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GC2" t="s">
         <v>19</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GD2" t="s">
         <v>20</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GE2" t="s">
         <v>21</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GF2" t="s">
         <v>22</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="GG2" t="s">
         <v>23</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="GH2" t="s">
         <v>24</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="GI2" t="s">
         <v>25</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="GJ2" t="s">
         <v>26</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="GK2" t="s">
         <v>27</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="GL2" t="s">
         <v>28</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="GM2" t="s">
         <v>29</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="GN2" t="s">
         <v>30</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="GO2" t="s">
+        <v>31</v>
+      </c>
+      <c r="GP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>33</v>
+      </c>
+      <c r="GR2" t="s">
+        <v>34</v>
+      </c>
+      <c r="GS2" t="s">
         <v>2</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="GT2" t="s">
         <v>3</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="GU2" t="s">
         <v>4</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="GV2" t="s">
         <v>5</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="GW2" t="s">
         <v>6</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="GX2" t="s">
         <v>7</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="GY2" t="s">
         <v>8</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="GZ2" t="s">
         <v>9</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HA2" t="s">
         <v>10</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HB2" t="s">
         <v>11</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HC2" t="s">
         <v>12</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HD2" t="s">
         <v>13</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HE2" t="s">
         <v>14</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="HF2" t="s">
         <v>15</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="HG2" t="s">
         <v>16</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="HH2" t="s">
         <v>17</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="HI2" t="s">
         <v>18</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="HJ2" t="s">
         <v>19</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="HK2" t="s">
         <v>20</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="HL2" t="s">
         <v>21</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="HM2" t="s">
         <v>22</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="HN2" t="s">
         <v>23</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="HO2" t="s">
         <v>24</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="HP2" t="s">
         <v>25</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="HQ2" t="s">
         <v>26</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="HR2" t="s">
         <v>27</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="HS2" t="s">
         <v>28</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="HT2" t="s">
         <v>29</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="HU2" t="s">
         <v>30</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="HV2" t="s">
+        <v>31</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>32</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>33</v>
+      </c>
+      <c r="HY2" t="s">
+        <v>34</v>
+      </c>
+      <c r="HZ2" t="s">
         <v>2</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="IA2" t="s">
         <v>3</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="IB2" t="s">
         <v>4</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="IC2" t="s">
         <v>5</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="ID2" t="s">
         <v>6</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="IE2" t="s">
         <v>7</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="IF2" t="s">
         <v>8</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="IG2" t="s">
         <v>9</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="IH2" t="s">
         <v>10</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="II2" t="s">
         <v>11</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="IJ2" t="s">
         <v>12</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="IK2" t="s">
         <v>13</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="IL2" t="s">
         <v>14</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="IM2" t="s">
         <v>15</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="IN2" t="s">
         <v>16</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="IO2" t="s">
         <v>17</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="IP2" t="s">
         <v>18</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="IQ2" t="s">
         <v>19</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="IR2" t="s">
         <v>20</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="IS2" t="s">
         <v>21</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="IT2" t="s">
         <v>22</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="IU2" t="s">
         <v>23</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="IV2" t="s">
         <v>24</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="IW2" t="s">
         <v>25</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="IX2" t="s">
         <v>26</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="IY2" t="s">
         <v>27</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="IZ2" t="s">
         <v>28</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="JA2" t="s">
         <v>29</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="JB2" t="s">
         <v>30</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="JC2" t="s">
+        <v>31</v>
+      </c>
+      <c r="JD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="JE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="JF2" t="s">
+        <v>34</v>
+      </c>
+      <c r="JG2" t="s">
         <v>2</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="JH2" t="s">
         <v>3</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="JI2" t="s">
         <v>4</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="JJ2" t="s">
         <v>5</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="JK2" t="s">
         <v>6</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="JL2" t="s">
         <v>7</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="JM2" t="s">
         <v>8</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="JN2" t="s">
         <v>9</v>
       </c>
-      <c r="II2" t="s">
+      <c r="JO2" t="s">
         <v>10</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="JP2" t="s">
         <v>11</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="JQ2" t="s">
         <v>12</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="JR2" t="s">
         <v>13</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="JS2" t="s">
         <v>14</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="JT2" t="s">
         <v>15</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="JU2" t="s">
         <v>16</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="JV2" t="s">
         <v>17</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="JW2" t="s">
         <v>18</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="JX2" t="s">
         <v>19</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="JY2" t="s">
         <v>20</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="JZ2" t="s">
         <v>21</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="KA2" t="s">
         <v>22</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="KB2" t="s">
         <v>23</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="KC2" t="s">
         <v>24</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="KD2" t="s">
         <v>25</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="KE2" t="s">
         <v>26</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="KF2" t="s">
         <v>27</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="KG2" t="s">
         <v>28</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="KH2" t="s">
         <v>29</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="KI2" t="s">
         <v>30</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="KJ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="KK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="KL2" t="s">
+        <v>33</v>
+      </c>
+      <c r="KM2" t="s">
+        <v>34</v>
+      </c>
+      <c r="KN2" t="s">
         <v>2</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="KO2" t="s">
         <v>3</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="KP2" t="s">
         <v>4</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="KQ2" t="s">
         <v>5</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="KR2" t="s">
         <v>6</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="KS2" t="s">
         <v>7</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="KT2" t="s">
         <v>8</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="KU2" t="s">
         <v>9</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="KV2" t="s">
         <v>10</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="KW2" t="s">
         <v>11</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="KX2" t="s">
         <v>12</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="KY2" t="s">
         <v>13</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="KZ2" t="s">
         <v>14</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="LA2" t="s">
         <v>15</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="LB2" t="s">
         <v>16</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="LC2" t="s">
         <v>17</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="LD2" t="s">
         <v>18</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="LE2" t="s">
         <v>19</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="LF2" t="s">
         <v>20</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="LG2" t="s">
         <v>21</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="LH2" t="s">
         <v>22</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="LI2" t="s">
         <v>23</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="LJ2" t="s">
         <v>24</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="LK2" t="s">
         <v>25</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="LL2" t="s">
         <v>26</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="LM2" t="s">
         <v>27</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="LN2" t="s">
         <v>28</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="LO2" t="s">
         <v>29</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="LP2" t="s">
         <v>30</v>
       </c>
-      <c r="KG2" t="s">
-        <v>41</v>
-      </c>
-      <c r="KH2" t="s">
-        <v>42</v>
-      </c>
-      <c r="KI2" t="s">
-        <v>43</v>
-      </c>
-      <c r="KJ2" t="s">
-        <v>44</v>
-      </c>
-      <c r="KK2" t="s">
+      <c r="LQ2" t="s">
+        <v>31</v>
+      </c>
+      <c r="LR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>33</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>34</v>
+      </c>
+      <c r="LU2" t="s">
         <v>45</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="LV2" t="s">
         <v>46</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="LW2" t="s">
         <v>47</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="LX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="MA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="MB2" t="s">
         <v>6</v>
       </c>
-      <c r="KO2" t="s">
-        <v>48</v>
-      </c>
-      <c r="KP2" t="s">
+      <c r="MC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="MD2" t="s">
         <v>8</v>
       </c>
-      <c r="KQ2" t="s">
-        <v>49</v>
-      </c>
-      <c r="KR2" t="s">
-        <v>50</v>
-      </c>
-      <c r="KS2" t="s">
-        <v>51</v>
-      </c>
-      <c r="KT2" t="s">
-        <v>52</v>
-      </c>
-      <c r="KU2" t="s">
+      <c r="ME2" t="s">
         <v>53</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="MF2" t="s">
         <v>54</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="MG2" t="s">
         <v>55</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="MH2" t="s">
+        <v>56</v>
+      </c>
+      <c r="MI2" t="s">
+        <v>57</v>
+      </c>
+      <c r="MJ2" t="s">
+        <v>58</v>
+      </c>
+      <c r="MK2" t="s">
+        <v>59</v>
+      </c>
+      <c r="ML2" t="s">
         <v>11</v>
       </c>
-      <c r="KY2" t="s">
-        <v>56</v>
-      </c>
-      <c r="KZ2" t="s">
+      <c r="MM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="MN2" t="s">
         <v>13</v>
       </c>
-      <c r="LA2" t="s">
-        <v>57</v>
-      </c>
-      <c r="LB2" t="s">
-        <v>58</v>
-      </c>
-      <c r="LC2" t="s">
-        <v>59</v>
-      </c>
-      <c r="LD2" t="s">
-        <v>60</v>
-      </c>
-      <c r="LE2" t="s">
+      <c r="MO2" t="s">
         <v>61</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="MP2" t="s">
         <v>62</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="MQ2" t="s">
         <v>63</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="MR2" t="s">
+        <v>64</v>
+      </c>
+      <c r="MS2" t="s">
+        <v>65</v>
+      </c>
+      <c r="MT2" t="s">
+        <v>66</v>
+      </c>
+      <c r="MU2" t="s">
+        <v>67</v>
+      </c>
+      <c r="MV2" t="s">
         <v>16</v>
       </c>
-      <c r="LI2" t="s">
-        <v>64</v>
-      </c>
-      <c r="LJ2" t="s">
+      <c r="MW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="MX2" t="s">
         <v>18</v>
       </c>
-      <c r="LK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="LL2" t="s">
-        <v>66</v>
-      </c>
-      <c r="LM2" t="s">
-        <v>67</v>
-      </c>
-      <c r="LN2" t="s">
-        <v>68</v>
-      </c>
-      <c r="LO2" t="s">
+      <c r="MY2" t="s">
         <v>69</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="MZ2" t="s">
         <v>70</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="NA2" t="s">
         <v>71</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="NB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="NC2" t="s">
+        <v>73</v>
+      </c>
+      <c r="ND2" t="s">
+        <v>74</v>
+      </c>
+      <c r="NE2" t="s">
+        <v>75</v>
+      </c>
+      <c r="NF2" t="s">
         <v>21</v>
       </c>
-      <c r="LS2" t="s">
-        <v>72</v>
-      </c>
-      <c r="LT2" t="s">
+      <c r="NG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="NH2" t="s">
         <v>23</v>
       </c>
-      <c r="LU2" t="s">
-        <v>73</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>74</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>75</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>76</v>
-      </c>
-      <c r="LY2" t="s">
+      <c r="NI2" t="s">
         <v>77</v>
       </c>
-      <c r="LZ2" t="s">
+      <c r="NJ2" t="s">
         <v>78</v>
       </c>
-      <c r="MA2" t="s">
+      <c r="NK2" t="s">
         <v>79</v>
       </c>
-      <c r="MB2" t="s">
+      <c r="NL2" t="s">
         <v>80</v>
       </c>
-      <c r="MC2" t="s">
+      <c r="NM2" t="s">
         <v>81</v>
       </c>
-      <c r="MD2" t="s">
+      <c r="NN2" t="s">
         <v>82</v>
       </c>
-      <c r="ME2" t="s">
+      <c r="NO2" t="s">
         <v>83</v>
       </c>
-      <c r="MF2" t="s">
+      <c r="NP2" t="s">
         <v>84</v>
       </c>
-      <c r="MG2" t="s">
+      <c r="NQ2" t="s">
         <v>85</v>
       </c>
-      <c r="MH2" t="s">
+      <c r="NR2" t="s">
         <v>86</v>
       </c>
-      <c r="MI2" t="s">
+      <c r="NS2" t="s">
         <v>87</v>
       </c>
-      <c r="MJ2" t="s">
+      <c r="NT2" t="s">
         <v>88</v>
       </c>
-      <c r="MK2" t="s">
+      <c r="NU2" t="s">
         <v>89</v>
       </c>
-      <c r="ML2" t="s">
+      <c r="NV2" t="s">
         <v>90</v>
       </c>
-      <c r="MM2" t="s">
+      <c r="NW2" t="s">
         <v>91</v>
       </c>
+      <c r="NX2" t="s">
+        <v>92</v>
+      </c>
+      <c r="NY2" t="s">
+        <v>93</v>
+      </c>
+      <c r="NZ2" t="s">
+        <v>94</v>
+      </c>
+      <c r="OA2" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="3" spans="1:351">
+    <row r="3" spans="1:391">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2111,1066 +2283,1162 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>25.9543</v>
+        <v>26.2143</v>
       </c>
       <c r="E3">
-        <v>25.9543</v>
+        <v>26.21429999999999</v>
       </c>
       <c r="F3">
         <v>0.5333333333333333</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>0.6390681003584229</v>
+        <v>0.6496453900709221</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M3">
         <v>0.4666666666666667</v>
       </c>
       <c r="N3">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>0.3503546099290782</v>
+      </c>
+      <c r="P3">
+        <v>-0.4149621955698926</v>
+      </c>
+      <c r="Q3">
+        <v>22</v>
+      </c>
+      <c r="R3">
+        <v>0.4036215874646744</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3">
+        <v>0.03814766141820562</v>
+      </c>
+      <c r="U3">
+        <v>-0.2878133333333324</v>
+      </c>
+      <c r="V3">
         <v>7</v>
       </c>
-      <c r="O3">
-        <v>0.360931899641577</v>
-      </c>
-      <c r="P3">
-        <v>-0.4444444444444571</v>
-      </c>
-      <c r="Q3">
-        <v>57</v>
-      </c>
-      <c r="R3">
-        <v>0.3372112054902274</v>
-      </c>
-      <c r="S3">
+      <c r="W3">
+        <v>2.781453333333332</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.1039953900709219</v>
+      </c>
+      <c r="Z3">
+        <v>0.5</v>
+      </c>
+      <c r="AA3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="AB3">
+        <v>13</v>
+      </c>
+      <c r="AC3">
+        <v>1.096925821566162</v>
+      </c>
+      <c r="AD3">
+        <v>47</v>
+      </c>
+      <c r="AE3">
+        <v>45</v>
+      </c>
+      <c r="AF3">
+        <v>25</v>
+      </c>
+      <c r="AG3">
+        <v>12.77367083757315</v>
+      </c>
+      <c r="AH3">
+        <v>23</v>
+      </c>
+      <c r="AI3">
+        <v>12.77367083757315</v>
+      </c>
+      <c r="AJ3">
+        <v>70</v>
+      </c>
+      <c r="AK3">
+        <v>25.696</v>
+      </c>
+      <c r="AL3">
+        <v>25.69600000000001</v>
+      </c>
+      <c r="AM3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="AN3">
+        <v>15</v>
+      </c>
+      <c r="AO3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="AP3">
         <v>1</v>
       </c>
-      <c r="T3">
-        <v>0.03319981422942261</v>
-      </c>
-      <c r="U3">
-        <v>-0.1321133333333364</v>
-      </c>
-      <c r="V3">
+      <c r="AQ3">
+        <v>0.6381642512077295</v>
+      </c>
+      <c r="AR3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="AS3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="AU3">
+        <v>15</v>
+      </c>
+      <c r="AV3">
+        <v>0.3618357487922704</v>
+      </c>
+      <c r="AW3">
+        <v>-0.3636964837266737</v>
+      </c>
+      <c r="AX3">
+        <v>51</v>
+      </c>
+      <c r="AY3">
+        <v>0.5712407142327921</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0.0267704955950307</v>
+      </c>
+      <c r="BB3">
+        <v>-0.8792700000000018</v>
+      </c>
+      <c r="BC3">
+        <v>2</v>
+      </c>
+      <c r="BD3">
+        <v>4.376176666666673</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0.03942811594202903</v>
+      </c>
+      <c r="BG3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="BH3">
+        <v>1.461538461538461</v>
+      </c>
+      <c r="BI3">
+        <v>9</v>
+      </c>
+      <c r="BJ3">
+        <v>1.005366461237983</v>
+      </c>
+      <c r="BK3">
+        <v>69</v>
+      </c>
+      <c r="BL3">
+        <v>70</v>
+      </c>
+      <c r="BM3">
+        <v>34.5</v>
+      </c>
+      <c r="BN3">
+        <v>19.99062280170381</v>
+      </c>
+      <c r="BO3">
+        <v>35.5</v>
+      </c>
+      <c r="BP3">
+        <v>19.99062280170381</v>
+      </c>
+      <c r="BQ3">
+        <v>21</v>
+      </c>
+      <c r="BR3">
+        <v>25.5903</v>
+      </c>
+      <c r="BS3">
+        <v>25.5903</v>
+      </c>
+      <c r="BT3">
+        <v>0.5</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="BW3">
+        <v>3</v>
+      </c>
+      <c r="BX3">
+        <v>0.638333333333333</v>
+      </c>
+      <c r="BY3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BZ3">
+        <v>3</v>
+      </c>
+      <c r="CA3">
+        <v>0.5</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0.3616666666666665</v>
+      </c>
+      <c r="CD3">
+        <v>-0.1576220812478201</v>
+      </c>
+      <c r="CE3">
+        <v>15</v>
+      </c>
+      <c r="CF3">
+        <v>0.5878822962025649</v>
+      </c>
+      <c r="CG3">
+        <v>0</v>
+      </c>
+      <c r="CH3">
+        <v>0.1225471428527434</v>
+      </c>
+      <c r="CI3">
+        <v>-0.4948433333333426</v>
+      </c>
+      <c r="CJ3">
+        <v>2</v>
+      </c>
+      <c r="CK3">
+        <v>4.854673333333329</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0.2543436666666666</v>
+      </c>
+      <c r="CN3">
+        <v>1</v>
+      </c>
+      <c r="CO3">
+        <v>1.214285714285714</v>
+      </c>
+      <c r="CP3">
+        <v>11</v>
+      </c>
+      <c r="CQ3">
+        <v>1.12442672417097</v>
+      </c>
+      <c r="CR3">
+        <v>20</v>
+      </c>
+      <c r="CS3">
+        <v>19</v>
+      </c>
+      <c r="CT3">
+        <v>11</v>
+      </c>
+      <c r="CU3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="CV3">
+        <v>10</v>
+      </c>
+      <c r="CW3">
+        <v>5.267826876426369</v>
+      </c>
+      <c r="CX3">
+        <v>33</v>
+      </c>
+      <c r="CY3">
+        <v>26.2144</v>
+      </c>
+      <c r="CZ3">
+        <v>26.21439999999999</v>
+      </c>
+      <c r="DA3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="DB3">
+        <v>20</v>
+      </c>
+      <c r="DC3">
+        <v>0.7</v>
+      </c>
+      <c r="DD3">
+        <v>5</v>
+      </c>
+      <c r="DE3">
+        <v>0.6343749999999998</v>
+      </c>
+      <c r="DF3">
+        <v>0.3</v>
+      </c>
+      <c r="DG3">
+        <v>5</v>
+      </c>
+      <c r="DH3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="DI3">
+        <v>20</v>
+      </c>
+      <c r="DJ3">
+        <v>0.3656250000000001</v>
+      </c>
+      <c r="DK3">
+        <v>-0.3577708763999691</v>
+      </c>
+      <c r="DL3">
+        <v>23</v>
+      </c>
+      <c r="DM3">
+        <v>0.5294521438194486</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0.06526809252450855</v>
+      </c>
+      <c r="DP3">
+        <v>-0.2269966666666647</v>
+      </c>
+      <c r="DQ3">
         <v>14</v>
       </c>
-      <c r="W3">
-        <v>2.150230000000001</v>
-      </c>
-      <c r="X3">
+      <c r="DR3">
+        <v>4.44253333333333</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0.1060813541666665</v>
+      </c>
+      <c r="DU3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="DV3">
+        <v>1.454545454545455</v>
+      </c>
+      <c r="DW3">
+        <v>17</v>
+      </c>
+      <c r="DX3">
+        <v>1.151143810076616</v>
+      </c>
+      <c r="DY3">
+        <v>0</v>
+      </c>
+      <c r="DZ3">
+        <v>0</v>
+      </c>
+      <c r="EE3">
+        <v>25</v>
+      </c>
+      <c r="EF3">
+        <v>26.2144</v>
+      </c>
+      <c r="EG3">
+        <v>26.21439999999999</v>
+      </c>
+      <c r="EH3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="EI3">
+        <v>2</v>
+      </c>
+      <c r="EJ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="EK3">
+        <v>14</v>
+      </c>
+      <c r="EL3">
+        <v>0.65</v>
+      </c>
+      <c r="EM3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="EN3">
+        <v>14</v>
+      </c>
+      <c r="EO3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="EP3">
+        <v>2</v>
+      </c>
+      <c r="EQ3">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="ER3">
+        <v>-0.5380077714285122</v>
+      </c>
+      <c r="ES3">
+        <v>8</v>
+      </c>
+      <c r="ET3">
+        <v>0.4495164216516982</v>
+      </c>
+      <c r="EU3">
+        <v>19</v>
+      </c>
+      <c r="EV3">
+        <v>0.09990917990576387</v>
+      </c>
+      <c r="EW3">
+        <v>-0.7042133333333389</v>
+      </c>
+      <c r="EX3">
+        <v>8</v>
+      </c>
+      <c r="EY3">
+        <v>3.192639999999997</v>
+      </c>
+      <c r="EZ3">
         <v>1</v>
       </c>
-      <c r="Y3">
-        <v>0.05879677419354835</v>
-      </c>
-      <c r="Z3">
-        <v>3</v>
-      </c>
-      <c r="AA3">
-        <v>1.5</v>
-      </c>
-      <c r="AB3">
-        <v>27</v>
-      </c>
-      <c r="AC3">
-        <v>1.02440311526772</v>
-      </c>
-      <c r="AD3">
-        <v>93</v>
-      </c>
-      <c r="AE3">
-        <v>94</v>
-      </c>
-      <c r="AF3">
-        <v>62</v>
-      </c>
-      <c r="AG3">
-        <v>26.2128</v>
-      </c>
-      <c r="AH3">
-        <v>26.2128</v>
-      </c>
-      <c r="AI3">
+      <c r="FA3">
+        <v>0.3808208333333329</v>
+      </c>
+      <c r="FB3">
+        <v>1</v>
+      </c>
+      <c r="FC3">
+        <v>1.25</v>
+      </c>
+      <c r="FD3">
+        <v>7</v>
+      </c>
+      <c r="FE3">
+        <v>1.130347120200061</v>
+      </c>
+      <c r="FF3">
+        <v>0</v>
+      </c>
+      <c r="FG3">
+        <v>0</v>
+      </c>
+      <c r="FL3">
+        <v>37</v>
+      </c>
+      <c r="FM3">
+        <v>26.2143</v>
+      </c>
+      <c r="FN3">
+        <v>26.21429999999999</v>
+      </c>
+      <c r="FO3">
         <v>0.5</v>
       </c>
-      <c r="AJ3">
-        <v>3</v>
-      </c>
-      <c r="AK3">
+      <c r="FP3">
+        <v>10</v>
+      </c>
+      <c r="FQ3">
         <v>0.7666666666666667</v>
       </c>
-      <c r="AL3">
-        <v>35</v>
-      </c>
-      <c r="AM3">
-        <v>0.6273224043715847</v>
-      </c>
-      <c r="AN3">
+      <c r="FR3">
+        <v>23</v>
+      </c>
+      <c r="FS3">
+        <v>0.6175925925925927</v>
+      </c>
+      <c r="FT3">
         <v>0.2333333333333333</v>
       </c>
-      <c r="AO3">
-        <v>35</v>
-      </c>
-      <c r="AP3">
+      <c r="FU3">
+        <v>23</v>
+      </c>
+      <c r="FV3">
         <v>0.5</v>
       </c>
-      <c r="AQ3">
-        <v>3</v>
-      </c>
-      <c r="AR3">
-        <v>0.3726775956284152</v>
-      </c>
-      <c r="AS3">
-        <v>-0.4444444444444741</v>
-      </c>
-      <c r="AT3">
-        <v>42</v>
-      </c>
-      <c r="AU3">
-        <v>0.3636964837266746</v>
-      </c>
-      <c r="AV3">
-        <v>40</v>
-      </c>
-      <c r="AW3">
-        <v>0.04435472793162745</v>
-      </c>
-      <c r="AX3">
-        <v>-0.4122433333333255</v>
-      </c>
-      <c r="AY3">
-        <v>3</v>
-      </c>
-      <c r="AZ3">
-        <v>2.374276666666674</v>
-      </c>
-      <c r="BA3">
+      <c r="FW3">
+        <v>10</v>
+      </c>
+      <c r="FX3">
+        <v>0.3824074074074075</v>
+      </c>
+      <c r="FY3">
+        <v>-0.3713906763548734</v>
+      </c>
+      <c r="FZ3">
+        <v>25</v>
+      </c>
+      <c r="GA3">
+        <v>0.5174141725196564</v>
+      </c>
+      <c r="GB3">
+        <v>0</v>
+      </c>
+      <c r="GC3">
+        <v>0.07058914454529429</v>
+      </c>
+      <c r="GD3">
+        <v>-0.4339066666666689</v>
+      </c>
+      <c r="GE3">
+        <v>7</v>
+      </c>
+      <c r="GF3">
+        <v>4.352239999999998</v>
+      </c>
+      <c r="GG3">
+        <v>0</v>
+      </c>
+      <c r="GH3">
+        <v>0.1134554629629628</v>
+      </c>
+      <c r="GI3">
         <v>1</v>
       </c>
-      <c r="BB3">
-        <v>0.08837092896174879</v>
-      </c>
-      <c r="BC3">
-        <v>1</v>
-      </c>
-      <c r="BD3">
-        <v>1.25</v>
-      </c>
-      <c r="BE3">
-        <v>14</v>
-      </c>
-      <c r="BF3">
-        <v>1.021786203517333</v>
-      </c>
-      <c r="BG3">
-        <v>61</v>
-      </c>
-      <c r="BH3">
+      <c r="GJ3">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="GK3">
+        <v>11</v>
+      </c>
+      <c r="GL3">
+        <v>1.03760678066032</v>
+      </c>
+      <c r="GM3">
+        <v>36</v>
+      </c>
+      <c r="GN3">
+        <v>37</v>
+      </c>
+      <c r="GO3">
+        <v>18</v>
+      </c>
+      <c r="GP3">
+        <v>10.46422476822817</v>
+      </c>
+      <c r="GQ3">
+        <v>19</v>
+      </c>
+      <c r="GR3">
+        <v>10.46422476822817</v>
+      </c>
+      <c r="GS3">
         <v>59</v>
       </c>
-      <c r="BI3">
-        <v>30</v>
-      </c>
-      <c r="BJ3">
-        <v>25.4044</v>
-      </c>
-      <c r="BK3">
-        <v>25.4044</v>
-      </c>
-      <c r="BL3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="BM3">
-        <v>29</v>
-      </c>
-      <c r="BN3">
+      <c r="GT3">
+        <v>25.984</v>
+      </c>
+      <c r="GU3">
+        <v>25.98400000000001</v>
+      </c>
+      <c r="GV3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="GW3">
+        <v>24</v>
+      </c>
+      <c r="GX3">
         <v>0.7666666666666667</v>
       </c>
-      <c r="BO3">
-        <v>13</v>
-      </c>
-      <c r="BP3">
-        <v>0.6321839080459766</v>
-      </c>
-      <c r="BQ3">
+      <c r="GY3">
+        <v>22</v>
+      </c>
+      <c r="GZ3">
+        <v>0.6436781609195404</v>
+      </c>
+      <c r="HA3">
         <v>0.2333333333333333</v>
       </c>
-      <c r="BR3">
-        <v>13</v>
-      </c>
-      <c r="BS3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="BT3">
-        <v>29</v>
-      </c>
-      <c r="BU3">
-        <v>0.3678160919540231</v>
-      </c>
-      <c r="BV3">
-        <v>-0.06788632602778863</v>
-      </c>
-      <c r="BW3">
-        <v>10</v>
-      </c>
-      <c r="BX3">
-        <v>0.6742803694537669</v>
-      </c>
-      <c r="BY3">
+      <c r="HB3">
+        <v>22</v>
+      </c>
+      <c r="HC3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="HD3">
+        <v>24</v>
+      </c>
+      <c r="HE3">
+        <v>0.3563218390804598</v>
+      </c>
+      <c r="HF3">
+        <v>-0.4472135954999265</v>
+      </c>
+      <c r="HG3">
+        <v>52</v>
+      </c>
+      <c r="HH3">
+        <v>0.5407128040655302</v>
+      </c>
+      <c r="HI3">
         <v>0</v>
       </c>
-      <c r="BZ3">
-        <v>0.09360382894706726</v>
-      </c>
-      <c r="CA3">
-        <v>-0.1250333333333344</v>
-      </c>
-      <c r="CB3">
-        <v>10</v>
-      </c>
-      <c r="CC3">
-        <v>5.568139999999994</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0.1443967816091957</v>
-      </c>
-      <c r="CF3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="CG3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="CH3">
-        <v>10</v>
-      </c>
-      <c r="CI3">
-        <v>1.027328933379908</v>
-      </c>
-      <c r="CJ3">
-        <v>29</v>
-      </c>
-      <c r="CK3">
-        <v>28</v>
-      </c>
-      <c r="CL3">
-        <v>12</v>
-      </c>
-      <c r="CM3">
-        <v>25.9228</v>
-      </c>
-      <c r="CN3">
-        <v>25.92280000000001</v>
-      </c>
-      <c r="CO3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="CP3">
-        <v>2</v>
-      </c>
-      <c r="CQ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="CR3">
-        <v>7</v>
-      </c>
-      <c r="CS3">
-        <v>0.6242424242424242</v>
-      </c>
-      <c r="CT3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="CU3">
-        <v>7</v>
-      </c>
-      <c r="CV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CW3">
-        <v>2</v>
-      </c>
-      <c r="CX3">
-        <v>0.3757575757575758</v>
-      </c>
-      <c r="CY3">
-        <v>-0.01187567266229717</v>
-      </c>
-      <c r="CZ3">
-        <v>5</v>
-      </c>
-      <c r="DA3">
-        <v>0.484657511413811</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>0.1482471296570908</v>
-      </c>
-      <c r="DD3">
-        <v>-0.01859999999999928</v>
-      </c>
-      <c r="DE3">
-        <v>5</v>
-      </c>
-      <c r="DF3">
-        <v>4.066669999999995</v>
-      </c>
-      <c r="DG3">
-        <v>0</v>
-      </c>
-      <c r="DH3">
-        <v>0.3162606060606072</v>
-      </c>
-      <c r="DI3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DK3">
-        <v>12</v>
-      </c>
-      <c r="DL3">
-        <v>0.7587962962962962</v>
-      </c>
-      <c r="DM3">
-        <v>11</v>
-      </c>
-      <c r="DN3">
-        <v>10</v>
-      </c>
-      <c r="DO3">
-        <v>74</v>
-      </c>
-      <c r="DP3">
-        <v>26.2144</v>
-      </c>
-      <c r="DQ3">
-        <v>26.21439999999999</v>
-      </c>
-      <c r="DR3">
-        <v>0.5</v>
-      </c>
-      <c r="DS3">
-        <v>30</v>
-      </c>
-      <c r="DT3">
-        <v>0.8</v>
-      </c>
-      <c r="DU3">
-        <v>36</v>
-      </c>
-      <c r="DV3">
-        <v>0.641095890410959</v>
-      </c>
-      <c r="DW3">
-        <v>0.2</v>
-      </c>
-      <c r="DX3">
-        <v>36</v>
-      </c>
-      <c r="DY3">
-        <v>0.5</v>
-      </c>
-      <c r="DZ3">
-        <v>30</v>
-      </c>
-      <c r="EA3">
-        <v>0.3589041095890411</v>
-      </c>
-      <c r="EB3">
-        <v>-0.5883484054145462</v>
-      </c>
-      <c r="EC3">
-        <v>47</v>
-      </c>
-      <c r="ED3">
-        <v>0.5664327763538516</v>
-      </c>
-      <c r="EE3">
-        <v>1</v>
-      </c>
-      <c r="EF3">
-        <v>0.03947494226874105</v>
-      </c>
-      <c r="EG3">
-        <v>-0.3490000000000002</v>
-      </c>
-      <c r="EH3">
+      <c r="HJ3">
+        <v>0.03613621854726051</v>
+      </c>
+      <c r="HK3">
+        <v>-0.4796499999999995</v>
+      </c>
+      <c r="HL3">
         <v>9</v>
       </c>
-      <c r="EI3">
-        <v>4.610493333333331</v>
-      </c>
-      <c r="EJ3">
-        <v>1</v>
-      </c>
-      <c r="EK3">
-        <v>0.1340067579908674</v>
-      </c>
-      <c r="EL3">
-        <v>2</v>
-      </c>
-      <c r="EM3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="EN3">
-        <v>5</v>
-      </c>
-      <c r="EO3">
-        <v>1.050189804481089</v>
-      </c>
-      <c r="EP3">
-        <v>0</v>
-      </c>
-      <c r="EQ3">
-        <v>0</v>
-      </c>
-      <c r="ER3">
-        <v>55</v>
-      </c>
-      <c r="ES3">
-        <v>24.4983</v>
-      </c>
-      <c r="ET3">
-        <v>24.49829999999999</v>
-      </c>
-      <c r="EU3">
-        <v>0.5</v>
-      </c>
-      <c r="EV3">
-        <v>30</v>
-      </c>
-      <c r="EW3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="EX3">
-        <v>42</v>
-      </c>
-      <c r="EY3">
-        <v>0.6203703703703705</v>
-      </c>
-      <c r="EZ3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="FA3">
-        <v>42</v>
-      </c>
-      <c r="FB3">
-        <v>0.5</v>
-      </c>
-      <c r="FC3">
-        <v>30</v>
-      </c>
-      <c r="FD3">
-        <v>0.3796296296296298</v>
-      </c>
-      <c r="FE3">
-        <v>-0.3971084183542048</v>
-      </c>
-      <c r="FF3">
-        <v>16</v>
-      </c>
-      <c r="FG3">
-        <v>0.6979304820805704</v>
-      </c>
-      <c r="FH3">
-        <v>0</v>
-      </c>
-      <c r="FI3">
-        <v>-0.02227329123596137</v>
-      </c>
-      <c r="FJ3">
-        <v>-0.3710066666666769</v>
-      </c>
-      <c r="FK3">
-        <v>5</v>
-      </c>
-      <c r="FL3">
-        <v>5.870656666666672</v>
-      </c>
-      <c r="FM3">
-        <v>0</v>
-      </c>
-      <c r="FN3">
-        <v>0.01574037037037014</v>
-      </c>
-      <c r="FO3">
-        <v>1</v>
-      </c>
-      <c r="FP3">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="FQ3">
-        <v>29</v>
-      </c>
-      <c r="FR3">
-        <v>1.068605124118774</v>
-      </c>
-      <c r="FS3">
-        <v>54</v>
-      </c>
-      <c r="FT3">
-        <v>1</v>
-      </c>
-      <c r="FU3">
-        <v>25</v>
-      </c>
-      <c r="FV3">
-        <v>26.1615</v>
-      </c>
-      <c r="FW3">
-        <v>26.16150000000001</v>
-      </c>
-      <c r="FX3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="FY3">
-        <v>4</v>
-      </c>
-      <c r="FZ3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="GA3">
-        <v>12</v>
-      </c>
-      <c r="GB3">
-        <v>0.6319444444444441</v>
-      </c>
-      <c r="GC3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="GD3">
-        <v>12</v>
-      </c>
-      <c r="GE3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="GF3">
-        <v>4</v>
-      </c>
-      <c r="GG3">
-        <v>0.3680555555555556</v>
-      </c>
-      <c r="GH3">
-        <v>-0.2328838685942116</v>
-      </c>
-      <c r="GI3">
-        <v>16</v>
-      </c>
-      <c r="GJ3">
-        <v>0.5970006060481436</v>
-      </c>
-      <c r="GK3">
-        <v>6</v>
-      </c>
-      <c r="GL3">
-        <v>0.1005875038588587</v>
-      </c>
-      <c r="GM3">
-        <v>-0.2985533333333308</v>
-      </c>
-      <c r="GN3">
-        <v>16</v>
-      </c>
-      <c r="GO3">
-        <v>2.685206666666669</v>
-      </c>
-      <c r="GP3">
-        <v>0</v>
-      </c>
-      <c r="GQ3">
-        <v>0.250160277777778</v>
-      </c>
-      <c r="GR3">
-        <v>2</v>
-      </c>
-      <c r="GS3">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="GT3">
-        <v>14</v>
-      </c>
-      <c r="GU3">
-        <v>1.156679324060556</v>
-      </c>
-      <c r="GV3">
-        <v>24</v>
-      </c>
-      <c r="GW3">
-        <v>25</v>
-      </c>
-      <c r="GX3">
-        <v>30</v>
-      </c>
-      <c r="GY3">
-        <v>26.1519</v>
-      </c>
-      <c r="GZ3">
-        <v>26.15189999999999</v>
-      </c>
-      <c r="HA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="HB3">
-        <v>13</v>
-      </c>
-      <c r="HC3">
-        <v>0.7</v>
-      </c>
-      <c r="HD3">
-        <v>9</v>
-      </c>
-      <c r="HE3">
-        <v>0.6195402298850574</v>
-      </c>
-      <c r="HF3">
-        <v>0.3</v>
-      </c>
-      <c r="HG3">
-        <v>9</v>
-      </c>
-      <c r="HH3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="HI3">
-        <v>13</v>
-      </c>
-      <c r="HJ3">
-        <v>0.3804597701149426</v>
-      </c>
-      <c r="HK3">
-        <v>-0.3458572319325823</v>
-      </c>
-      <c r="HL3">
-        <v>14</v>
-      </c>
       <c r="HM3">
-        <v>0.4925797068370247</v>
+        <v>4.249826666666664</v>
       </c>
       <c r="HN3">
         <v>0</v>
       </c>
       <c r="HO3">
-        <v>0.06495169344057453</v>
+        <v>0.07347804597701164</v>
       </c>
       <c r="HP3">
-        <v>-0.1151233333333259</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="HQ3">
-        <v>7</v>
+        <v>1.454545454545455</v>
       </c>
       <c r="HR3">
-        <v>3.751136666666664</v>
+        <v>15</v>
       </c>
       <c r="HS3">
+        <v>1.03489539937778</v>
+      </c>
+      <c r="HT3">
+        <v>58</v>
+      </c>
+      <c r="HU3">
+        <v>55</v>
+      </c>
+      <c r="HV3">
+        <v>31</v>
+      </c>
+      <c r="HW3">
+        <v>15.66045976336583</v>
+      </c>
+      <c r="HX3">
+        <v>28</v>
+      </c>
+      <c r="HY3">
+        <v>15.66045976336583</v>
+      </c>
+      <c r="HZ3">
+        <v>48</v>
+      </c>
+      <c r="IA3">
+        <v>26.1303</v>
+      </c>
+      <c r="IB3">
+        <v>26.13030000000001</v>
+      </c>
+      <c r="IC3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="ID3">
+        <v>35</v>
+      </c>
+      <c r="IE3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="IF3">
+        <v>21</v>
+      </c>
+      <c r="IG3">
+        <v>0.6609929078014186</v>
+      </c>
+      <c r="IH3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="II3">
+        <v>21</v>
+      </c>
+      <c r="IJ3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="IK3">
+        <v>35</v>
+      </c>
+      <c r="IL3">
+        <v>0.3390070921985818</v>
+      </c>
+      <c r="IM3">
+        <v>-0.3333333333333424</v>
+      </c>
+      <c r="IN3">
+        <v>33</v>
+      </c>
+      <c r="IO3">
+        <v>0.470961326832889</v>
+      </c>
+      <c r="IP3">
+        <v>17</v>
+      </c>
+      <c r="IQ3">
+        <v>0.06663956428603553</v>
+      </c>
+      <c r="IR3">
+        <v>-0.2007900000000049</v>
+      </c>
+      <c r="IS3">
+        <v>13</v>
+      </c>
+      <c r="IT3">
+        <v>2.389016666666674</v>
+      </c>
+      <c r="IU3">
         <v>0</v>
       </c>
-      <c r="HT3">
-        <v>0.1255272413793102</v>
-      </c>
-      <c r="HU3">
+      <c r="IV3">
+        <v>0.1059746808510639</v>
+      </c>
+      <c r="IW3">
+        <v>0</v>
+      </c>
+      <c r="IX3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="IY3">
+        <v>24</v>
+      </c>
+      <c r="IZ3">
+        <v>1.096364482082482</v>
+      </c>
+      <c r="JA3">
+        <v>47</v>
+      </c>
+      <c r="JB3">
+        <v>47</v>
+      </c>
+      <c r="JC3">
+        <v>24</v>
+      </c>
+      <c r="JD3">
+        <v>13.35102992281869</v>
+      </c>
+      <c r="JE3">
+        <v>24</v>
+      </c>
+      <c r="JF3">
+        <v>13.35102992281869</v>
+      </c>
+      <c r="JG3">
+        <v>61</v>
+      </c>
+      <c r="JH3">
+        <v>26.0295</v>
+      </c>
+      <c r="JI3">
+        <v>26.0295</v>
+      </c>
+      <c r="JJ3">
+        <v>0.5</v>
+      </c>
+      <c r="JK3">
         <v>2</v>
       </c>
-      <c r="HV3">
+      <c r="JL3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="JM3">
+        <v>14</v>
+      </c>
+      <c r="JN3">
+        <v>0.6455555555555555</v>
+      </c>
+      <c r="JO3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="JP3">
+        <v>14</v>
+      </c>
+      <c r="JQ3">
+        <v>0.5</v>
+      </c>
+      <c r="JR3">
+        <v>2</v>
+      </c>
+      <c r="JS3">
+        <v>0.3544444444444446</v>
+      </c>
+      <c r="JT3">
+        <v>-0.4082482904637846</v>
+      </c>
+      <c r="JU3">
+        <v>24</v>
+      </c>
+      <c r="JV3">
+        <v>0.6273784112881703</v>
+      </c>
+      <c r="JW3">
         <v>0</v>
       </c>
-      <c r="HW3">
-        <v>10</v>
-      </c>
-      <c r="HX3">
-        <v>1.02195615553681</v>
-      </c>
-      <c r="HY3">
-        <v>29</v>
-      </c>
-      <c r="HZ3">
-        <v>21</v>
-      </c>
-      <c r="IA3">
-        <v>13</v>
-      </c>
-      <c r="IB3">
-        <v>26.0295</v>
-      </c>
-      <c r="IC3">
-        <v>26.0295</v>
-      </c>
-      <c r="ID3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="IE3">
+      <c r="JX3">
+        <v>0.02675279210856005</v>
+      </c>
+      <c r="JY3">
+        <v>-0.03697999999999269</v>
+      </c>
+      <c r="JZ3">
+        <v>24</v>
+      </c>
+      <c r="KA3">
+        <v>4.792513333333329</v>
+      </c>
+      <c r="KB3">
+        <v>0</v>
+      </c>
+      <c r="KC3">
+        <v>0.07381572222222227</v>
+      </c>
+      <c r="KD3">
         <v>1</v>
       </c>
-      <c r="IF3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="IG3">
-        <v>11</v>
-      </c>
-      <c r="IH3">
-        <v>0.6222222222222221</v>
-      </c>
-      <c r="II3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="IJ3">
-        <v>11</v>
-      </c>
-      <c r="IK3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="IL3">
+      <c r="KE3">
+        <v>1.7</v>
+      </c>
+      <c r="KF3">
+        <v>20</v>
+      </c>
+      <c r="KG3">
+        <v>1.071420756196551</v>
+      </c>
+      <c r="KH3">
+        <v>60</v>
+      </c>
+      <c r="KI3">
         <v>1</v>
       </c>
-      <c r="IM3">
-        <v>0.3777777777777778</v>
-      </c>
-      <c r="IN3">
-        <v>-0.1856953381770529</v>
-      </c>
-      <c r="IO3">
-        <v>8</v>
-      </c>
-      <c r="IP3">
-        <v>0.465086599862935</v>
-      </c>
-      <c r="IQ3">
-        <v>4</v>
-      </c>
-      <c r="IR3">
-        <v>0.1333809865814213</v>
-      </c>
-      <c r="IS3">
-        <v>-0.6086500000000008</v>
-      </c>
-      <c r="IT3">
-        <v>3</v>
-      </c>
-      <c r="IU3">
-        <v>3.120956666666661</v>
-      </c>
-      <c r="IV3">
+      <c r="KJ3">
+        <v>60</v>
+      </c>
+      <c r="KK3">
         <v>0</v>
       </c>
-      <c r="IW3">
-        <v>0.5083750000000004</v>
-      </c>
-      <c r="IX3">
-        <v>0.5</v>
-      </c>
-      <c r="IY3">
-        <v>1.75</v>
-      </c>
-      <c r="IZ3">
-        <v>5</v>
-      </c>
-      <c r="JA3">
-        <v>1.037797188566419</v>
-      </c>
-      <c r="JB3">
-        <v>12</v>
-      </c>
-      <c r="JC3">
-        <v>11</v>
-      </c>
-      <c r="JD3">
-        <v>70</v>
-      </c>
-      <c r="JE3">
+      <c r="KL3">
+        <v>1</v>
+      </c>
+      <c r="KM3">
+        <v>0</v>
+      </c>
+      <c r="KN3">
+        <v>92</v>
+      </c>
+      <c r="KO3">
         <v>26.2143</v>
       </c>
-      <c r="JF3">
+      <c r="KP3">
         <v>26.21429999999999</v>
-      </c>
-      <c r="JG3">
-        <v>0.5</v>
-      </c>
-      <c r="JH3">
-        <v>4</v>
-      </c>
-      <c r="JI3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="JJ3">
-        <v>53</v>
-      </c>
-      <c r="JK3">
-        <v>0.6362318840579713</v>
-      </c>
-      <c r="JL3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="JM3">
-        <v>53</v>
-      </c>
-      <c r="JN3">
-        <v>0.5</v>
-      </c>
-      <c r="JO3">
-        <v>4</v>
-      </c>
-      <c r="JP3">
-        <v>0.3637681159420289</v>
-      </c>
-      <c r="JQ3">
-        <v>-0.394055203121417</v>
-      </c>
-      <c r="JR3">
-        <v>26</v>
-      </c>
-      <c r="JS3">
-        <v>0.5535587725299915</v>
-      </c>
-      <c r="JT3">
-        <v>4</v>
-      </c>
-      <c r="JU3">
-        <v>0.03765152586655671</v>
-      </c>
-      <c r="JV3">
-        <v>-0.09734999999999516</v>
-      </c>
-      <c r="JW3">
-        <v>8</v>
-      </c>
-      <c r="JX3">
-        <v>2.879793333333332</v>
-      </c>
-      <c r="JY3">
-        <v>0</v>
-      </c>
-      <c r="JZ3">
-        <v>0.06802632850241534</v>
-      </c>
-      <c r="KA3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="KB3">
-        <v>1.25</v>
-      </c>
-      <c r="KC3">
-        <v>10</v>
-      </c>
-      <c r="KD3">
-        <v>1.04065027143127</v>
-      </c>
-      <c r="KE3">
-        <v>69</v>
-      </c>
-      <c r="KF3">
-        <v>70</v>
-      </c>
-      <c r="KG3">
-        <v>0.2</v>
-      </c>
-      <c r="KH3">
-        <v>2</v>
-      </c>
-      <c r="KI3">
-        <v>70</v>
-      </c>
-      <c r="KJ3">
-        <v>74</v>
-      </c>
-      <c r="KK3">
-        <v>72</v>
-      </c>
-      <c r="KL3">
-        <v>2</v>
-      </c>
-      <c r="KM3">
-        <v>0.5</v>
-      </c>
-      <c r="KN3">
-        <v>30</v>
-      </c>
-      <c r="KO3">
-        <v>0.8</v>
-      </c>
-      <c r="KP3">
-        <v>36</v>
       </c>
       <c r="KQ3">
         <v>0.5</v>
       </c>
       <c r="KR3">
+        <v>76</v>
+      </c>
+      <c r="KS3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="KT3">
+        <v>4</v>
+      </c>
+      <c r="KU3">
+        <v>0.6344322344322348</v>
+      </c>
+      <c r="KV3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="KW3">
+        <v>4</v>
+      </c>
+      <c r="KX3">
+        <v>0.5</v>
+      </c>
+      <c r="KY3">
+        <v>76</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3655677655677655</v>
+      </c>
+      <c r="LA3">
+        <v>-0.3402069087198793</v>
+      </c>
+      <c r="LB3">
+        <v>68</v>
+      </c>
+      <c r="LC3">
+        <v>0.4283918463195061</v>
+      </c>
+      <c r="LD3">
+        <v>2</v>
+      </c>
+      <c r="LE3">
+        <v>0.03851102213476965</v>
+      </c>
+      <c r="LF3">
+        <v>-0.2096833333333343</v>
+      </c>
+      <c r="LG3">
+        <v>3</v>
+      </c>
+      <c r="LH3">
+        <v>3.239236666666663</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>0.04763047619047613</v>
+      </c>
+      <c r="LK3">
+        <v>0</v>
+      </c>
+      <c r="LL3">
+        <v>1.25</v>
+      </c>
+      <c r="LM3">
+        <v>31</v>
+      </c>
+      <c r="LN3">
+        <v>1.065660729915944</v>
+      </c>
+      <c r="LO3">
+        <v>91</v>
+      </c>
+      <c r="LP3">
+        <v>91</v>
+      </c>
+      <c r="LQ3">
+        <v>46</v>
+      </c>
+      <c r="LR3">
+        <v>26.05283094022606</v>
+      </c>
+      <c r="LS3">
+        <v>46</v>
+      </c>
+      <c r="LT3">
+        <v>26.05283094022606</v>
+      </c>
+      <c r="LU3">
+        <v>0.5</v>
+      </c>
+      <c r="LV3">
+        <v>5</v>
+      </c>
+      <c r="LW3">
+        <v>25</v>
+      </c>
+      <c r="LX3">
+        <v>92</v>
+      </c>
+      <c r="LY3">
+        <v>47</v>
+      </c>
+      <c r="LZ3">
+        <v>23.68966019173766</v>
+      </c>
+      <c r="MA3">
+        <v>0.5</v>
+      </c>
+      <c r="MB3">
+        <v>10</v>
+      </c>
+      <c r="MC3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="MD3">
+        <v>14</v>
+      </c>
+      <c r="ME3">
+        <v>0.5266666666666666</v>
+      </c>
+      <c r="MF3">
+        <v>0.74</v>
+      </c>
+      <c r="MG3">
+        <v>0.6372090434191499</v>
+      </c>
+      <c r="MH3">
+        <v>0.02494438257849294</v>
+      </c>
+      <c r="MI3">
+        <v>0.02494438257849298</v>
+      </c>
+      <c r="MJ3">
+        <v>0.01199015347339989</v>
+      </c>
+      <c r="MK3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="ML3">
+        <v>14</v>
+      </c>
+      <c r="MM3">
+        <v>0.5</v>
+      </c>
+      <c r="MN3">
+        <v>10</v>
+      </c>
+      <c r="MO3">
+        <v>0.26</v>
+      </c>
+      <c r="MP3">
+        <v>0.4733333333333333</v>
+      </c>
+      <c r="MQ3">
+        <v>0.3627909565808503</v>
+      </c>
+      <c r="MR3">
+        <v>0.02494438257849294</v>
+      </c>
+      <c r="MS3">
+        <v>0.02494438257849294</v>
+      </c>
+      <c r="MT3">
+        <v>0.01199015347339987</v>
+      </c>
+      <c r="MU3">
+        <v>-0.5380077714285122</v>
+      </c>
+      <c r="MV3">
+        <v>8</v>
+      </c>
+      <c r="MW3">
+        <v>0.5294521438194486</v>
+      </c>
+      <c r="MX3">
+        <v>0</v>
+      </c>
+      <c r="MY3">
+        <v>-0.4044676856946253</v>
+      </c>
+      <c r="MZ3">
+        <v>0.4656792343549968</v>
+      </c>
+      <c r="NA3">
+        <v>0.06248502010570839</v>
+      </c>
+      <c r="NB3">
+        <v>0.07120002421052611</v>
+      </c>
+      <c r="NC3">
+        <v>0.0494898477811711</v>
+      </c>
+      <c r="ND3">
+        <v>0.02298281822734283</v>
+      </c>
+      <c r="NE3">
+        <v>-0.7042133333333389</v>
+      </c>
+      <c r="NF3">
+        <v>8</v>
+      </c>
+      <c r="NG3">
+        <v>4.44253333333333</v>
+      </c>
+      <c r="NH3">
+        <v>0</v>
+      </c>
+      <c r="NI3">
+        <v>-0.3725226666666678</v>
+      </c>
+      <c r="NJ3">
+        <v>3.601620666666664</v>
+      </c>
+      <c r="NK3">
+        <v>0.150396703344872</v>
+      </c>
+      <c r="NL3">
+        <v>0</v>
+      </c>
+      <c r="NM3">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="NN3">
         <v>0.7666666666666666</v>
       </c>
-      <c r="KS3">
-        <v>0.6386638872344652</v>
-      </c>
-      <c r="KT3">
-        <v>0</v>
-      </c>
-      <c r="KU3">
-        <v>0.03333333333333338</v>
-      </c>
-      <c r="KV3">
-        <v>0.002432003176493891</v>
-      </c>
-      <c r="KW3">
-        <v>0.2</v>
-      </c>
-      <c r="KX3">
-        <v>36</v>
-      </c>
-      <c r="KY3">
-        <v>0.5</v>
-      </c>
-      <c r="KZ3">
-        <v>30</v>
-      </c>
-      <c r="LA3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="LB3">
-        <v>0.5</v>
-      </c>
-      <c r="LC3">
-        <v>0.361336112765535</v>
-      </c>
-      <c r="LD3">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="LE3">
-        <v>0</v>
-      </c>
-      <c r="LF3">
-        <v>0.002432003176493919</v>
-      </c>
-      <c r="LG3">
-        <v>-0.5883484054145462</v>
-      </c>
-      <c r="LH3">
-        <v>47</v>
-      </c>
-      <c r="LI3">
-        <v>0.5664327763538516</v>
-      </c>
-      <c r="LJ3">
-        <v>1</v>
-      </c>
-      <c r="LK3">
-        <v>-0.4912018042679816</v>
-      </c>
-      <c r="LL3">
-        <v>0.5599957744419215</v>
-      </c>
-      <c r="LM3">
-        <v>0.03856323406764888</v>
-      </c>
-      <c r="LN3">
-        <v>0.09714660114656465</v>
-      </c>
-      <c r="LO3">
-        <v>0.006437001911930029</v>
-      </c>
-      <c r="LP3">
-        <v>0.0009117082010921679</v>
-      </c>
-      <c r="LQ3">
-        <v>-0.3490000000000002</v>
-      </c>
-      <c r="LR3">
-        <v>9</v>
-      </c>
-      <c r="LS3">
-        <v>4.610493333333331</v>
-      </c>
-      <c r="LT3">
-        <v>1</v>
-      </c>
-      <c r="LU3">
-        <v>-0.2231749999999977</v>
-      </c>
-      <c r="LV3">
-        <v>3.745143333333331</v>
-      </c>
-      <c r="LW3">
-        <v>0.1010165432466414</v>
-      </c>
-      <c r="LX3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="LY3">
-        <v>2</v>
-      </c>
-      <c r="LZ3">
-        <v>1.666666666666667</v>
-      </c>
-      <c r="MA3">
+      <c r="NO3">
         <v>1.071428571428571</v>
       </c>
-      <c r="MB3">
-        <v>1.25</v>
-      </c>
-      <c r="MC3">
-        <v>1.160714285714286</v>
-      </c>
-      <c r="MD3">
-        <v>1.04065027143127</v>
-      </c>
-      <c r="ME3">
-        <v>1.050189804481089</v>
-      </c>
-      <c r="MF3">
-        <v>1.04542003795618</v>
-      </c>
-      <c r="MG3">
-        <v>12</v>
-      </c>
-      <c r="MH3">
-        <v>94</v>
-      </c>
-      <c r="MI3">
-        <v>40.125</v>
-      </c>
-      <c r="MJ3">
-        <v>26.36966770742476</v>
-      </c>
-      <c r="MK3">
-        <v>25.7919375</v>
-      </c>
-      <c r="ML3">
-        <v>0.5439301998820714</v>
-      </c>
-      <c r="MM3">
-        <v>26.2128</v>
+      <c r="NP3">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="NQ3">
+        <v>1.360750360750361</v>
+      </c>
+      <c r="NR3">
+        <v>1.03760678066032</v>
+      </c>
+      <c r="NS3">
+        <v>1.151143810076616</v>
+      </c>
+      <c r="NT3">
+        <v>1.096336852483821</v>
+      </c>
+      <c r="NU3">
+        <v>21</v>
+      </c>
+      <c r="NV3">
+        <v>70</v>
+      </c>
+      <c r="NW3">
+        <v>51.8</v>
+      </c>
+      <c r="NX3">
+        <v>16.9162643630324</v>
+      </c>
+      <c r="NY3">
+        <v>25.88602</v>
+      </c>
+      <c r="NZ3">
+        <v>0.20659972313631</v>
+      </c>
+      <c r="OA3">
+        <v>26.1303</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AE1"/>
-    <mergeCell ref="AF1:BH1"/>
-    <mergeCell ref="BI1:CK1"/>
-    <mergeCell ref="CL1:DN1"/>
-    <mergeCell ref="DO1:EQ1"/>
-    <mergeCell ref="ER1:FT1"/>
-    <mergeCell ref="FU1:GW1"/>
-    <mergeCell ref="GX1:HZ1"/>
-    <mergeCell ref="IA1:JC1"/>
-    <mergeCell ref="JD1:KF1"/>
-    <mergeCell ref="KG1:MM1"/>
+    <mergeCell ref="C1:AI1"/>
+    <mergeCell ref="AJ1:BP1"/>
+    <mergeCell ref="BQ1:CW1"/>
+    <mergeCell ref="CX1:ED1"/>
+    <mergeCell ref="EE1:FK1"/>
+    <mergeCell ref="FL1:GR1"/>
+    <mergeCell ref="GS1:HY1"/>
+    <mergeCell ref="HZ1:JF1"/>
+    <mergeCell ref="JG1:KM1"/>
+    <mergeCell ref="KN1:LT1"/>
+    <mergeCell ref="LU1:OA1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/F5122subx2/F5122subx2_30.xlsx
+++ b/out_test/tables/F5122subx2/F5122subx2_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
   <si>
     <t>RWS</t>
   </si>
@@ -119,6 +119,33 @@
   </si>
   <si>
     <t>Sigma_Num_loose</t>
+  </si>
+  <si>
+    <t>I_start</t>
+  </si>
+  <si>
+    <t>GR_start</t>
+  </si>
+  <si>
+    <t>Pr_start</t>
+  </si>
+  <si>
+    <t>Pr_min</t>
+  </si>
+  <si>
+    <t>NI_Pr_min</t>
+  </si>
+  <si>
+    <t>Pr_max</t>
+  </si>
+  <si>
+    <t>NI_Pr_max</t>
+  </si>
+  <si>
+    <t>Pr_avg</t>
+  </si>
+  <si>
+    <t>NI_Pr_avg</t>
   </si>
   <si>
     <t>Run 0</t>
@@ -674,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:OA3"/>
+  <dimension ref="A1:RV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -685,15 +712,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:391">
+    <row r="1" spans="1:490">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -727,9 +754,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -738,7 +763,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AS1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
       <c r="AV1" s="1"/>
@@ -762,9 +789,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
-      <c r="BQ1" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="BQ1" s="1"/>
       <c r="BR1" s="1"/>
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
@@ -782,7 +807,9 @@
       <c r="CF1" s="1"/>
       <c r="CG1" s="1"/>
       <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
+      <c r="CI1" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -797,9 +824,7 @@
       <c r="CU1" s="1"/>
       <c r="CV1" s="1"/>
       <c r="CW1" s="1"/>
-      <c r="CX1" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="CX1" s="1"/>
       <c r="CY1" s="1"/>
       <c r="CZ1" s="1"/>
       <c r="DA1" s="1"/>
@@ -826,15 +851,15 @@
       <c r="DV1" s="1"/>
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
+      <c r="DY1" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="DZ1" s="1"/>
       <c r="EA1" s="1"/>
       <c r="EB1" s="1"/>
       <c r="EC1" s="1"/>
       <c r="ED1" s="1"/>
-      <c r="EE1" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="EE1" s="1"/>
       <c r="EF1" s="1"/>
       <c r="EG1" s="1"/>
       <c r="EH1" s="1"/>
@@ -867,12 +892,12 @@
       <c r="FI1" s="1"/>
       <c r="FJ1" s="1"/>
       <c r="FK1" s="1"/>
-      <c r="FL1" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="FL1" s="1"/>
       <c r="FM1" s="1"/>
       <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
+      <c r="FO1" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="FP1" s="1"/>
       <c r="FQ1" s="1"/>
       <c r="FR1" s="1"/>
@@ -902,9 +927,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1"/>
-      <c r="GS1" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
       <c r="GU1" s="1"/>
       <c r="GV1" s="1"/>
@@ -916,7 +939,9 @@
       <c r="HB1" s="1"/>
       <c r="HC1" s="1"/>
       <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
+      <c r="HE1" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="HF1" s="1"/>
       <c r="HG1" s="1"/>
       <c r="HH1" s="1"/>
@@ -937,9 +962,7 @@
       <c r="HW1" s="1"/>
       <c r="HX1" s="1"/>
       <c r="HY1" s="1"/>
-      <c r="HZ1" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="HZ1" s="1"/>
       <c r="IA1" s="1"/>
       <c r="IB1" s="1"/>
       <c r="IC1" s="1"/>
@@ -960,7 +983,9 @@
       <c r="IR1" s="1"/>
       <c r="IS1" s="1"/>
       <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
+      <c r="IU1" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="IV1" s="1"/>
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
@@ -972,9 +997,7 @@
       <c r="JD1" s="1"/>
       <c r="JE1" s="1"/>
       <c r="JF1" s="1"/>
-      <c r="JG1" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="JG1" s="1"/>
       <c r="JH1" s="1"/>
       <c r="JI1" s="1"/>
       <c r="JJ1" s="1"/>
@@ -1004,12 +1027,12 @@
       <c r="KH1" s="1"/>
       <c r="KI1" s="1"/>
       <c r="KJ1" s="1"/>
-      <c r="KK1" s="1"/>
+      <c r="KK1" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="KL1" s="1"/>
       <c r="KM1" s="1"/>
-      <c r="KN1" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="KN1" s="1"/>
       <c r="KO1" s="1"/>
       <c r="KP1" s="1"/>
       <c r="KQ1" s="1"/>
@@ -1042,15 +1065,15 @@
       <c r="LR1" s="1"/>
       <c r="LS1" s="1"/>
       <c r="LT1" s="1"/>
-      <c r="LU1" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="LU1" s="1"/>
       <c r="LV1" s="1"/>
       <c r="LW1" s="1"/>
       <c r="LX1" s="1"/>
       <c r="LY1" s="1"/>
       <c r="LZ1" s="1"/>
-      <c r="MA1" s="1"/>
+      <c r="MA1" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="MB1" s="1"/>
       <c r="MC1" s="1"/>
       <c r="MD1" s="1"/>
@@ -1092,7 +1115,9 @@
       <c r="NN1" s="1"/>
       <c r="NO1" s="1"/>
       <c r="NP1" s="1"/>
-      <c r="NQ1" s="1"/>
+      <c r="NQ1" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="NR1" s="1"/>
       <c r="NS1" s="1"/>
       <c r="NT1" s="1"/>
@@ -1103,8 +1128,109 @@
       <c r="NY1" s="1"/>
       <c r="NZ1" s="1"/>
       <c r="OA1" s="1"/>
+      <c r="OB1" s="1"/>
+      <c r="OC1" s="1"/>
+      <c r="OD1" s="1"/>
+      <c r="OE1" s="1"/>
+      <c r="OF1" s="1"/>
+      <c r="OG1" s="1"/>
+      <c r="OH1" s="1"/>
+      <c r="OI1" s="1"/>
+      <c r="OJ1" s="1"/>
+      <c r="OK1" s="1"/>
+      <c r="OL1" s="1"/>
+      <c r="OM1" s="1"/>
+      <c r="ON1" s="1"/>
+      <c r="OO1" s="1"/>
+      <c r="OP1" s="1"/>
+      <c r="OQ1" s="1"/>
+      <c r="OR1" s="1"/>
+      <c r="OS1" s="1"/>
+      <c r="OT1" s="1"/>
+      <c r="OU1" s="1"/>
+      <c r="OV1" s="1"/>
+      <c r="OW1" s="1"/>
+      <c r="OX1" s="1"/>
+      <c r="OY1" s="1"/>
+      <c r="OZ1" s="1"/>
+      <c r="PA1" s="1"/>
+      <c r="PB1" s="1"/>
+      <c r="PC1" s="1"/>
+      <c r="PD1" s="1"/>
+      <c r="PE1" s="1"/>
+      <c r="PF1" s="1"/>
+      <c r="PG1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="PH1" s="1"/>
+      <c r="PI1" s="1"/>
+      <c r="PJ1" s="1"/>
+      <c r="PK1" s="1"/>
+      <c r="PL1" s="1"/>
+      <c r="PM1" s="1"/>
+      <c r="PN1" s="1"/>
+      <c r="PO1" s="1"/>
+      <c r="PP1" s="1"/>
+      <c r="PQ1" s="1"/>
+      <c r="PR1" s="1"/>
+      <c r="PS1" s="1"/>
+      <c r="PT1" s="1"/>
+      <c r="PU1" s="1"/>
+      <c r="PV1" s="1"/>
+      <c r="PW1" s="1"/>
+      <c r="PX1" s="1"/>
+      <c r="PY1" s="1"/>
+      <c r="PZ1" s="1"/>
+      <c r="QA1" s="1"/>
+      <c r="QB1" s="1"/>
+      <c r="QC1" s="1"/>
+      <c r="QD1" s="1"/>
+      <c r="QE1" s="1"/>
+      <c r="QF1" s="1"/>
+      <c r="QG1" s="1"/>
+      <c r="QH1" s="1"/>
+      <c r="QI1" s="1"/>
+      <c r="QJ1" s="1"/>
+      <c r="QK1" s="1"/>
+      <c r="QL1" s="1"/>
+      <c r="QM1" s="1"/>
+      <c r="QN1" s="1"/>
+      <c r="QO1" s="1"/>
+      <c r="QP1" s="1"/>
+      <c r="QQ1" s="1"/>
+      <c r="QR1" s="1"/>
+      <c r="QS1" s="1"/>
+      <c r="QT1" s="1"/>
+      <c r="QU1" s="1"/>
+      <c r="QV1" s="1"/>
+      <c r="QW1" s="1"/>
+      <c r="QX1" s="1"/>
+      <c r="QY1" s="1"/>
+      <c r="QZ1" s="1"/>
+      <c r="RA1" s="1"/>
+      <c r="RB1" s="1"/>
+      <c r="RC1" s="1"/>
+      <c r="RD1" s="1"/>
+      <c r="RE1" s="1"/>
+      <c r="RF1" s="1"/>
+      <c r="RG1" s="1"/>
+      <c r="RH1" s="1"/>
+      <c r="RI1" s="1"/>
+      <c r="RJ1" s="1"/>
+      <c r="RK1" s="1"/>
+      <c r="RL1" s="1"/>
+      <c r="RM1" s="1"/>
+      <c r="RN1" s="1"/>
+      <c r="RO1" s="1"/>
+      <c r="RP1" s="1"/>
+      <c r="RQ1" s="1"/>
+      <c r="RR1" s="1"/>
+      <c r="RS1" s="1"/>
+      <c r="RT1" s="1"/>
+      <c r="RU1" s="1"/>
+      <c r="RV1" s="1"/>
     </row>
-    <row r="2" spans="1:391">
+    <row r="2" spans="1:490">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -1207,1075 +1333,1372 @@
         <v>34</v>
       </c>
       <c r="AJ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>2</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AT2" t="s">
         <v>3</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AU2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AV2" t="s">
         <v>5</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AW2" t="s">
         <v>6</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AX2" t="s">
         <v>7</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AY2" t="s">
         <v>8</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AZ2" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="BA2" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BB2" t="s">
         <v>11</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BC2" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BD2" t="s">
         <v>13</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BE2" t="s">
         <v>14</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BF2" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BG2" t="s">
         <v>16</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BH2" t="s">
         <v>17</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BI2" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BJ2" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BK2" t="s">
         <v>20</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BL2" t="s">
         <v>21</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BM2" t="s">
         <v>22</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BN2" t="s">
         <v>23</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BO2" t="s">
         <v>24</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BP2" t="s">
         <v>25</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BQ2" t="s">
         <v>26</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BR2" t="s">
         <v>27</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BS2" t="s">
         <v>28</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BT2" t="s">
         <v>29</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BU2" t="s">
         <v>30</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BV2" t="s">
         <v>31</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BW2" t="s">
         <v>32</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BX2" t="s">
         <v>33</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BY2" t="s">
         <v>34</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BZ2" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>41</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>42</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>43</v>
+      </c>
+      <c r="CI2" t="s">
         <v>2</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CJ2" t="s">
         <v>3</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CK2" t="s">
         <v>4</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CL2" t="s">
         <v>5</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="CM2" t="s">
         <v>6</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="CN2" t="s">
         <v>7</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="CO2" t="s">
         <v>8</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="CP2" t="s">
         <v>9</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="CQ2" t="s">
         <v>10</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CR2" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CS2" t="s">
         <v>12</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CT2" t="s">
         <v>13</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CU2" t="s">
         <v>14</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CV2" t="s">
         <v>15</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CW2" t="s">
         <v>16</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CX2" t="s">
         <v>17</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CY2" t="s">
         <v>18</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CZ2" t="s">
         <v>19</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="DA2" t="s">
         <v>20</v>
       </c>
-      <c r="CJ2" t="s">
+      <c r="DB2" t="s">
         <v>21</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="DC2" t="s">
         <v>22</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="DD2" t="s">
         <v>23</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="DE2" t="s">
         <v>24</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="DF2" t="s">
         <v>25</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="DG2" t="s">
         <v>26</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="DH2" t="s">
         <v>27</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="DI2" t="s">
         <v>28</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="DJ2" t="s">
         <v>29</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="DK2" t="s">
         <v>30</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="DL2" t="s">
         <v>31</v>
       </c>
-      <c r="CU2" t="s">
+      <c r="DM2" t="s">
         <v>32</v>
       </c>
-      <c r="CV2" t="s">
+      <c r="DN2" t="s">
         <v>33</v>
       </c>
-      <c r="CW2" t="s">
+      <c r="DO2" t="s">
         <v>34</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="DP2" t="s">
+        <v>35</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>37</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>39</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>40</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>41</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>42</v>
+      </c>
+      <c r="DX2" t="s">
+        <v>43</v>
+      </c>
+      <c r="DY2" t="s">
         <v>2</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="DZ2" t="s">
         <v>3</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="EA2" t="s">
         <v>4</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="EB2" t="s">
         <v>5</v>
       </c>
-      <c r="DB2" t="s">
+      <c r="EC2" t="s">
         <v>6</v>
       </c>
-      <c r="DC2" t="s">
+      <c r="ED2" t="s">
         <v>7</v>
       </c>
-      <c r="DD2" t="s">
+      <c r="EE2" t="s">
         <v>8</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="EF2" t="s">
         <v>9</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="EG2" t="s">
         <v>10</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="EH2" t="s">
         <v>11</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="EI2" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="EJ2" t="s">
         <v>13</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="EK2" t="s">
         <v>14</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="EL2" t="s">
         <v>15</v>
       </c>
-      <c r="DL2" t="s">
+      <c r="EM2" t="s">
         <v>16</v>
       </c>
-      <c r="DM2" t="s">
+      <c r="EN2" t="s">
         <v>17</v>
       </c>
-      <c r="DN2" t="s">
+      <c r="EO2" t="s">
         <v>18</v>
       </c>
-      <c r="DO2" t="s">
+      <c r="EP2" t="s">
         <v>19</v>
       </c>
-      <c r="DP2" t="s">
+      <c r="EQ2" t="s">
         <v>20</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="ER2" t="s">
         <v>21</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="ES2" t="s">
         <v>22</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="ET2" t="s">
         <v>23</v>
       </c>
-      <c r="DT2" t="s">
+      <c r="EU2" t="s">
         <v>24</v>
       </c>
-      <c r="DU2" t="s">
+      <c r="EV2" t="s">
         <v>25</v>
       </c>
-      <c r="DV2" t="s">
+      <c r="EW2" t="s">
         <v>26</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="EX2" t="s">
         <v>27</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="EY2" t="s">
         <v>28</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="EZ2" t="s">
         <v>29</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="FA2" t="s">
         <v>30</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="FB2" t="s">
         <v>31</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="FC2" t="s">
         <v>32</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="FD2" t="s">
         <v>33</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="FE2" t="s">
         <v>34</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="FF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="FH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>38</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>40</v>
+      </c>
+      <c r="FL2" t="s">
+        <v>41</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>42</v>
+      </c>
+      <c r="FN2" t="s">
+        <v>43</v>
+      </c>
+      <c r="FO2" t="s">
         <v>2</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="FP2" t="s">
         <v>3</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="FQ2" t="s">
         <v>4</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="FR2" t="s">
         <v>5</v>
       </c>
-      <c r="EI2" t="s">
+      <c r="FS2" t="s">
         <v>6</v>
       </c>
-      <c r="EJ2" t="s">
+      <c r="FT2" t="s">
         <v>7</v>
       </c>
-      <c r="EK2" t="s">
+      <c r="FU2" t="s">
         <v>8</v>
       </c>
-      <c r="EL2" t="s">
+      <c r="FV2" t="s">
         <v>9</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="FW2" t="s">
         <v>10</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="FX2" t="s">
         <v>11</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="FY2" t="s">
         <v>12</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="FZ2" t="s">
         <v>13</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="GA2" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="GB2" t="s">
         <v>15</v>
       </c>
-      <c r="ES2" t="s">
+      <c r="GC2" t="s">
         <v>16</v>
       </c>
-      <c r="ET2" t="s">
+      <c r="GD2" t="s">
         <v>17</v>
       </c>
-      <c r="EU2" t="s">
+      <c r="GE2" t="s">
         <v>18</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="GF2" t="s">
         <v>19</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="GG2" t="s">
         <v>20</v>
       </c>
-      <c r="EX2" t="s">
+      <c r="GH2" t="s">
         <v>21</v>
       </c>
-      <c r="EY2" t="s">
+      <c r="GI2" t="s">
         <v>22</v>
       </c>
-      <c r="EZ2" t="s">
+      <c r="GJ2" t="s">
         <v>23</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="GK2" t="s">
         <v>24</v>
       </c>
-      <c r="FB2" t="s">
+      <c r="GL2" t="s">
         <v>25</v>
       </c>
-      <c r="FC2" t="s">
+      <c r="GM2" t="s">
         <v>26</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="GN2" t="s">
         <v>27</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="GO2" t="s">
         <v>28</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="GP2" t="s">
         <v>29</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="GQ2" t="s">
         <v>30</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="GR2" t="s">
         <v>31</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="GS2" t="s">
         <v>32</v>
       </c>
-      <c r="FJ2" t="s">
+      <c r="GT2" t="s">
         <v>33</v>
       </c>
-      <c r="FK2" t="s">
+      <c r="GU2" t="s">
         <v>34</v>
       </c>
-      <c r="FL2" t="s">
+      <c r="GV2" t="s">
+        <v>35</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>36</v>
+      </c>
+      <c r="GX2" t="s">
+        <v>37</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>38</v>
+      </c>
+      <c r="GZ2" t="s">
+        <v>39</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>40</v>
+      </c>
+      <c r="HB2" t="s">
+        <v>41</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>42</v>
+      </c>
+      <c r="HD2" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s">
         <v>2</v>
       </c>
-      <c r="FM2" t="s">
+      <c r="HF2" t="s">
         <v>3</v>
       </c>
-      <c r="FN2" t="s">
+      <c r="HG2" t="s">
         <v>4</v>
       </c>
-      <c r="FO2" t="s">
+      <c r="HH2" t="s">
         <v>5</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="HI2" t="s">
         <v>6</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="HJ2" t="s">
         <v>7</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="HK2" t="s">
         <v>8</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="HL2" t="s">
         <v>9</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="HM2" t="s">
         <v>10</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="HN2" t="s">
         <v>11</v>
       </c>
-      <c r="FV2" t="s">
+      <c r="HO2" t="s">
         <v>12</v>
       </c>
-      <c r="FW2" t="s">
+      <c r="HP2" t="s">
         <v>13</v>
       </c>
-      <c r="FX2" t="s">
+      <c r="HQ2" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" t="s">
+      <c r="HR2" t="s">
         <v>15</v>
       </c>
-      <c r="FZ2" t="s">
+      <c r="HS2" t="s">
         <v>16</v>
       </c>
-      <c r="GA2" t="s">
+      <c r="HT2" t="s">
         <v>17</v>
       </c>
-      <c r="GB2" t="s">
+      <c r="HU2" t="s">
         <v>18</v>
       </c>
-      <c r="GC2" t="s">
+      <c r="HV2" t="s">
         <v>19</v>
       </c>
-      <c r="GD2" t="s">
+      <c r="HW2" t="s">
         <v>20</v>
       </c>
-      <c r="GE2" t="s">
+      <c r="HX2" t="s">
         <v>21</v>
       </c>
-      <c r="GF2" t="s">
+      <c r="HY2" t="s">
         <v>22</v>
       </c>
-      <c r="GG2" t="s">
+      <c r="HZ2" t="s">
         <v>23</v>
       </c>
-      <c r="GH2" t="s">
+      <c r="IA2" t="s">
         <v>24</v>
       </c>
-      <c r="GI2" t="s">
+      <c r="IB2" t="s">
         <v>25</v>
       </c>
-      <c r="GJ2" t="s">
+      <c r="IC2" t="s">
         <v>26</v>
       </c>
-      <c r="GK2" t="s">
+      <c r="ID2" t="s">
         <v>27</v>
       </c>
-      <c r="GL2" t="s">
+      <c r="IE2" t="s">
         <v>28</v>
       </c>
-      <c r="GM2" t="s">
+      <c r="IF2" t="s">
         <v>29</v>
       </c>
-      <c r="GN2" t="s">
+      <c r="IG2" t="s">
         <v>30</v>
       </c>
-      <c r="GO2" t="s">
+      <c r="IH2" t="s">
         <v>31</v>
       </c>
-      <c r="GP2" t="s">
+      <c r="II2" t="s">
         <v>32</v>
       </c>
-      <c r="GQ2" t="s">
+      <c r="IJ2" t="s">
         <v>33</v>
       </c>
-      <c r="GR2" t="s">
+      <c r="IK2" t="s">
         <v>34</v>
       </c>
-      <c r="GS2" t="s">
+      <c r="IL2" t="s">
+        <v>35</v>
+      </c>
+      <c r="IM2" t="s">
+        <v>36</v>
+      </c>
+      <c r="IN2" t="s">
+        <v>37</v>
+      </c>
+      <c r="IO2" t="s">
+        <v>38</v>
+      </c>
+      <c r="IP2" t="s">
+        <v>39</v>
+      </c>
+      <c r="IQ2" t="s">
+        <v>40</v>
+      </c>
+      <c r="IR2" t="s">
+        <v>41</v>
+      </c>
+      <c r="IS2" t="s">
+        <v>42</v>
+      </c>
+      <c r="IT2" t="s">
+        <v>43</v>
+      </c>
+      <c r="IU2" t="s">
         <v>2</v>
       </c>
-      <c r="GT2" t="s">
+      <c r="IV2" t="s">
         <v>3</v>
       </c>
-      <c r="GU2" t="s">
+      <c r="IW2" t="s">
         <v>4</v>
       </c>
-      <c r="GV2" t="s">
+      <c r="IX2" t="s">
         <v>5</v>
       </c>
-      <c r="GW2" t="s">
+      <c r="IY2" t="s">
         <v>6</v>
       </c>
-      <c r="GX2" t="s">
+      <c r="IZ2" t="s">
         <v>7</v>
       </c>
-      <c r="GY2" t="s">
+      <c r="JA2" t="s">
         <v>8</v>
       </c>
-      <c r="GZ2" t="s">
+      <c r="JB2" t="s">
         <v>9</v>
       </c>
-      <c r="HA2" t="s">
+      <c r="JC2" t="s">
         <v>10</v>
       </c>
-      <c r="HB2" t="s">
+      <c r="JD2" t="s">
         <v>11</v>
       </c>
-      <c r="HC2" t="s">
+      <c r="JE2" t="s">
         <v>12</v>
       </c>
-      <c r="HD2" t="s">
+      <c r="JF2" t="s">
         <v>13</v>
       </c>
-      <c r="HE2" t="s">
+      <c r="JG2" t="s">
         <v>14</v>
       </c>
-      <c r="HF2" t="s">
+      <c r="JH2" t="s">
         <v>15</v>
       </c>
-      <c r="HG2" t="s">
+      <c r="JI2" t="s">
         <v>16</v>
       </c>
-      <c r="HH2" t="s">
+      <c r="JJ2" t="s">
         <v>17</v>
       </c>
-      <c r="HI2" t="s">
+      <c r="JK2" t="s">
         <v>18</v>
       </c>
-      <c r="HJ2" t="s">
+      <c r="JL2" t="s">
         <v>19</v>
       </c>
-      <c r="HK2" t="s">
+      <c r="JM2" t="s">
         <v>20</v>
       </c>
-      <c r="HL2" t="s">
+      <c r="JN2" t="s">
         <v>21</v>
       </c>
-      <c r="HM2" t="s">
+      <c r="JO2" t="s">
         <v>22</v>
       </c>
-      <c r="HN2" t="s">
+      <c r="JP2" t="s">
         <v>23</v>
       </c>
-      <c r="HO2" t="s">
+      <c r="JQ2" t="s">
         <v>24</v>
       </c>
-      <c r="HP2" t="s">
+      <c r="JR2" t="s">
         <v>25</v>
       </c>
-      <c r="HQ2" t="s">
+      <c r="JS2" t="s">
         <v>26</v>
       </c>
-      <c r="HR2" t="s">
+      <c r="JT2" t="s">
         <v>27</v>
       </c>
-      <c r="HS2" t="s">
+      <c r="JU2" t="s">
         <v>28</v>
       </c>
-      <c r="HT2" t="s">
+      <c r="JV2" t="s">
         <v>29</v>
       </c>
-      <c r="HU2" t="s">
+      <c r="JW2" t="s">
         <v>30</v>
       </c>
-      <c r="HV2" t="s">
+      <c r="JX2" t="s">
         <v>31</v>
       </c>
-      <c r="HW2" t="s">
+      <c r="JY2" t="s">
         <v>32</v>
       </c>
-      <c r="HX2" t="s">
+      <c r="JZ2" t="s">
         <v>33</v>
       </c>
-      <c r="HY2" t="s">
+      <c r="KA2" t="s">
         <v>34</v>
       </c>
-      <c r="HZ2" t="s">
+      <c r="KB2" t="s">
+        <v>35</v>
+      </c>
+      <c r="KC2" t="s">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s">
+        <v>37</v>
+      </c>
+      <c r="KE2" t="s">
+        <v>38</v>
+      </c>
+      <c r="KF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="KG2" t="s">
+        <v>40</v>
+      </c>
+      <c r="KH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="KI2" t="s">
+        <v>42</v>
+      </c>
+      <c r="KJ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="KK2" t="s">
         <v>2</v>
       </c>
-      <c r="IA2" t="s">
+      <c r="KL2" t="s">
         <v>3</v>
       </c>
-      <c r="IB2" t="s">
+      <c r="KM2" t="s">
         <v>4</v>
       </c>
-      <c r="IC2" t="s">
+      <c r="KN2" t="s">
         <v>5</v>
       </c>
-      <c r="ID2" t="s">
+      <c r="KO2" t="s">
         <v>6</v>
       </c>
-      <c r="IE2" t="s">
+      <c r="KP2" t="s">
         <v>7</v>
       </c>
-      <c r="IF2" t="s">
+      <c r="KQ2" t="s">
         <v>8</v>
       </c>
-      <c r="IG2" t="s">
+      <c r="KR2" t="s">
         <v>9</v>
       </c>
-      <c r="IH2" t="s">
+      <c r="KS2" t="s">
         <v>10</v>
       </c>
-      <c r="II2" t="s">
+      <c r="KT2" t="s">
         <v>11</v>
       </c>
-      <c r="IJ2" t="s">
+      <c r="KU2" t="s">
         <v>12</v>
       </c>
-      <c r="IK2" t="s">
+      <c r="KV2" t="s">
         <v>13</v>
       </c>
-      <c r="IL2" t="s">
+      <c r="KW2" t="s">
         <v>14</v>
       </c>
-      <c r="IM2" t="s">
+      <c r="KX2" t="s">
         <v>15</v>
       </c>
-      <c r="IN2" t="s">
+      <c r="KY2" t="s">
         <v>16</v>
       </c>
-      <c r="IO2" t="s">
+      <c r="KZ2" t="s">
         <v>17</v>
       </c>
-      <c r="IP2" t="s">
+      <c r="LA2" t="s">
         <v>18</v>
       </c>
-      <c r="IQ2" t="s">
+      <c r="LB2" t="s">
         <v>19</v>
       </c>
-      <c r="IR2" t="s">
+      <c r="LC2" t="s">
         <v>20</v>
       </c>
-      <c r="IS2" t="s">
+      <c r="LD2" t="s">
         <v>21</v>
       </c>
-      <c r="IT2" t="s">
+      <c r="LE2" t="s">
         <v>22</v>
       </c>
-      <c r="IU2" t="s">
+      <c r="LF2" t="s">
         <v>23</v>
       </c>
-      <c r="IV2" t="s">
+      <c r="LG2" t="s">
         <v>24</v>
       </c>
-      <c r="IW2" t="s">
+      <c r="LH2" t="s">
         <v>25</v>
       </c>
-      <c r="IX2" t="s">
+      <c r="LI2" t="s">
         <v>26</v>
       </c>
-      <c r="IY2" t="s">
+      <c r="LJ2" t="s">
         <v>27</v>
       </c>
-      <c r="IZ2" t="s">
+      <c r="LK2" t="s">
         <v>28</v>
       </c>
-      <c r="JA2" t="s">
+      <c r="LL2" t="s">
         <v>29</v>
       </c>
-      <c r="JB2" t="s">
+      <c r="LM2" t="s">
         <v>30</v>
       </c>
-      <c r="JC2" t="s">
+      <c r="LN2" t="s">
         <v>31</v>
       </c>
-      <c r="JD2" t="s">
+      <c r="LO2" t="s">
         <v>32</v>
       </c>
-      <c r="JE2" t="s">
+      <c r="LP2" t="s">
         <v>33</v>
       </c>
-      <c r="JF2" t="s">
+      <c r="LQ2" t="s">
         <v>34</v>
       </c>
-      <c r="JG2" t="s">
+      <c r="LR2" t="s">
+        <v>35</v>
+      </c>
+      <c r="LS2" t="s">
+        <v>36</v>
+      </c>
+      <c r="LT2" t="s">
+        <v>37</v>
+      </c>
+      <c r="LU2" t="s">
+        <v>38</v>
+      </c>
+      <c r="LV2" t="s">
+        <v>39</v>
+      </c>
+      <c r="LW2" t="s">
+        <v>40</v>
+      </c>
+      <c r="LX2" t="s">
+        <v>41</v>
+      </c>
+      <c r="LY2" t="s">
+        <v>42</v>
+      </c>
+      <c r="LZ2" t="s">
+        <v>43</v>
+      </c>
+      <c r="MA2" t="s">
         <v>2</v>
       </c>
-      <c r="JH2" t="s">
+      <c r="MB2" t="s">
         <v>3</v>
       </c>
-      <c r="JI2" t="s">
+      <c r="MC2" t="s">
         <v>4</v>
       </c>
-      <c r="JJ2" t="s">
+      <c r="MD2" t="s">
         <v>5</v>
       </c>
-      <c r="JK2" t="s">
+      <c r="ME2" t="s">
         <v>6</v>
       </c>
-      <c r="JL2" t="s">
+      <c r="MF2" t="s">
         <v>7</v>
       </c>
-      <c r="JM2" t="s">
+      <c r="MG2" t="s">
         <v>8</v>
       </c>
-      <c r="JN2" t="s">
+      <c r="MH2" t="s">
         <v>9</v>
       </c>
-      <c r="JO2" t="s">
+      <c r="MI2" t="s">
         <v>10</v>
       </c>
-      <c r="JP2" t="s">
+      <c r="MJ2" t="s">
         <v>11</v>
       </c>
-      <c r="JQ2" t="s">
+      <c r="MK2" t="s">
         <v>12</v>
       </c>
-      <c r="JR2" t="s">
+      <c r="ML2" t="s">
         <v>13</v>
       </c>
-      <c r="JS2" t="s">
+      <c r="MM2" t="s">
         <v>14</v>
       </c>
-      <c r="JT2" t="s">
+      <c r="MN2" t="s">
         <v>15</v>
       </c>
-      <c r="JU2" t="s">
+      <c r="MO2" t="s">
         <v>16</v>
       </c>
-      <c r="JV2" t="s">
+      <c r="MP2" t="s">
         <v>17</v>
       </c>
-      <c r="JW2" t="s">
+      <c r="MQ2" t="s">
         <v>18</v>
       </c>
-      <c r="JX2" t="s">
+      <c r="MR2" t="s">
         <v>19</v>
       </c>
-      <c r="JY2" t="s">
+      <c r="MS2" t="s">
         <v>20</v>
       </c>
-      <c r="JZ2" t="s">
+      <c r="MT2" t="s">
         <v>21</v>
       </c>
-      <c r="KA2" t="s">
+      <c r="MU2" t="s">
         <v>22</v>
       </c>
-      <c r="KB2" t="s">
+      <c r="MV2" t="s">
         <v>23</v>
       </c>
-      <c r="KC2" t="s">
+      <c r="MW2" t="s">
         <v>24</v>
       </c>
-      <c r="KD2" t="s">
+      <c r="MX2" t="s">
         <v>25</v>
       </c>
-      <c r="KE2" t="s">
+      <c r="MY2" t="s">
         <v>26</v>
       </c>
-      <c r="KF2" t="s">
+      <c r="MZ2" t="s">
         <v>27</v>
       </c>
-      <c r="KG2" t="s">
+      <c r="NA2" t="s">
         <v>28</v>
       </c>
-      <c r="KH2" t="s">
+      <c r="NB2" t="s">
         <v>29</v>
       </c>
-      <c r="KI2" t="s">
+      <c r="NC2" t="s">
         <v>30</v>
       </c>
-      <c r="KJ2" t="s">
+      <c r="ND2" t="s">
         <v>31</v>
       </c>
-      <c r="KK2" t="s">
+      <c r="NE2" t="s">
         <v>32</v>
       </c>
-      <c r="KL2" t="s">
+      <c r="NF2" t="s">
         <v>33</v>
       </c>
-      <c r="KM2" t="s">
+      <c r="NG2" t="s">
         <v>34</v>
       </c>
-      <c r="KN2" t="s">
+      <c r="NH2" t="s">
+        <v>35</v>
+      </c>
+      <c r="NI2" t="s">
+        <v>36</v>
+      </c>
+      <c r="NJ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="NK2" t="s">
+        <v>38</v>
+      </c>
+      <c r="NL2" t="s">
+        <v>39</v>
+      </c>
+      <c r="NM2" t="s">
+        <v>40</v>
+      </c>
+      <c r="NN2" t="s">
+        <v>41</v>
+      </c>
+      <c r="NO2" t="s">
+        <v>42</v>
+      </c>
+      <c r="NP2" t="s">
+        <v>43</v>
+      </c>
+      <c r="NQ2" t="s">
         <v>2</v>
       </c>
-      <c r="KO2" t="s">
+      <c r="NR2" t="s">
         <v>3</v>
       </c>
-      <c r="KP2" t="s">
+      <c r="NS2" t="s">
         <v>4</v>
       </c>
-      <c r="KQ2" t="s">
+      <c r="NT2" t="s">
         <v>5</v>
       </c>
-      <c r="KR2" t="s">
+      <c r="NU2" t="s">
         <v>6</v>
       </c>
-      <c r="KS2" t="s">
+      <c r="NV2" t="s">
         <v>7</v>
       </c>
-      <c r="KT2" t="s">
+      <c r="NW2" t="s">
         <v>8</v>
       </c>
-      <c r="KU2" t="s">
+      <c r="NX2" t="s">
         <v>9</v>
       </c>
-      <c r="KV2" t="s">
+      <c r="NY2" t="s">
         <v>10</v>
       </c>
-      <c r="KW2" t="s">
+      <c r="NZ2" t="s">
         <v>11</v>
       </c>
-      <c r="KX2" t="s">
+      <c r="OA2" t="s">
         <v>12</v>
       </c>
-      <c r="KY2" t="s">
+      <c r="OB2" t="s">
         <v>13</v>
       </c>
-      <c r="KZ2" t="s">
+      <c r="OC2" t="s">
         <v>14</v>
       </c>
-      <c r="LA2" t="s">
+      <c r="OD2" t="s">
         <v>15</v>
       </c>
-      <c r="LB2" t="s">
+      <c r="OE2" t="s">
         <v>16</v>
       </c>
-      <c r="LC2" t="s">
+      <c r="OF2" t="s">
         <v>17</v>
       </c>
-      <c r="LD2" t="s">
+      <c r="OG2" t="s">
         <v>18</v>
       </c>
-      <c r="LE2" t="s">
+      <c r="OH2" t="s">
         <v>19</v>
       </c>
-      <c r="LF2" t="s">
+      <c r="OI2" t="s">
         <v>20</v>
       </c>
-      <c r="LG2" t="s">
+      <c r="OJ2" t="s">
         <v>21</v>
       </c>
-      <c r="LH2" t="s">
+      <c r="OK2" t="s">
         <v>22</v>
       </c>
-      <c r="LI2" t="s">
+      <c r="OL2" t="s">
         <v>23</v>
       </c>
-      <c r="LJ2" t="s">
+      <c r="OM2" t="s">
         <v>24</v>
       </c>
-      <c r="LK2" t="s">
+      <c r="ON2" t="s">
         <v>25</v>
       </c>
-      <c r="LL2" t="s">
+      <c r="OO2" t="s">
         <v>26</v>
       </c>
-      <c r="LM2" t="s">
+      <c r="OP2" t="s">
         <v>27</v>
       </c>
-      <c r="LN2" t="s">
+      <c r="OQ2" t="s">
         <v>28</v>
       </c>
-      <c r="LO2" t="s">
+      <c r="OR2" t="s">
         <v>29</v>
       </c>
-      <c r="LP2" t="s">
+      <c r="OS2" t="s">
         <v>30</v>
       </c>
-      <c r="LQ2" t="s">
+      <c r="OT2" t="s">
         <v>31</v>
       </c>
-      <c r="LR2" t="s">
+      <c r="OU2" t="s">
         <v>32</v>
       </c>
-      <c r="LS2" t="s">
+      <c r="OV2" t="s">
         <v>33</v>
       </c>
-      <c r="LT2" t="s">
+      <c r="OW2" t="s">
         <v>34</v>
       </c>
-      <c r="LU2" t="s">
-        <v>45</v>
-      </c>
-      <c r="LV2" t="s">
-        <v>46</v>
-      </c>
-      <c r="LW2" t="s">
-        <v>47</v>
-      </c>
-      <c r="LX2" t="s">
-        <v>48</v>
-      </c>
-      <c r="LY2" t="s">
-        <v>49</v>
-      </c>
-      <c r="LZ2" t="s">
-        <v>50</v>
-      </c>
-      <c r="MA2" t="s">
-        <v>51</v>
-      </c>
-      <c r="MB2" t="s">
+      <c r="OX2" t="s">
+        <v>35</v>
+      </c>
+      <c r="OY2" t="s">
+        <v>36</v>
+      </c>
+      <c r="OZ2" t="s">
+        <v>37</v>
+      </c>
+      <c r="PA2" t="s">
+        <v>38</v>
+      </c>
+      <c r="PB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="PC2" t="s">
+        <v>40</v>
+      </c>
+      <c r="PD2" t="s">
+        <v>41</v>
+      </c>
+      <c r="PE2" t="s">
+        <v>42</v>
+      </c>
+      <c r="PF2" t="s">
+        <v>43</v>
+      </c>
+      <c r="PG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="PH2" t="s">
+        <v>55</v>
+      </c>
+      <c r="PI2" t="s">
+        <v>56</v>
+      </c>
+      <c r="PJ2" t="s">
+        <v>57</v>
+      </c>
+      <c r="PK2" t="s">
+        <v>58</v>
+      </c>
+      <c r="PL2" t="s">
+        <v>59</v>
+      </c>
+      <c r="PM2" t="s">
+        <v>60</v>
+      </c>
+      <c r="PN2" t="s">
         <v>6</v>
       </c>
-      <c r="MC2" t="s">
-        <v>52</v>
-      </c>
-      <c r="MD2" t="s">
+      <c r="PO2" t="s">
+        <v>61</v>
+      </c>
+      <c r="PP2" t="s">
         <v>8</v>
       </c>
-      <c r="ME2" t="s">
-        <v>53</v>
-      </c>
-      <c r="MF2" t="s">
-        <v>54</v>
-      </c>
-      <c r="MG2" t="s">
-        <v>55</v>
-      </c>
-      <c r="MH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="MI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="MJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="MK2" t="s">
-        <v>59</v>
-      </c>
-      <c r="ML2" t="s">
+      <c r="PQ2" t="s">
+        <v>62</v>
+      </c>
+      <c r="PR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="PS2" t="s">
+        <v>64</v>
+      </c>
+      <c r="PT2" t="s">
+        <v>65</v>
+      </c>
+      <c r="PU2" t="s">
+        <v>66</v>
+      </c>
+      <c r="PV2" t="s">
+        <v>67</v>
+      </c>
+      <c r="PW2" t="s">
+        <v>68</v>
+      </c>
+      <c r="PX2" t="s">
         <v>11</v>
       </c>
-      <c r="MM2" t="s">
-        <v>60</v>
-      </c>
-      <c r="MN2" t="s">
+      <c r="PY2" t="s">
+        <v>69</v>
+      </c>
+      <c r="PZ2" t="s">
         <v>13</v>
       </c>
-      <c r="MO2" t="s">
-        <v>61</v>
-      </c>
-      <c r="MP2" t="s">
-        <v>62</v>
-      </c>
-      <c r="MQ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="MR2" t="s">
-        <v>64</v>
-      </c>
-      <c r="MS2" t="s">
-        <v>65</v>
-      </c>
-      <c r="MT2" t="s">
-        <v>66</v>
-      </c>
-      <c r="MU2" t="s">
-        <v>67</v>
-      </c>
-      <c r="MV2" t="s">
+      <c r="QA2" t="s">
+        <v>70</v>
+      </c>
+      <c r="QB2" t="s">
+        <v>71</v>
+      </c>
+      <c r="QC2" t="s">
+        <v>72</v>
+      </c>
+      <c r="QD2" t="s">
+        <v>73</v>
+      </c>
+      <c r="QE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="QF2" t="s">
+        <v>75</v>
+      </c>
+      <c r="QG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="QH2" t="s">
         <v>16</v>
       </c>
-      <c r="MW2" t="s">
-        <v>68</v>
-      </c>
-      <c r="MX2" t="s">
+      <c r="QI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="QJ2" t="s">
         <v>18</v>
       </c>
-      <c r="MY2" t="s">
-        <v>69</v>
-      </c>
-      <c r="MZ2" t="s">
-        <v>70</v>
-      </c>
-      <c r="NA2" t="s">
-        <v>71</v>
-      </c>
-      <c r="NB2" t="s">
-        <v>72</v>
-      </c>
-      <c r="NC2" t="s">
-        <v>73</v>
-      </c>
-      <c r="ND2" t="s">
-        <v>74</v>
-      </c>
-      <c r="NE2" t="s">
-        <v>75</v>
-      </c>
-      <c r="NF2" t="s">
+      <c r="QK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="QL2" t="s">
+        <v>79</v>
+      </c>
+      <c r="QM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="QN2" t="s">
+        <v>81</v>
+      </c>
+      <c r="QO2" t="s">
+        <v>82</v>
+      </c>
+      <c r="QP2" t="s">
+        <v>83</v>
+      </c>
+      <c r="QQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="QR2" t="s">
         <v>21</v>
       </c>
-      <c r="NG2" t="s">
-        <v>76</v>
-      </c>
-      <c r="NH2" t="s">
+      <c r="QS2" t="s">
+        <v>85</v>
+      </c>
+      <c r="QT2" t="s">
         <v>23</v>
       </c>
-      <c r="NI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="NJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="NK2" t="s">
-        <v>79</v>
-      </c>
-      <c r="NL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="NM2" t="s">
-        <v>81</v>
-      </c>
-      <c r="NN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="NO2" t="s">
-        <v>83</v>
-      </c>
-      <c r="NP2" t="s">
-        <v>84</v>
-      </c>
-      <c r="NQ2" t="s">
-        <v>85</v>
-      </c>
-      <c r="NR2" t="s">
+      <c r="QU2" t="s">
         <v>86</v>
       </c>
-      <c r="NS2" t="s">
+      <c r="QV2" t="s">
         <v>87</v>
       </c>
-      <c r="NT2" t="s">
+      <c r="QW2" t="s">
         <v>88</v>
       </c>
-      <c r="NU2" t="s">
+      <c r="QX2" t="s">
         <v>89</v>
       </c>
-      <c r="NV2" t="s">
+      <c r="QY2" t="s">
         <v>90</v>
       </c>
-      <c r="NW2" t="s">
+      <c r="QZ2" t="s">
         <v>91</v>
       </c>
-      <c r="NX2" t="s">
+      <c r="RA2" t="s">
         <v>92</v>
       </c>
-      <c r="NY2" t="s">
+      <c r="RB2" t="s">
         <v>93</v>
       </c>
-      <c r="NZ2" t="s">
+      <c r="RC2" t="s">
         <v>94</v>
       </c>
-      <c r="OA2" t="s">
+      <c r="RD2" t="s">
         <v>95</v>
       </c>
+      <c r="RE2" t="s">
+        <v>96</v>
+      </c>
+      <c r="RF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="RG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="RH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="RI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="RJ2" t="s">
+        <v>101</v>
+      </c>
+      <c r="RK2" t="s">
+        <v>102</v>
+      </c>
+      <c r="RL2" t="s">
+        <v>103</v>
+      </c>
+      <c r="RM2" t="s">
+        <v>104</v>
+      </c>
+      <c r="RN2" t="s">
+        <v>35</v>
+      </c>
+      <c r="RO2" t="s">
+        <v>36</v>
+      </c>
+      <c r="RP2" t="s">
+        <v>37</v>
+      </c>
+      <c r="RQ2" t="s">
+        <v>38</v>
+      </c>
+      <c r="RR2" t="s">
+        <v>39</v>
+      </c>
+      <c r="RS2" t="s">
+        <v>40</v>
+      </c>
+      <c r="RT2" t="s">
+        <v>41</v>
+      </c>
+      <c r="RU2" t="s">
+        <v>42</v>
+      </c>
+      <c r="RV2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="3" spans="1:391">
+    <row r="3" spans="1:490">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2283,1162 +2706,1444 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>26.2143</v>
+        <v>25.6668</v>
       </c>
       <c r="E3">
-        <v>26.21429999999999</v>
+        <v>25.6668</v>
       </c>
       <c r="F3">
         <v>0.5333333333333333</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>0.6496453900709221</v>
+        <v>0.6358333333333335</v>
       </c>
       <c r="K3">
         <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="M3">
         <v>0.4666666666666667</v>
       </c>
       <c r="N3">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="O3">
-        <v>0.3503546099290782</v>
+        <v>0.3641666666666669</v>
       </c>
       <c r="P3">
-        <v>-0.4149621955698926</v>
+        <v>-0.3577708763999606</v>
       </c>
       <c r="Q3">
+        <v>37</v>
+      </c>
+      <c r="R3">
+        <v>0.4853287291087648</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>0.01773938991621608</v>
+      </c>
+      <c r="U3">
+        <v>-0.8719566666666623</v>
+      </c>
+      <c r="V3">
+        <v>9</v>
+      </c>
+      <c r="W3">
+        <v>2.511869999999995</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0.1196671666666667</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="AB3">
+        <v>6</v>
+      </c>
+      <c r="AC3">
+        <v>1.066032300990392</v>
+      </c>
+      <c r="AD3">
+        <v>40</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>40</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0.4586949919119719</v>
+      </c>
+      <c r="AK3">
+        <v>2</v>
+      </c>
+      <c r="AL3">
+        <v>1.255472112699261</v>
+      </c>
+      <c r="AM3">
+        <v>1.010554883079035</v>
+      </c>
+      <c r="AN3">
+        <v>30</v>
+      </c>
+      <c r="AO3">
+        <v>1.413551387170602</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1.04387587802489</v>
+      </c>
+      <c r="AR3">
+        <v>40</v>
+      </c>
+      <c r="AS3">
+        <v>25</v>
+      </c>
+      <c r="AT3">
+        <v>26.2144</v>
+      </c>
+      <c r="AU3">
+        <v>26.21439999999999</v>
+      </c>
+      <c r="AV3">
+        <v>0.5</v>
+      </c>
+      <c r="AW3">
+        <v>11</v>
+      </c>
+      <c r="AX3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="AY3">
+        <v>2</v>
+      </c>
+      <c r="AZ3">
+        <v>0.6402777777777773</v>
+      </c>
+      <c r="BA3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="BB3">
+        <v>2</v>
+      </c>
+      <c r="BC3">
+        <v>0.5</v>
+      </c>
+      <c r="BD3">
+        <v>11</v>
+      </c>
+      <c r="BE3">
+        <v>0.3597222222222221</v>
+      </c>
+      <c r="BF3">
+        <v>-0.2716340464031189</v>
+      </c>
+      <c r="BG3">
+        <v>18</v>
+      </c>
+      <c r="BH3">
+        <v>0.3573404598775777</v>
+      </c>
+      <c r="BI3">
+        <v>3</v>
+      </c>
+      <c r="BJ3">
+        <v>0.091630711971551</v>
+      </c>
+      <c r="BK3">
+        <v>-0.4107666666666603</v>
+      </c>
+      <c r="BL3">
+        <v>8</v>
+      </c>
+      <c r="BM3">
+        <v>2.194673333333323</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.2258518055555555</v>
+      </c>
+      <c r="BP3">
+        <v>4</v>
+      </c>
+      <c r="BQ3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="BR3">
+        <v>13</v>
+      </c>
+      <c r="BS3">
+        <v>1.221241720776046</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0.1238822121439238</v>
+      </c>
+      <c r="CA3">
+        <v>1</v>
+      </c>
+      <c r="CB3">
+        <v>1.260673974666037</v>
+      </c>
+      <c r="CC3">
+        <v>1.011097058668114</v>
+      </c>
+      <c r="CD3">
         <v>22</v>
       </c>
-      <c r="R3">
-        <v>0.4036215874646744</v>
-      </c>
-      <c r="S3">
+      <c r="CE3">
+        <v>1.409430650105694</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CG3">
+        <v>1.065453058135638</v>
+      </c>
+      <c r="CH3">
         <v>24</v>
       </c>
-      <c r="T3">
-        <v>0.03814766141820562</v>
-      </c>
-      <c r="U3">
-        <v>-0.2878133333333324</v>
-      </c>
-      <c r="V3">
+      <c r="CI3">
+        <v>43</v>
+      </c>
+      <c r="CJ3">
+        <v>24.7503</v>
+      </c>
+      <c r="CK3">
+        <v>24.75030000000001</v>
+      </c>
+      <c r="CL3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="CM3">
+        <v>18</v>
+      </c>
+      <c r="CN3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="CO3">
+        <v>13</v>
+      </c>
+      <c r="CP3">
+        <v>0.6285714285714287</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="CR3">
+        <v>13</v>
+      </c>
+      <c r="CS3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="CT3">
+        <v>18</v>
+      </c>
+      <c r="CU3">
+        <v>0.3714285714285714</v>
+      </c>
+      <c r="CV3">
+        <v>-0.3235485018645746</v>
+      </c>
+      <c r="CW3">
+        <v>11</v>
+      </c>
+      <c r="CX3">
+        <v>0.470870955797423</v>
+      </c>
+      <c r="CY3">
+        <v>29</v>
+      </c>
+      <c r="CZ3">
+        <v>0.07096082467512368</v>
+      </c>
+      <c r="DA3">
+        <v>-0.176639999999999</v>
+      </c>
+      <c r="DB3">
+        <v>11</v>
+      </c>
+      <c r="DC3">
+        <v>2.771899999999999</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0.1507058730158732</v>
+      </c>
+      <c r="DF3">
+        <v>0.5</v>
+      </c>
+      <c r="DG3">
+        <v>1.538461538461539</v>
+      </c>
+      <c r="DH3">
+        <v>30</v>
+      </c>
+      <c r="DI3">
+        <v>1.077515283938884</v>
+      </c>
+      <c r="DJ3">
+        <v>42</v>
+      </c>
+      <c r="DK3">
+        <v>40</v>
+      </c>
+      <c r="DL3">
+        <v>22.5</v>
+      </c>
+      <c r="DM3">
+        <v>11.33026919362466</v>
+      </c>
+      <c r="DN3">
+        <v>20.5</v>
+      </c>
+      <c r="DO3">
+        <v>11.33026919362466</v>
+      </c>
+      <c r="DP3">
+        <v>0.3098745302832175</v>
+      </c>
+      <c r="DQ3">
+        <v>2</v>
+      </c>
+      <c r="DR3">
+        <v>1.423098275920724</v>
+      </c>
+      <c r="DS3">
+        <v>1.003581220972525</v>
+      </c>
+      <c r="DT3">
+        <v>42</v>
+      </c>
+      <c r="DU3">
+        <v>1.675174976664808</v>
+      </c>
+      <c r="DV3">
+        <v>0</v>
+      </c>
+      <c r="DW3">
+        <v>1.05114720672687</v>
+      </c>
+      <c r="DX3">
+        <v>42</v>
+      </c>
+      <c r="DY3">
+        <v>24</v>
+      </c>
+      <c r="DZ3">
+        <v>25.9228</v>
+      </c>
+      <c r="EA3">
+        <v>25.92280000000001</v>
+      </c>
+      <c r="EB3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="EC3">
+        <v>22</v>
+      </c>
+      <c r="ED3">
+        <v>0.7</v>
+      </c>
+      <c r="EE3">
+        <v>1</v>
+      </c>
+      <c r="EF3">
+        <v>0.634782608695652</v>
+      </c>
+      <c r="EG3">
+        <v>0.3</v>
+      </c>
+      <c r="EH3">
+        <v>1</v>
+      </c>
+      <c r="EI3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="EJ3">
+        <v>22</v>
+      </c>
+      <c r="EK3">
+        <v>0.3652173913043478</v>
+      </c>
+      <c r="EL3">
+        <v>-0.2364331218717335</v>
+      </c>
+      <c r="EM3">
+        <v>14</v>
+      </c>
+      <c r="EN3">
+        <v>0.5310348273791125</v>
+      </c>
+      <c r="EO3">
+        <v>0</v>
+      </c>
+      <c r="EP3">
+        <v>0.06826902538101284</v>
+      </c>
+      <c r="EQ3">
+        <v>-0.1753300000000024</v>
+      </c>
+      <c r="ER3">
+        <v>14</v>
+      </c>
+      <c r="ES3">
+        <v>4.455813333333335</v>
+      </c>
+      <c r="ET3">
+        <v>0</v>
+      </c>
+      <c r="EU3">
+        <v>0.1343357971014497</v>
+      </c>
+      <c r="EV3">
+        <v>1.5</v>
+      </c>
+      <c r="EW3">
+        <v>0</v>
+      </c>
+      <c r="EX3">
+        <v>11</v>
+      </c>
+      <c r="EY3">
+        <v>1.015288147401515</v>
+      </c>
+      <c r="EZ3">
+        <v>23</v>
+      </c>
+      <c r="FA3">
+        <v>14</v>
+      </c>
+      <c r="FB3">
+        <v>16.5</v>
+      </c>
+      <c r="FC3">
+        <v>3.824264635194588</v>
+      </c>
+      <c r="FD3">
+        <v>7.5</v>
+      </c>
+      <c r="FE3">
+        <v>3.824264635194588</v>
+      </c>
+      <c r="FF3">
+        <v>0.1676467511528508</v>
+      </c>
+      <c r="FG3">
+        <v>2</v>
+      </c>
+      <c r="FH3">
+        <v>1.148088817932698</v>
+      </c>
+      <c r="FI3">
+        <v>1.004529452810169</v>
+      </c>
+      <c r="FJ3">
+        <v>23</v>
+      </c>
+      <c r="FK3">
+        <v>1.426458310169142</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>1.03398870431394</v>
+      </c>
+      <c r="FN3">
+        <v>23</v>
+      </c>
+      <c r="FO3">
+        <v>34</v>
+      </c>
+      <c r="FP3">
+        <v>26.2044</v>
+      </c>
+      <c r="FQ3">
+        <v>26.2044</v>
+      </c>
+      <c r="FR3">
+        <v>0.5</v>
+      </c>
+      <c r="FS3">
+        <v>0</v>
+      </c>
+      <c r="FT3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="FU3">
         <v>7</v>
       </c>
-      <c r="W3">
-        <v>2.781453333333332</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0.1039953900709219</v>
-      </c>
-      <c r="Z3">
+      <c r="FV3">
+        <v>0.6252525252525252</v>
+      </c>
+      <c r="FW3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="FX3">
+        <v>7</v>
+      </c>
+      <c r="FY3">
         <v>0.5</v>
       </c>
-      <c r="AA3">
+      <c r="FZ3">
+        <v>0</v>
+      </c>
+      <c r="GA3">
+        <v>0.3747474747474749</v>
+      </c>
+      <c r="GB3">
+        <v>-0.4364357804716747</v>
+      </c>
+      <c r="GC3">
+        <v>31</v>
+      </c>
+      <c r="GD3">
+        <v>0.8547931647547107</v>
+      </c>
+      <c r="GE3">
+        <v>0</v>
+      </c>
+      <c r="GF3">
+        <v>0.03716555504970907</v>
+      </c>
+      <c r="GG3">
+        <v>-0.8520399999999988</v>
+      </c>
+      <c r="GH3">
+        <v>11</v>
+      </c>
+      <c r="GI3">
+        <v>6.92385333333333</v>
+      </c>
+      <c r="GJ3">
+        <v>0</v>
+      </c>
+      <c r="GK3">
+        <v>0.1376696969696969</v>
+      </c>
+      <c r="GL3">
+        <v>1.1</v>
+      </c>
+      <c r="GM3">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="GN3">
+        <v>15</v>
+      </c>
+      <c r="GO3">
+        <v>1.079714688905865</v>
+      </c>
+      <c r="GP3">
+        <v>33</v>
+      </c>
+      <c r="GQ3">
+        <v>1</v>
+      </c>
+      <c r="GR3">
+        <v>33</v>
+      </c>
+      <c r="GS3">
+        <v>0</v>
+      </c>
+      <c r="GT3">
+        <v>1</v>
+      </c>
+      <c r="GU3">
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <v>0.2642660719080138</v>
+      </c>
+      <c r="GW3">
+        <v>3.333333333333333</v>
+      </c>
+      <c r="GX3">
+        <v>1.210195140642529</v>
+      </c>
+      <c r="GY3">
+        <v>1.000267100132024</v>
+      </c>
+      <c r="GZ3">
+        <v>31</v>
+      </c>
+      <c r="HA3">
+        <v>1.778761314148946</v>
+      </c>
+      <c r="HB3">
+        <v>0</v>
+      </c>
+      <c r="HC3">
+        <v>1.032626940572672</v>
+      </c>
+      <c r="HD3">
+        <v>33</v>
+      </c>
+      <c r="HE3">
+        <v>41</v>
+      </c>
+      <c r="HF3">
+        <v>25.9228</v>
+      </c>
+      <c r="HG3">
+        <v>25.92280000000001</v>
+      </c>
+      <c r="HH3">
+        <v>0.5</v>
+      </c>
+      <c r="HI3">
+        <v>0</v>
+      </c>
+      <c r="HJ3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="HK3">
+        <v>23</v>
+      </c>
+      <c r="HL3">
+        <v>0.6441666666666666</v>
+      </c>
+      <c r="HM3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="HN3">
+        <v>23</v>
+      </c>
+      <c r="HO3">
+        <v>0.5</v>
+      </c>
+      <c r="HP3">
+        <v>0</v>
+      </c>
+      <c r="HQ3">
+        <v>0.3558333333333336</v>
+      </c>
+      <c r="HR3">
+        <v>-0.2225264591337966</v>
+      </c>
+      <c r="HS3">
+        <v>4</v>
+      </c>
+      <c r="HT3">
+        <v>0.6008037713800991</v>
+      </c>
+      <c r="HU3">
+        <v>0</v>
+      </c>
+      <c r="HV3">
+        <v>0.007930396284900561</v>
+      </c>
+      <c r="HW3">
+        <v>-0.5590933333333332</v>
+      </c>
+      <c r="HX3">
+        <v>4</v>
+      </c>
+      <c r="HY3">
+        <v>5.053673333333336</v>
+      </c>
+      <c r="HZ3">
+        <v>0</v>
+      </c>
+      <c r="IA3">
+        <v>0.07728658333333353</v>
+      </c>
+      <c r="IB3">
+        <v>1</v>
+      </c>
+      <c r="IC3">
+        <v>0</v>
+      </c>
+      <c r="ID3">
+        <v>41</v>
+      </c>
+      <c r="IE3">
+        <v>1.065631049167635</v>
+      </c>
+      <c r="IF3">
+        <v>40</v>
+      </c>
+      <c r="IG3">
+        <v>37</v>
+      </c>
+      <c r="IH3">
+        <v>22</v>
+      </c>
+      <c r="II3">
+        <v>10.46422476822817</v>
+      </c>
+      <c r="IJ3">
+        <v>19</v>
+      </c>
+      <c r="IK3">
+        <v>10.46422476822817</v>
+      </c>
+      <c r="IL3">
+        <v>0.01699692208693601</v>
+      </c>
+      <c r="IM3">
+        <v>4</v>
+      </c>
+      <c r="IN3">
+        <v>1.148176314979952</v>
+      </c>
+      <c r="IO3">
+        <v>1.007844984188925</v>
+      </c>
+      <c r="IP3">
+        <v>19</v>
+      </c>
+      <c r="IQ3">
+        <v>1.474569492541108</v>
+      </c>
+      <c r="IR3">
+        <v>0</v>
+      </c>
+      <c r="IS3">
+        <v>1.044028342722282</v>
+      </c>
+      <c r="IT3">
+        <v>40</v>
+      </c>
+      <c r="IU3">
+        <v>26</v>
+      </c>
+      <c r="IV3">
+        <v>26.1615</v>
+      </c>
+      <c r="IW3">
+        <v>26.16150000000001</v>
+      </c>
+      <c r="IX3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="IY3">
+        <v>19</v>
+      </c>
+      <c r="IZ3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="JA3">
+        <v>12</v>
+      </c>
+      <c r="JB3">
+        <v>0.6293333333333331</v>
+      </c>
+      <c r="JC3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="JD3">
+        <v>12</v>
+      </c>
+      <c r="JE3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="JF3">
+        <v>19</v>
+      </c>
+      <c r="JG3">
+        <v>0.3706666666666668</v>
+      </c>
+      <c r="JH3">
+        <v>-0.3521944099255266</v>
+      </c>
+      <c r="JI3">
+        <v>11</v>
+      </c>
+      <c r="JJ3">
+        <v>0.3382328228005306</v>
+      </c>
+      <c r="JK3">
+        <v>1</v>
+      </c>
+      <c r="JL3">
+        <v>0.09369767719707169</v>
+      </c>
+      <c r="JM3">
+        <v>-0.715326666666666</v>
+      </c>
+      <c r="JN3">
+        <v>11</v>
+      </c>
+      <c r="JO3">
+        <v>2.095979999999997</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.2637229333333337</v>
+      </c>
+      <c r="JR3">
+        <v>0</v>
+      </c>
+      <c r="JS3">
         <v>1.071428571428571</v>
       </c>
-      <c r="AB3">
+      <c r="JT3">
+        <v>15</v>
+      </c>
+      <c r="JU3">
+        <v>1.051104067796619</v>
+      </c>
+      <c r="JV3">
+        <v>25</v>
+      </c>
+      <c r="JW3">
+        <v>25</v>
+      </c>
+      <c r="JX3">
         <v>13</v>
       </c>
-      <c r="AC3">
-        <v>1.096925821566162</v>
-      </c>
-      <c r="AD3">
-        <v>47</v>
-      </c>
-      <c r="AE3">
-        <v>45</v>
-      </c>
-      <c r="AF3">
+      <c r="JY3">
+        <v>7</v>
+      </c>
+      <c r="JZ3">
+        <v>13</v>
+      </c>
+      <c r="KA3">
+        <v>7</v>
+      </c>
+      <c r="KB3">
+        <v>0.3382328228005306</v>
+      </c>
+      <c r="KC3">
+        <v>1</v>
+      </c>
+      <c r="KD3">
+        <v>1.339627372529354</v>
+      </c>
+      <c r="KE3">
+        <v>1.003894472795674</v>
+      </c>
+      <c r="KF3">
         <v>25</v>
       </c>
-      <c r="AG3">
-        <v>12.77367083757315</v>
-      </c>
-      <c r="AH3">
-        <v>23</v>
-      </c>
-      <c r="AI3">
-        <v>12.77367083757315</v>
-      </c>
-      <c r="AJ3">
-        <v>70</v>
-      </c>
-      <c r="AK3">
-        <v>25.696</v>
-      </c>
-      <c r="AL3">
-        <v>25.69600000000001</v>
-      </c>
-      <c r="AM3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="AN3">
-        <v>15</v>
-      </c>
-      <c r="AO3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="AP3">
+      <c r="KG3">
+        <v>1.500327944912886</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.088313564275336</v>
+      </c>
+      <c r="KJ3">
+        <v>25</v>
+      </c>
+      <c r="KK3">
+        <v>32</v>
+      </c>
+      <c r="KL3">
+        <v>26.1519</v>
+      </c>
+      <c r="KM3">
+        <v>26.15189999999999</v>
+      </c>
+      <c r="KN3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="KO3">
         <v>1</v>
       </c>
-      <c r="AQ3">
-        <v>0.6381642512077295</v>
-      </c>
-      <c r="AR3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="AU3">
-        <v>15</v>
-      </c>
-      <c r="AV3">
-        <v>0.3618357487922704</v>
-      </c>
-      <c r="AW3">
-        <v>-0.3636964837266737</v>
-      </c>
-      <c r="AX3">
-        <v>51</v>
-      </c>
-      <c r="AY3">
-        <v>0.5712407142327921</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0.0267704955950307</v>
-      </c>
-      <c r="BB3">
-        <v>-0.8792700000000018</v>
-      </c>
-      <c r="BC3">
-        <v>2</v>
-      </c>
-      <c r="BD3">
-        <v>4.376176666666673</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0.03942811594202903</v>
-      </c>
-      <c r="BG3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="BH3">
-        <v>1.461538461538461</v>
-      </c>
-      <c r="BI3">
-        <v>9</v>
-      </c>
-      <c r="BJ3">
-        <v>1.005366461237983</v>
-      </c>
-      <c r="BK3">
-        <v>69</v>
-      </c>
-      <c r="BL3">
-        <v>70</v>
-      </c>
-      <c r="BM3">
-        <v>34.5</v>
-      </c>
-      <c r="BN3">
-        <v>19.99062280170381</v>
-      </c>
-      <c r="BO3">
-        <v>35.5</v>
-      </c>
-      <c r="BP3">
-        <v>19.99062280170381</v>
-      </c>
-      <c r="BQ3">
-        <v>21</v>
-      </c>
-      <c r="BR3">
-        <v>25.5903</v>
-      </c>
-      <c r="BS3">
-        <v>25.5903</v>
-      </c>
-      <c r="BT3">
-        <v>0.5</v>
-      </c>
-      <c r="BU3">
-        <v>0</v>
-      </c>
-      <c r="BV3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="BW3">
-        <v>3</v>
-      </c>
-      <c r="BX3">
-        <v>0.638333333333333</v>
-      </c>
-      <c r="BY3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="BZ3">
-        <v>3</v>
-      </c>
-      <c r="CA3">
-        <v>0.5</v>
-      </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0.3616666666666665</v>
-      </c>
-      <c r="CD3">
-        <v>-0.1576220812478201</v>
-      </c>
-      <c r="CE3">
-        <v>15</v>
-      </c>
-      <c r="CF3">
-        <v>0.5878822962025649</v>
-      </c>
-      <c r="CG3">
-        <v>0</v>
-      </c>
-      <c r="CH3">
-        <v>0.1225471428527434</v>
-      </c>
-      <c r="CI3">
-        <v>-0.4948433333333426</v>
-      </c>
-      <c r="CJ3">
-        <v>2</v>
-      </c>
-      <c r="CK3">
-        <v>4.854673333333329</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0.2543436666666666</v>
-      </c>
-      <c r="CN3">
-        <v>1</v>
-      </c>
-      <c r="CO3">
-        <v>1.214285714285714</v>
-      </c>
-      <c r="CP3">
-        <v>11</v>
-      </c>
-      <c r="CQ3">
-        <v>1.12442672417097</v>
-      </c>
-      <c r="CR3">
-        <v>20</v>
-      </c>
-      <c r="CS3">
-        <v>19</v>
-      </c>
-      <c r="CT3">
-        <v>11</v>
-      </c>
-      <c r="CU3">
-        <v>5.267826876426369</v>
-      </c>
-      <c r="CV3">
-        <v>10</v>
-      </c>
-      <c r="CW3">
-        <v>5.267826876426369</v>
-      </c>
-      <c r="CX3">
-        <v>33</v>
-      </c>
-      <c r="CY3">
-        <v>26.2144</v>
-      </c>
-      <c r="CZ3">
-        <v>26.21439999999999</v>
-      </c>
-      <c r="DA3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="DB3">
-        <v>20</v>
-      </c>
-      <c r="DC3">
-        <v>0.7</v>
-      </c>
-      <c r="DD3">
-        <v>5</v>
-      </c>
-      <c r="DE3">
-        <v>0.6343749999999998</v>
-      </c>
-      <c r="DF3">
-        <v>0.3</v>
-      </c>
-      <c r="DG3">
-        <v>5</v>
-      </c>
-      <c r="DH3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="DI3">
-        <v>20</v>
-      </c>
-      <c r="DJ3">
-        <v>0.3656250000000001</v>
-      </c>
-      <c r="DK3">
-        <v>-0.3577708763999691</v>
-      </c>
-      <c r="DL3">
-        <v>23</v>
-      </c>
-      <c r="DM3">
-        <v>0.5294521438194486</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0.06526809252450855</v>
-      </c>
-      <c r="DP3">
-        <v>-0.2269966666666647</v>
-      </c>
-      <c r="DQ3">
-        <v>14</v>
-      </c>
-      <c r="DR3">
-        <v>4.44253333333333</v>
-      </c>
-      <c r="DS3">
-        <v>0</v>
-      </c>
-      <c r="DT3">
-        <v>0.1060813541666665</v>
-      </c>
-      <c r="DU3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="DV3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="DW3">
-        <v>17</v>
-      </c>
-      <c r="DX3">
-        <v>1.151143810076616</v>
-      </c>
-      <c r="DY3">
-        <v>0</v>
-      </c>
-      <c r="DZ3">
-        <v>0</v>
-      </c>
-      <c r="EE3">
-        <v>25</v>
-      </c>
-      <c r="EF3">
-        <v>26.2144</v>
-      </c>
-      <c r="EG3">
-        <v>26.21439999999999</v>
-      </c>
-      <c r="EH3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="EI3">
-        <v>2</v>
-      </c>
-      <c r="EJ3">
+      <c r="KP3">
         <v>0.7666666666666667</v>
       </c>
-      <c r="EK3">
-        <v>14</v>
-      </c>
-      <c r="EL3">
-        <v>0.65</v>
-      </c>
-      <c r="EM3">
+      <c r="KQ3">
+        <v>4</v>
+      </c>
+      <c r="KR3">
+        <v>0.6591397849462364</v>
+      </c>
+      <c r="KS3">
         <v>0.2333333333333333</v>
-      </c>
-      <c r="EN3">
-        <v>14</v>
-      </c>
-      <c r="EO3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="EP3">
-        <v>2</v>
-      </c>
-      <c r="EQ3">
-        <v>0.3500000000000001</v>
-      </c>
-      <c r="ER3">
-        <v>-0.5380077714285122</v>
-      </c>
-      <c r="ES3">
-        <v>8</v>
-      </c>
-      <c r="ET3">
-        <v>0.4495164216516982</v>
-      </c>
-      <c r="EU3">
-        <v>19</v>
-      </c>
-      <c r="EV3">
-        <v>0.09990917990576387</v>
-      </c>
-      <c r="EW3">
-        <v>-0.7042133333333389</v>
-      </c>
-      <c r="EX3">
-        <v>8</v>
-      </c>
-      <c r="EY3">
-        <v>3.192639999999997</v>
-      </c>
-      <c r="EZ3">
-        <v>1</v>
-      </c>
-      <c r="FA3">
-        <v>0.3808208333333329</v>
-      </c>
-      <c r="FB3">
-        <v>1</v>
-      </c>
-      <c r="FC3">
-        <v>1.25</v>
-      </c>
-      <c r="FD3">
-        <v>7</v>
-      </c>
-      <c r="FE3">
-        <v>1.130347120200061</v>
-      </c>
-      <c r="FF3">
-        <v>0</v>
-      </c>
-      <c r="FG3">
-        <v>0</v>
-      </c>
-      <c r="FL3">
-        <v>37</v>
-      </c>
-      <c r="FM3">
-        <v>26.2143</v>
-      </c>
-      <c r="FN3">
-        <v>26.21429999999999</v>
-      </c>
-      <c r="FO3">
-        <v>0.5</v>
-      </c>
-      <c r="FP3">
-        <v>10</v>
-      </c>
-      <c r="FQ3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="FR3">
-        <v>23</v>
-      </c>
-      <c r="FS3">
-        <v>0.6175925925925927</v>
-      </c>
-      <c r="FT3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="FU3">
-        <v>23</v>
-      </c>
-      <c r="FV3">
-        <v>0.5</v>
-      </c>
-      <c r="FW3">
-        <v>10</v>
-      </c>
-      <c r="FX3">
-        <v>0.3824074074074075</v>
-      </c>
-      <c r="FY3">
-        <v>-0.3713906763548734</v>
-      </c>
-      <c r="FZ3">
-        <v>25</v>
-      </c>
-      <c r="GA3">
-        <v>0.5174141725196564</v>
-      </c>
-      <c r="GB3">
-        <v>0</v>
-      </c>
-      <c r="GC3">
-        <v>0.07058914454529429</v>
-      </c>
-      <c r="GD3">
-        <v>-0.4339066666666689</v>
-      </c>
-      <c r="GE3">
-        <v>7</v>
-      </c>
-      <c r="GF3">
-        <v>4.352239999999998</v>
-      </c>
-      <c r="GG3">
-        <v>0</v>
-      </c>
-      <c r="GH3">
-        <v>0.1134554629629628</v>
-      </c>
-      <c r="GI3">
-        <v>1</v>
-      </c>
-      <c r="GJ3">
-        <v>1.777777777777778</v>
-      </c>
-      <c r="GK3">
-        <v>11</v>
-      </c>
-      <c r="GL3">
-        <v>1.03760678066032</v>
-      </c>
-      <c r="GM3">
-        <v>36</v>
-      </c>
-      <c r="GN3">
-        <v>37</v>
-      </c>
-      <c r="GO3">
-        <v>18</v>
-      </c>
-      <c r="GP3">
-        <v>10.46422476822817</v>
-      </c>
-      <c r="GQ3">
-        <v>19</v>
-      </c>
-      <c r="GR3">
-        <v>10.46422476822817</v>
-      </c>
-      <c r="GS3">
-        <v>59</v>
-      </c>
-      <c r="GT3">
-        <v>25.984</v>
-      </c>
-      <c r="GU3">
-        <v>25.98400000000001</v>
-      </c>
-      <c r="GV3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="GW3">
-        <v>24</v>
-      </c>
-      <c r="GX3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="GY3">
-        <v>22</v>
-      </c>
-      <c r="GZ3">
-        <v>0.6436781609195404</v>
-      </c>
-      <c r="HA3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="HB3">
-        <v>22</v>
-      </c>
-      <c r="HC3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="HD3">
-        <v>24</v>
-      </c>
-      <c r="HE3">
-        <v>0.3563218390804598</v>
-      </c>
-      <c r="HF3">
-        <v>-0.4472135954999265</v>
-      </c>
-      <c r="HG3">
-        <v>52</v>
-      </c>
-      <c r="HH3">
-        <v>0.5407128040655302</v>
-      </c>
-      <c r="HI3">
-        <v>0</v>
-      </c>
-      <c r="HJ3">
-        <v>0.03613621854726051</v>
-      </c>
-      <c r="HK3">
-        <v>-0.4796499999999995</v>
-      </c>
-      <c r="HL3">
-        <v>9</v>
-      </c>
-      <c r="HM3">
-        <v>4.249826666666664</v>
-      </c>
-      <c r="HN3">
-        <v>0</v>
-      </c>
-      <c r="HO3">
-        <v>0.07347804597701164</v>
-      </c>
-      <c r="HP3">
-        <v>1.333333333333333</v>
-      </c>
-      <c r="HQ3">
-        <v>1.454545454545455</v>
-      </c>
-      <c r="HR3">
-        <v>15</v>
-      </c>
-      <c r="HS3">
-        <v>1.03489539937778</v>
-      </c>
-      <c r="HT3">
-        <v>58</v>
-      </c>
-      <c r="HU3">
-        <v>55</v>
-      </c>
-      <c r="HV3">
-        <v>31</v>
-      </c>
-      <c r="HW3">
-        <v>15.66045976336583</v>
-      </c>
-      <c r="HX3">
-        <v>28</v>
-      </c>
-      <c r="HY3">
-        <v>15.66045976336583</v>
-      </c>
-      <c r="HZ3">
-        <v>48</v>
-      </c>
-      <c r="IA3">
-        <v>26.1303</v>
-      </c>
-      <c r="IB3">
-        <v>26.13030000000001</v>
-      </c>
-      <c r="IC3">
-        <v>0.5666666666666667</v>
-      </c>
-      <c r="ID3">
-        <v>35</v>
-      </c>
-      <c r="IE3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="IF3">
-        <v>21</v>
-      </c>
-      <c r="IG3">
-        <v>0.6609929078014186</v>
-      </c>
-      <c r="IH3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="II3">
-        <v>21</v>
-      </c>
-      <c r="IJ3">
-        <v>0.4333333333333333</v>
-      </c>
-      <c r="IK3">
-        <v>35</v>
-      </c>
-      <c r="IL3">
-        <v>0.3390070921985818</v>
-      </c>
-      <c r="IM3">
-        <v>-0.3333333333333424</v>
-      </c>
-      <c r="IN3">
-        <v>33</v>
-      </c>
-      <c r="IO3">
-        <v>0.470961326832889</v>
-      </c>
-      <c r="IP3">
-        <v>17</v>
-      </c>
-      <c r="IQ3">
-        <v>0.06663956428603553</v>
-      </c>
-      <c r="IR3">
-        <v>-0.2007900000000049</v>
-      </c>
-      <c r="IS3">
-        <v>13</v>
-      </c>
-      <c r="IT3">
-        <v>2.389016666666674</v>
-      </c>
-      <c r="IU3">
-        <v>0</v>
-      </c>
-      <c r="IV3">
-        <v>0.1059746808510639</v>
-      </c>
-      <c r="IW3">
-        <v>0</v>
-      </c>
-      <c r="IX3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="IY3">
-        <v>24</v>
-      </c>
-      <c r="IZ3">
-        <v>1.096364482082482</v>
-      </c>
-      <c r="JA3">
-        <v>47</v>
-      </c>
-      <c r="JB3">
-        <v>47</v>
-      </c>
-      <c r="JC3">
-        <v>24</v>
-      </c>
-      <c r="JD3">
-        <v>13.35102992281869</v>
-      </c>
-      <c r="JE3">
-        <v>24</v>
-      </c>
-      <c r="JF3">
-        <v>13.35102992281869</v>
-      </c>
-      <c r="JG3">
-        <v>61</v>
-      </c>
-      <c r="JH3">
-        <v>26.0295</v>
-      </c>
-      <c r="JI3">
-        <v>26.0295</v>
-      </c>
-      <c r="JJ3">
-        <v>0.5</v>
-      </c>
-      <c r="JK3">
-        <v>2</v>
-      </c>
-      <c r="JL3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="JM3">
-        <v>14</v>
-      </c>
-      <c r="JN3">
-        <v>0.6455555555555555</v>
-      </c>
-      <c r="JO3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="JP3">
-        <v>14</v>
-      </c>
-      <c r="JQ3">
-        <v>0.5</v>
-      </c>
-      <c r="JR3">
-        <v>2</v>
-      </c>
-      <c r="JS3">
-        <v>0.3544444444444446</v>
-      </c>
-      <c r="JT3">
-        <v>-0.4082482904637846</v>
-      </c>
-      <c r="JU3">
-        <v>24</v>
-      </c>
-      <c r="JV3">
-        <v>0.6273784112881703</v>
-      </c>
-      <c r="JW3">
-        <v>0</v>
-      </c>
-      <c r="JX3">
-        <v>0.02675279210856005</v>
-      </c>
-      <c r="JY3">
-        <v>-0.03697999999999269</v>
-      </c>
-      <c r="JZ3">
-        <v>24</v>
-      </c>
-      <c r="KA3">
-        <v>4.792513333333329</v>
-      </c>
-      <c r="KB3">
-        <v>0</v>
-      </c>
-      <c r="KC3">
-        <v>0.07381572222222227</v>
-      </c>
-      <c r="KD3">
-        <v>1</v>
-      </c>
-      <c r="KE3">
-        <v>1.7</v>
-      </c>
-      <c r="KF3">
-        <v>20</v>
-      </c>
-      <c r="KG3">
-        <v>1.071420756196551</v>
-      </c>
-      <c r="KH3">
-        <v>60</v>
-      </c>
-      <c r="KI3">
-        <v>1</v>
-      </c>
-      <c r="KJ3">
-        <v>60</v>
-      </c>
-      <c r="KK3">
-        <v>0</v>
-      </c>
-      <c r="KL3">
-        <v>1</v>
-      </c>
-      <c r="KM3">
-        <v>0</v>
-      </c>
-      <c r="KN3">
-        <v>92</v>
-      </c>
-      <c r="KO3">
-        <v>26.2143</v>
-      </c>
-      <c r="KP3">
-        <v>26.21429999999999</v>
-      </c>
-      <c r="KQ3">
-        <v>0.5</v>
-      </c>
-      <c r="KR3">
-        <v>76</v>
-      </c>
-      <c r="KS3">
-        <v>0.7333333333333333</v>
       </c>
       <c r="KT3">
         <v>4</v>
       </c>
       <c r="KU3">
-        <v>0.6344322344322348</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="KV3">
-        <v>0.2666666666666667</v>
+        <v>1</v>
       </c>
       <c r="KW3">
+        <v>0.3408602150537635</v>
+      </c>
+      <c r="KX3">
+        <v>-0.353553390593314</v>
+      </c>
+      <c r="KY3">
+        <v>18</v>
+      </c>
+      <c r="KZ3">
+        <v>0.5451682144258539</v>
+      </c>
+      <c r="LA3">
+        <v>0</v>
+      </c>
+      <c r="LB3">
+        <v>0.04032530251338247</v>
+      </c>
+      <c r="LC3">
+        <v>-0.06936666666666724</v>
+      </c>
+      <c r="LD3">
+        <v>3</v>
+      </c>
+      <c r="LE3">
+        <v>4.15161333333333</v>
+      </c>
+      <c r="LF3">
+        <v>0</v>
+      </c>
+      <c r="LG3">
+        <v>0.1045101075268816</v>
+      </c>
+      <c r="LH3">
+        <v>0.5</v>
+      </c>
+      <c r="LI3">
+        <v>0</v>
+      </c>
+      <c r="LJ3">
+        <v>32</v>
+      </c>
+      <c r="LK3">
+        <v>1.137780708874459</v>
+      </c>
+      <c r="LL3">
+        <v>31</v>
+      </c>
+      <c r="LM3">
+        <v>1</v>
+      </c>
+      <c r="LN3">
+        <v>31</v>
+      </c>
+      <c r="LO3">
+        <v>0</v>
+      </c>
+      <c r="LP3">
+        <v>1</v>
+      </c>
+      <c r="LQ3">
+        <v>0</v>
+      </c>
+      <c r="LR3">
+        <v>0.4454984712890275</v>
+      </c>
+      <c r="LS3">
         <v>4</v>
       </c>
-      <c r="KX3">
+      <c r="LT3">
+        <v>1.144129750440306</v>
+      </c>
+      <c r="LU3">
+        <v>1.001591987590139</v>
+      </c>
+      <c r="LV3">
+        <v>17</v>
+      </c>
+      <c r="LW3">
+        <v>1.397320820974311</v>
+      </c>
+      <c r="LX3">
+        <v>0</v>
+      </c>
+      <c r="LY3">
+        <v>1.009609846699262</v>
+      </c>
+      <c r="LZ3">
+        <v>31</v>
+      </c>
+      <c r="MA3">
+        <v>34</v>
+      </c>
+      <c r="MB3">
+        <v>26.2095</v>
+      </c>
+      <c r="MC3">
+        <v>26.20950000000001</v>
+      </c>
+      <c r="MD3">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="ME3">
+        <v>5</v>
+      </c>
+      <c r="MF3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="MG3">
+        <v>14</v>
+      </c>
+      <c r="MH3">
+        <v>0.6434343434343434</v>
+      </c>
+      <c r="MI3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="MJ3">
+        <v>14</v>
+      </c>
+      <c r="MK3">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="ML3">
+        <v>5</v>
+      </c>
+      <c r="MM3">
+        <v>0.3565656565656566</v>
+      </c>
+      <c r="MN3">
+        <v>-0.3482055762956148</v>
+      </c>
+      <c r="MO3">
+        <v>10</v>
+      </c>
+      <c r="MP3">
+        <v>0.6397269286374955</v>
+      </c>
+      <c r="MQ3">
+        <v>1</v>
+      </c>
+      <c r="MR3">
+        <v>0.05970739142660422</v>
+      </c>
+      <c r="MS3">
+        <v>-1.161929999999998</v>
+      </c>
+      <c r="MT3">
+        <v>10</v>
+      </c>
+      <c r="MU3">
+        <v>3.879463333333334</v>
+      </c>
+      <c r="MV3">
+        <v>1</v>
+      </c>
+      <c r="MW3">
+        <v>0.1961373737373739</v>
+      </c>
+      <c r="MX3">
         <v>0.5</v>
       </c>
-      <c r="KY3">
-        <v>76</v>
-      </c>
-      <c r="KZ3">
-        <v>0.3655677655677655</v>
-      </c>
-      <c r="LA3">
-        <v>-0.3402069087198793</v>
-      </c>
-      <c r="LB3">
-        <v>68</v>
-      </c>
-      <c r="LC3">
-        <v>0.4283918463195061</v>
-      </c>
-      <c r="LD3">
-        <v>2</v>
-      </c>
-      <c r="LE3">
-        <v>0.03851102213476965</v>
-      </c>
-      <c r="LF3">
-        <v>-0.2096833333333343</v>
-      </c>
-      <c r="LG3">
-        <v>3</v>
-      </c>
-      <c r="LH3">
-        <v>3.239236666666663</v>
-      </c>
-      <c r="LI3">
-        <v>0</v>
-      </c>
-      <c r="LJ3">
-        <v>0.04763047619047613</v>
-      </c>
-      <c r="LK3">
-        <v>0</v>
-      </c>
-      <c r="LL3">
-        <v>1.25</v>
-      </c>
-      <c r="LM3">
-        <v>31</v>
-      </c>
-      <c r="LN3">
-        <v>1.065660729915944</v>
-      </c>
-      <c r="LO3">
-        <v>91</v>
-      </c>
-      <c r="LP3">
-        <v>91</v>
-      </c>
-      <c r="LQ3">
-        <v>46</v>
-      </c>
-      <c r="LR3">
-        <v>26.05283094022606</v>
-      </c>
-      <c r="LS3">
-        <v>46</v>
-      </c>
-      <c r="LT3">
-        <v>26.05283094022606</v>
-      </c>
-      <c r="LU3">
-        <v>0.5</v>
-      </c>
-      <c r="LV3">
-        <v>5</v>
-      </c>
-      <c r="LW3">
-        <v>25</v>
-      </c>
-      <c r="LX3">
-        <v>92</v>
-      </c>
-      <c r="LY3">
-        <v>47</v>
-      </c>
-      <c r="LZ3">
-        <v>23.68966019173766</v>
-      </c>
-      <c r="MA3">
-        <v>0.5</v>
-      </c>
-      <c r="MB3">
-        <v>10</v>
-      </c>
-      <c r="MC3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="MD3">
-        <v>14</v>
-      </c>
-      <c r="ME3">
-        <v>0.5266666666666666</v>
-      </c>
-      <c r="MF3">
-        <v>0.74</v>
-      </c>
-      <c r="MG3">
-        <v>0.6372090434191499</v>
-      </c>
-      <c r="MH3">
-        <v>0.02494438257849294</v>
-      </c>
-      <c r="MI3">
-        <v>0.02494438257849298</v>
-      </c>
-      <c r="MJ3">
-        <v>0.01199015347339989</v>
-      </c>
-      <c r="MK3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="ML3">
-        <v>14</v>
-      </c>
-      <c r="MM3">
-        <v>0.5</v>
-      </c>
-      <c r="MN3">
-        <v>10</v>
-      </c>
-      <c r="MO3">
-        <v>0.26</v>
-      </c>
-      <c r="MP3">
-        <v>0.4733333333333333</v>
-      </c>
-      <c r="MQ3">
-        <v>0.3627909565808503</v>
-      </c>
-      <c r="MR3">
-        <v>0.02494438257849294</v>
-      </c>
-      <c r="MS3">
-        <v>0.02494438257849294</v>
-      </c>
-      <c r="MT3">
-        <v>0.01199015347339987</v>
-      </c>
-      <c r="MU3">
-        <v>-0.5380077714285122</v>
-      </c>
-      <c r="MV3">
-        <v>8</v>
-      </c>
-      <c r="MW3">
-        <v>0.5294521438194486</v>
-      </c>
-      <c r="MX3">
-        <v>0</v>
-      </c>
       <c r="MY3">
-        <v>-0.4044676856946253</v>
+        <v>0</v>
       </c>
       <c r="MZ3">
-        <v>0.4656792343549968</v>
+        <v>20</v>
       </c>
       <c r="NA3">
-        <v>0.06248502010570839</v>
+        <v>1.052349021719335</v>
       </c>
       <c r="NB3">
-        <v>0.07120002421052611</v>
+        <v>33</v>
       </c>
       <c r="NC3">
-        <v>0.0494898477811711</v>
+        <v>15</v>
       </c>
       <c r="ND3">
-        <v>0.02298281822734283</v>
+        <v>26</v>
       </c>
       <c r="NE3">
-        <v>-0.7042133333333389</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="NF3">
         <v>8</v>
       </c>
       <c r="NG3">
-        <v>4.44253333333333</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="NH3">
-        <v>0</v>
+        <v>0.6397269286374955</v>
       </c>
       <c r="NI3">
-        <v>-0.3725226666666678</v>
+        <v>2</v>
       </c>
       <c r="NJ3">
-        <v>3.601620666666664</v>
+        <v>1.328187884325352</v>
       </c>
       <c r="NK3">
-        <v>0.150396703344872</v>
+        <v>1.001535002997784</v>
       </c>
       <c r="NL3">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="NM3">
-        <v>1.333333333333333</v>
+        <v>1.559634246540297</v>
       </c>
       <c r="NN3">
-        <v>0.7666666666666666</v>
+        <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.071428571428571</v>
+        <v>1.043777877348603</v>
       </c>
       <c r="NP3">
-        <v>1.777777777777778</v>
+        <v>33</v>
       </c>
       <c r="NQ3">
-        <v>1.360750360750361</v>
+        <v>46</v>
       </c>
       <c r="NR3">
-        <v>1.03760678066032</v>
+        <v>24.8919</v>
       </c>
       <c r="NS3">
-        <v>1.151143810076616</v>
+        <v>24.8919</v>
       </c>
       <c r="NT3">
-        <v>1.096336852483821</v>
+        <v>0.5</v>
       </c>
       <c r="NU3">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="NV3">
-        <v>70</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="NW3">
-        <v>51.8</v>
+        <v>8</v>
       </c>
       <c r="NX3">
-        <v>16.9162643630324</v>
+        <v>0.6414814814814815</v>
       </c>
       <c r="NY3">
-        <v>25.88602</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="NZ3">
-        <v>0.20659972313631</v>
+        <v>8</v>
       </c>
       <c r="OA3">
-        <v>26.1303</v>
+        <v>0.5</v>
+      </c>
+      <c r="OB3">
+        <v>44</v>
+      </c>
+      <c r="OC3">
+        <v>0.3585185185185187</v>
+      </c>
+      <c r="OD3">
+        <v>-0.6393541723172178</v>
+      </c>
+      <c r="OE3">
+        <v>23</v>
+      </c>
+      <c r="OF3">
+        <v>0.4228664938062471</v>
+      </c>
+      <c r="OG3">
+        <v>6</v>
+      </c>
+      <c r="OH3">
+        <v>0.0380935455096779</v>
+      </c>
+      <c r="OI3">
+        <v>-0.518220000000003</v>
+      </c>
+      <c r="OJ3">
+        <v>23</v>
+      </c>
+      <c r="OK3">
+        <v>2.518886666666667</v>
+      </c>
+      <c r="OL3">
+        <v>0</v>
+      </c>
+      <c r="OM3">
+        <v>0.08294051851851836</v>
+      </c>
+      <c r="ON3">
+        <v>0</v>
+      </c>
+      <c r="OO3">
+        <v>0</v>
+      </c>
+      <c r="OP3">
+        <v>26</v>
+      </c>
+      <c r="OQ3">
+        <v>0.9896721524781897</v>
+      </c>
+      <c r="OR3">
+        <v>45</v>
+      </c>
+      <c r="OS3">
+        <v>46</v>
+      </c>
+      <c r="OT3">
+        <v>22.5</v>
+      </c>
+      <c r="OU3">
+        <v>13.06235047761313</v>
+      </c>
+      <c r="OV3">
+        <v>23.5</v>
+      </c>
+      <c r="OW3">
+        <v>13.06235047761313</v>
+      </c>
+      <c r="OX3">
+        <v>-0.01554692187064815</v>
+      </c>
+      <c r="OY3">
+        <v>0</v>
+      </c>
+      <c r="OZ3">
+        <v>1.238885844124481</v>
+      </c>
+      <c r="PA3">
+        <v>1.002970807275476</v>
+      </c>
+      <c r="PB3">
+        <v>45</v>
+      </c>
+      <c r="PC3">
+        <v>1.406299874092643</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.063833726925809</v>
+      </c>
+      <c r="PF3">
+        <v>45</v>
+      </c>
+      <c r="PG3">
+        <v>0.1</v>
+      </c>
+      <c r="PH3">
+        <v>1</v>
+      </c>
+      <c r="PI3">
+        <v>25</v>
+      </c>
+      <c r="PJ3">
+        <v>25</v>
+      </c>
+      <c r="PK3">
+        <v>25</v>
+      </c>
+      <c r="PL3">
+        <v>0</v>
+      </c>
+      <c r="PM3">
+        <v>0.5</v>
+      </c>
+      <c r="PN3">
+        <v>11</v>
+      </c>
+      <c r="PO3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="PP3">
+        <v>2</v>
+      </c>
+      <c r="PQ3">
+        <v>0.5</v>
+      </c>
+      <c r="PR3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="PS3">
+        <v>0.6402777777777773</v>
+      </c>
+      <c r="PT3">
+        <v>0</v>
+      </c>
+      <c r="PU3">
+        <v>0</v>
+      </c>
+      <c r="PV3">
+        <v>0</v>
+      </c>
+      <c r="PW3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="PX3">
+        <v>2</v>
+      </c>
+      <c r="PY3">
+        <v>0.5</v>
+      </c>
+      <c r="PZ3">
+        <v>11</v>
+      </c>
+      <c r="QA3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="QB3">
+        <v>0.5</v>
+      </c>
+      <c r="QC3">
+        <v>0.3597222222222221</v>
+      </c>
+      <c r="QD3">
+        <v>0</v>
+      </c>
+      <c r="QE3">
+        <v>0</v>
+      </c>
+      <c r="QF3">
+        <v>0</v>
+      </c>
+      <c r="QG3">
+        <v>-0.2716340464031189</v>
+      </c>
+      <c r="QH3">
+        <v>18</v>
+      </c>
+      <c r="QI3">
+        <v>0.3573404598775777</v>
+      </c>
+      <c r="QJ3">
+        <v>3</v>
+      </c>
+      <c r="QK3">
+        <v>-0.2716340464031189</v>
+      </c>
+      <c r="QL3">
+        <v>0.3573404598775777</v>
+      </c>
+      <c r="QM3">
+        <v>0.091630711971551</v>
+      </c>
+      <c r="QN3">
+        <v>0</v>
+      </c>
+      <c r="QO3">
+        <v>0</v>
+      </c>
+      <c r="QP3">
+        <v>0</v>
+      </c>
+      <c r="QQ3">
+        <v>-0.4107666666666603</v>
+      </c>
+      <c r="QR3">
+        <v>8</v>
+      </c>
+      <c r="QS3">
+        <v>2.194673333333323</v>
+      </c>
+      <c r="QT3">
+        <v>0</v>
+      </c>
+      <c r="QU3">
+        <v>-0.4107666666666603</v>
+      </c>
+      <c r="QV3">
+        <v>2.194673333333323</v>
+      </c>
+      <c r="QW3">
+        <v>0.2258518055555555</v>
+      </c>
+      <c r="QX3">
+        <v>4</v>
+      </c>
+      <c r="QY3">
+        <v>4</v>
+      </c>
+      <c r="QZ3">
+        <v>4</v>
+      </c>
+      <c r="RA3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="RB3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="RC3">
+        <v>1.142857142857143</v>
+      </c>
+      <c r="RD3">
+        <v>1.221241720776046</v>
+      </c>
+      <c r="RE3">
+        <v>1.221241720776046</v>
+      </c>
+      <c r="RF3">
+        <v>1.221241720776046</v>
+      </c>
+      <c r="RG3">
+        <v>24</v>
+      </c>
+      <c r="RH3">
+        <v>46</v>
+      </c>
+      <c r="RI3">
+        <v>35.66666666666666</v>
+      </c>
+      <c r="RJ3">
+        <v>7.195677714974301</v>
+      </c>
+      <c r="RK3">
+        <v>25.76465555555556</v>
+      </c>
+      <c r="RL3">
+        <v>0.5321779174321958</v>
+      </c>
+      <c r="RM3">
+        <v>26.2095</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C1:AI1"/>
-    <mergeCell ref="AJ1:BP1"/>
-    <mergeCell ref="BQ1:CW1"/>
-    <mergeCell ref="CX1:ED1"/>
-    <mergeCell ref="EE1:FK1"/>
-    <mergeCell ref="FL1:GR1"/>
-    <mergeCell ref="GS1:HY1"/>
-    <mergeCell ref="HZ1:JF1"/>
-    <mergeCell ref="JG1:KM1"/>
-    <mergeCell ref="KN1:LT1"/>
-    <mergeCell ref="LU1:OA1"/>
+    <mergeCell ref="C1:AR1"/>
+    <mergeCell ref="AS1:CH1"/>
+    <mergeCell ref="CI1:DX1"/>
+    <mergeCell ref="DY1:FN1"/>
+    <mergeCell ref="FO1:HD1"/>
+    <mergeCell ref="HE1:IT1"/>
+    <mergeCell ref="IU1:KJ1"/>
+    <mergeCell ref="KK1:LZ1"/>
+    <mergeCell ref="MA1:NP1"/>
+    <mergeCell ref="NQ1:PF1"/>
+    <mergeCell ref="PG1:RV1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>

--- a/out_test/tables/F5122subx2/F5122subx2_30.xlsx
+++ b/out_test/tables/F5122subx2/F5122subx2_30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="128">
   <si>
     <t>RWS</t>
   </si>
@@ -329,6 +329,66 @@
   </si>
   <si>
     <t>nonMax_F_found</t>
+  </si>
+  <si>
+    <t>Min_I_start</t>
+  </si>
+  <si>
+    <t>Max_I_start</t>
+  </si>
+  <si>
+    <t>Avg_I_start</t>
+  </si>
+  <si>
+    <t>Sigma_I_start</t>
+  </si>
+  <si>
+    <t>Min_GR_start</t>
+  </si>
+  <si>
+    <t>Max_GR_start</t>
+  </si>
+  <si>
+    <t>Avg_GR_start</t>
+  </si>
+  <si>
+    <t>Sigma_GR_start</t>
+  </si>
+  <si>
+    <t>Min_Pr_min</t>
+  </si>
+  <si>
+    <t>Max_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_min</t>
+  </si>
+  <si>
+    <t>Avg_Pr_max</t>
+  </si>
+  <si>
+    <t>Avg_Pr_avg</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_min</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_max</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_avg</t>
+  </si>
+  <si>
+    <t>Min_Pr_start</t>
+  </si>
+  <si>
+    <t>Max_Pr_start</t>
+  </si>
+  <si>
+    <t>Avg_Pr_start</t>
+  </si>
+  <si>
+    <t>Sigma_Pr_start</t>
   </si>
   <si>
     <t>Aggregated</t>
@@ -701,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:RV3"/>
+  <dimension ref="A1:SR3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -712,12 +772,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:490">
+    <row r="1" spans="1:512">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>44</v>
@@ -1160,7 +1220,7 @@
       <c r="PE1" s="1"/>
       <c r="PF1" s="1"/>
       <c r="PG1" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="PH1" s="1"/>
       <c r="PI1" s="1"/>
@@ -1229,8 +1289,30 @@
       <c r="RT1" s="1"/>
       <c r="RU1" s="1"/>
       <c r="RV1" s="1"/>
+      <c r="RW1" s="1"/>
+      <c r="RX1" s="1"/>
+      <c r="RY1" s="1"/>
+      <c r="RZ1" s="1"/>
+      <c r="SA1" s="1"/>
+      <c r="SB1" s="1"/>
+      <c r="SC1" s="1"/>
+      <c r="SD1" s="1"/>
+      <c r="SE1" s="1"/>
+      <c r="SF1" s="1"/>
+      <c r="SG1" s="1"/>
+      <c r="SH1" s="1"/>
+      <c r="SI1" s="1"/>
+      <c r="SJ1" s="1"/>
+      <c r="SK1" s="1"/>
+      <c r="SL1" s="1"/>
+      <c r="SM1" s="1"/>
+      <c r="SN1" s="1"/>
+      <c r="SO1" s="1"/>
+      <c r="SP1" s="1"/>
+      <c r="SQ1" s="1"/>
+      <c r="SR1" s="1"/>
     </row>
-    <row r="2" spans="1:490">
+    <row r="2" spans="1:512">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -2697,8 +2779,74 @@
       <c r="RV2" t="s">
         <v>43</v>
       </c>
+      <c r="RW2" t="s">
+        <v>105</v>
+      </c>
+      <c r="RX2" t="s">
+        <v>106</v>
+      </c>
+      <c r="RY2" t="s">
+        <v>107</v>
+      </c>
+      <c r="RZ2" t="s">
+        <v>108</v>
+      </c>
+      <c r="SA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="SB2" t="s">
+        <v>110</v>
+      </c>
+      <c r="SC2" t="s">
+        <v>111</v>
+      </c>
+      <c r="SD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="SE2" t="s">
+        <v>113</v>
+      </c>
+      <c r="SF2" t="s">
+        <v>39</v>
+      </c>
+      <c r="SG2" t="s">
+        <v>114</v>
+      </c>
+      <c r="SH2" t="s">
+        <v>41</v>
+      </c>
+      <c r="SI2" t="s">
+        <v>115</v>
+      </c>
+      <c r="SJ2" t="s">
+        <v>116</v>
+      </c>
+      <c r="SK2" t="s">
+        <v>117</v>
+      </c>
+      <c r="SL2" t="s">
+        <v>118</v>
+      </c>
+      <c r="SM2" t="s">
+        <v>119</v>
+      </c>
+      <c r="SN2" t="s">
+        <v>120</v>
+      </c>
+      <c r="SO2" t="s">
+        <v>121</v>
+      </c>
+      <c r="SP2" t="s">
+        <v>122</v>
+      </c>
+      <c r="SQ2" t="s">
+        <v>123</v>
+      </c>
+      <c r="SR2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="3" spans="1:490">
+    <row r="3" spans="1:512">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2706,118 +2854,118 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>25.6668</v>
+        <v>26.2143</v>
       </c>
       <c r="E3">
-        <v>25.6668</v>
+        <v>26.21429999999999</v>
       </c>
       <c r="F3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>0.7333333333333333</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>0.6358333333333335</v>
+        <v>0.6285714285714287</v>
       </c>
       <c r="K3">
         <v>0.2666666666666667</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>0.4666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>0.3641666666666669</v>
+        <v>0.3714285714285716</v>
       </c>
       <c r="P3">
-        <v>-0.3577708763999606</v>
+        <v>-0.3222581385978007</v>
       </c>
       <c r="Q3">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="R3">
-        <v>0.4853287291087648</v>
+        <v>0.4838984577338362</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.01773938991621608</v>
+        <v>0.06231937890004098</v>
       </c>
       <c r="U3">
-        <v>-0.8719566666666623</v>
+        <v>-0.5186666666666646</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="W3">
-        <v>2.511869999999995</v>
+        <v>3.774479999999997</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.1196671666666667</v>
+        <v>0.1390984523809523</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AA3">
-        <v>1.666666666666667</v>
+        <v>1.25</v>
       </c>
       <c r="AB3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AC3">
-        <v>1.066032300990392</v>
+        <v>1.079385370330609</v>
       </c>
       <c r="AD3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AF3">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>6.422616289332564</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>6.422616289332564</v>
       </c>
       <c r="AJ3">
-        <v>0.4586949919119719</v>
+        <v>0.1039948289205292</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL3">
-        <v>1.255472112699261</v>
+        <v>1.174504317068614</v>
       </c>
       <c r="AM3">
-        <v>1.010554883079035</v>
+        <v>1.003224897021435</v>
       </c>
       <c r="AN3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO3">
         <v>1.413551387170602</v>
@@ -2826,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.04387587802489</v>
+        <v>1.055853508233262</v>
       </c>
       <c r="AR3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AS3">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AT3">
         <v>26.2144</v>
@@ -2841,76 +2989,76 @@
         <v>26.21439999999999</v>
       </c>
       <c r="AV3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AW3">
         <v>11</v>
       </c>
       <c r="AX3">
-        <v>0.7666666666666667</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="AY3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AZ3">
-        <v>0.6402777777777773</v>
+        <v>0.625</v>
       </c>
       <c r="BA3">
-        <v>0.2333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="BB3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="BD3">
         <v>11</v>
       </c>
       <c r="BE3">
-        <v>0.3597222222222221</v>
+        <v>0.375</v>
       </c>
       <c r="BF3">
-        <v>-0.2716340464031189</v>
+        <v>-0.01893525863749109</v>
       </c>
       <c r="BG3">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="BH3">
-        <v>0.3573404598775777</v>
+        <v>0.4422642237095686</v>
       </c>
       <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0.2105833866945472</v>
+      </c>
+      <c r="BK3">
+        <v>-0.04342000000000468</v>
+      </c>
+      <c r="BL3">
         <v>3</v>
       </c>
-      <c r="BJ3">
-        <v>0.091630711971551</v>
-      </c>
-      <c r="BK3">
-        <v>-0.4107666666666603</v>
-      </c>
-      <c r="BL3">
+      <c r="BM3">
+        <v>3.388109999999998</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0.3522505555555553</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1.071428571428571</v>
+      </c>
+      <c r="BR3">
         <v>8</v>
       </c>
-      <c r="BM3">
-        <v>2.194673333333323</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3">
-        <v>0.2258518055555555</v>
-      </c>
-      <c r="BP3">
-        <v>4</v>
-      </c>
-      <c r="BQ3">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="BR3">
-        <v>13</v>
-      </c>
       <c r="BS3">
-        <v>1.221241720776046</v>
+        <v>1.522836523924057</v>
       </c>
       <c r="BT3">
         <v>0</v>
@@ -2919,19 +3067,19 @@
         <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.1238822121439238</v>
+        <v>0.4138711280996356</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="CB3">
-        <v>1.260673974666037</v>
+        <v>1.192246829925876</v>
       </c>
       <c r="CC3">
-        <v>1.011097058668114</v>
+        <v>1.000659614491975</v>
       </c>
       <c r="CD3">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="CE3">
         <v>1.409430650105694</v>
@@ -2940,124 +3088,124 @@
         <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.065453058135638</v>
+        <v>1.041482424143694</v>
       </c>
       <c r="CH3">
+        <v>12</v>
+      </c>
+      <c r="CI3">
+        <v>33</v>
+      </c>
+      <c r="CJ3">
+        <v>25.4044</v>
+      </c>
+      <c r="CK3">
+        <v>25.4044</v>
+      </c>
+      <c r="CL3">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="CM3">
+        <v>4</v>
+      </c>
+      <c r="CN3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="CO3">
+        <v>17</v>
+      </c>
+      <c r="CP3">
+        <v>0.6552083333333333</v>
+      </c>
+      <c r="CQ3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="CR3">
+        <v>17</v>
+      </c>
+      <c r="CS3">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="CT3">
+        <v>4</v>
+      </c>
+      <c r="CU3">
+        <v>0.3447916666666667</v>
+      </c>
+      <c r="CV3">
+        <v>-0.2414133487681243</v>
+      </c>
+      <c r="CW3">
+        <v>14</v>
+      </c>
+      <c r="CX3">
+        <v>0.4666650405618632</v>
+      </c>
+      <c r="CY3">
+        <v>0</v>
+      </c>
+      <c r="CZ3">
+        <v>0.06001454642161735</v>
+      </c>
+      <c r="DA3">
+        <v>-0.2248899999999985</v>
+      </c>
+      <c r="DB3">
+        <v>14</v>
+      </c>
+      <c r="DC3">
+        <v>3.853673333333335</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0.1844366666666667</v>
+      </c>
+      <c r="DF3">
+        <v>1</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>33</v>
+      </c>
+      <c r="DI3">
+        <v>1.051791726791727</v>
+      </c>
+      <c r="DJ3">
+        <v>32</v>
+      </c>
+      <c r="DK3">
+        <v>1</v>
+      </c>
+      <c r="DL3">
+        <v>32</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>1</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0.04272350439074418</v>
+      </c>
+      <c r="DQ3">
+        <v>1</v>
+      </c>
+      <c r="DR3">
+        <v>1.344160931767807</v>
+      </c>
+      <c r="DS3">
+        <v>1.028604612837154</v>
+      </c>
+      <c r="DT3">
         <v>24</v>
-      </c>
-      <c r="CI3">
-        <v>43</v>
-      </c>
-      <c r="CJ3">
-        <v>24.7503</v>
-      </c>
-      <c r="CK3">
-        <v>24.75030000000001</v>
-      </c>
-      <c r="CL3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="CM3">
-        <v>18</v>
-      </c>
-      <c r="CN3">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="CO3">
-        <v>13</v>
-      </c>
-      <c r="CP3">
-        <v>0.6285714285714287</v>
-      </c>
-      <c r="CQ3">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="CR3">
-        <v>13</v>
-      </c>
-      <c r="CS3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="CT3">
-        <v>18</v>
-      </c>
-      <c r="CU3">
-        <v>0.3714285714285714</v>
-      </c>
-      <c r="CV3">
-        <v>-0.3235485018645746</v>
-      </c>
-      <c r="CW3">
-        <v>11</v>
-      </c>
-      <c r="CX3">
-        <v>0.470870955797423</v>
-      </c>
-      <c r="CY3">
-        <v>29</v>
-      </c>
-      <c r="CZ3">
-        <v>0.07096082467512368</v>
-      </c>
-      <c r="DA3">
-        <v>-0.176639999999999</v>
-      </c>
-      <c r="DB3">
-        <v>11</v>
-      </c>
-      <c r="DC3">
-        <v>2.771899999999999</v>
-      </c>
-      <c r="DD3">
-        <v>0</v>
-      </c>
-      <c r="DE3">
-        <v>0.1507058730158732</v>
-      </c>
-      <c r="DF3">
-        <v>0.5</v>
-      </c>
-      <c r="DG3">
-        <v>1.538461538461539</v>
-      </c>
-      <c r="DH3">
-        <v>30</v>
-      </c>
-      <c r="DI3">
-        <v>1.077515283938884</v>
-      </c>
-      <c r="DJ3">
-        <v>42</v>
-      </c>
-      <c r="DK3">
-        <v>40</v>
-      </c>
-      <c r="DL3">
-        <v>22.5</v>
-      </c>
-      <c r="DM3">
-        <v>11.33026919362466</v>
-      </c>
-      <c r="DN3">
-        <v>20.5</v>
-      </c>
-      <c r="DO3">
-        <v>11.33026919362466</v>
-      </c>
-      <c r="DP3">
-        <v>0.3098745302832175</v>
-      </c>
-      <c r="DQ3">
-        <v>2</v>
-      </c>
-      <c r="DR3">
-        <v>1.423098275920724</v>
-      </c>
-      <c r="DS3">
-        <v>1.003581220972525</v>
-      </c>
-      <c r="DT3">
-        <v>42</v>
       </c>
       <c r="DU3">
         <v>1.675174976664808</v>
@@ -3066,124 +3214,124 @@
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>1.05114720672687</v>
+        <v>1.078371581050373</v>
       </c>
       <c r="DX3">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="DY3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="DZ3">
-        <v>25.9228</v>
+        <v>25.3863</v>
       </c>
       <c r="EA3">
-        <v>25.92280000000001</v>
+        <v>25.3863</v>
       </c>
       <c r="EB3">
         <v>0.5333333333333333</v>
       </c>
       <c r="EC3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="ED3">
-        <v>0.7</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="EE3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="EF3">
-        <v>0.634782608695652</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="EG3">
-        <v>0.3</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="EH3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="EI3">
         <v>0.4666666666666667</v>
       </c>
       <c r="EJ3">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="EK3">
-        <v>0.3652173913043478</v>
+        <v>0.3666666666666668</v>
       </c>
       <c r="EL3">
-        <v>-0.2364331218717335</v>
+        <v>-0.4657028416727937</v>
       </c>
       <c r="EM3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="EN3">
-        <v>0.5310348273791125</v>
+        <v>0.4362605778342413</v>
       </c>
       <c r="EO3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="EP3">
-        <v>0.06826902538101284</v>
+        <v>0.03837031277425948</v>
       </c>
       <c r="EQ3">
-        <v>-0.1753300000000024</v>
+        <v>-0.6708800000000039</v>
       </c>
       <c r="ER3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="ES3">
-        <v>4.455813333333335</v>
+        <v>2.937406666666664</v>
       </c>
       <c r="ET3">
         <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.1343357971014497</v>
+        <v>0.1272384375000001</v>
       </c>
       <c r="EV3">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="EW3">
         <v>0</v>
       </c>
       <c r="EX3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="EY3">
-        <v>1.015288147401515</v>
+        <v>0.9941838726607002</v>
       </c>
       <c r="EZ3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="FA3">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="FB3">
         <v>16.5</v>
       </c>
       <c r="FC3">
-        <v>3.824264635194588</v>
+        <v>9.020809276334358</v>
       </c>
       <c r="FD3">
-        <v>7.5</v>
+        <v>16.5</v>
       </c>
       <c r="FE3">
-        <v>3.824264635194588</v>
+        <v>9.020809276334358</v>
       </c>
       <c r="FF3">
-        <v>0.1676467511528508</v>
+        <v>0.2829479850057823</v>
       </c>
       <c r="FG3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>1.148088817932698</v>
+        <v>1.22987594928751</v>
       </c>
       <c r="FI3">
-        <v>1.004529452810169</v>
+        <v>1.006710797261432</v>
       </c>
       <c r="FJ3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="FK3">
         <v>1.426458310169142</v>
@@ -3192,19 +3340,19 @@
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>1.03398870431394</v>
+        <v>1.06170988649451</v>
       </c>
       <c r="FN3">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="FO3">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="FP3">
-        <v>26.2044</v>
+        <v>26.2144</v>
       </c>
       <c r="FQ3">
-        <v>26.2044</v>
+        <v>26.21439999999999</v>
       </c>
       <c r="FR3">
         <v>0.5</v>
@@ -3213,19 +3361,19 @@
         <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.7333333333333333</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="FU3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FV3">
-        <v>0.6252525252525252</v>
+        <v>0.6484848484848483</v>
       </c>
       <c r="FW3">
-        <v>0.2666666666666667</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="FX3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="FY3">
         <v>0.5</v>
@@ -3234,208 +3382,196 @@
         <v>0</v>
       </c>
       <c r="GA3">
-        <v>0.3747474747474749</v>
+        <v>0.3515151515151516</v>
       </c>
       <c r="GB3">
-        <v>-0.4364357804716747</v>
+        <v>-0.3636964837270416</v>
       </c>
       <c r="GC3">
         <v>31</v>
       </c>
       <c r="GD3">
-        <v>0.8547931647547107</v>
+        <v>1.031356630441049</v>
       </c>
       <c r="GE3">
         <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.03716555504970907</v>
+        <v>0.04000310013732252</v>
       </c>
       <c r="GG3">
-        <v>-0.8520399999999988</v>
+        <v>-0.993386666666666</v>
       </c>
       <c r="GH3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="GI3">
-        <v>6.92385333333333</v>
+        <v>8.354023333333323</v>
       </c>
       <c r="GJ3">
         <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.1376696969696969</v>
+        <v>0.07097568181818183</v>
       </c>
       <c r="GL3">
-        <v>1.1</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="GM3">
-        <v>1.777777777777778</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="GN3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="GO3">
-        <v>1.079714688905865</v>
+        <v>1.081811083978036</v>
       </c>
       <c r="GP3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>1</v>
-      </c>
-      <c r="GR3">
-        <v>33</v>
-      </c>
-      <c r="GS3">
-        <v>0</v>
-      </c>
-      <c r="GT3">
-        <v>1</v>
-      </c>
-      <c r="GU3">
         <v>0</v>
       </c>
       <c r="GV3">
-        <v>0.2642660719080138</v>
+        <v>0.1248472905243702</v>
       </c>
       <c r="GW3">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="GX3">
-        <v>1.210195140642529</v>
+        <v>1.135241714797716</v>
       </c>
       <c r="GY3">
-        <v>1.000267100132024</v>
+        <v>1.000012715819242</v>
       </c>
       <c r="GZ3">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="HA3">
-        <v>1.778761314148946</v>
+        <v>1.778761314148945</v>
       </c>
       <c r="HB3">
         <v>0</v>
       </c>
       <c r="HC3">
-        <v>1.032626940572672</v>
+        <v>1.03881367434747</v>
       </c>
       <c r="HD3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="HE3">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="HF3">
-        <v>25.9228</v>
+        <v>26.0623</v>
       </c>
       <c r="HG3">
-        <v>25.92280000000001</v>
+        <v>26.06230000000001</v>
       </c>
       <c r="HH3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="HI3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="HJ3">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="HK3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="HL3">
-        <v>0.6441666666666666</v>
+        <v>0.6333333333333332</v>
       </c>
       <c r="HM3">
-        <v>0.2666666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="HN3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="HO3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="HP3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="HQ3">
-        <v>0.3558333333333336</v>
+        <v>0.3666666666666667</v>
       </c>
       <c r="HR3">
-        <v>-0.2225264591337966</v>
+        <v>-0.4842001247061714</v>
       </c>
       <c r="HS3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="HT3">
-        <v>0.6008037713800991</v>
+        <v>0.580011256707245</v>
       </c>
       <c r="HU3">
         <v>0</v>
       </c>
       <c r="HV3">
-        <v>0.007930396284900561</v>
+        <v>0.01124974960746702</v>
       </c>
       <c r="HW3">
-        <v>-0.5590933333333332</v>
+        <v>-0.1847733333333359</v>
       </c>
       <c r="HX3">
         <v>4</v>
       </c>
       <c r="HY3">
-        <v>5.053673333333336</v>
+        <v>4.878776666666663</v>
       </c>
       <c r="HZ3">
         <v>0</v>
       </c>
       <c r="IA3">
-        <v>0.07728658333333353</v>
+        <v>0.2128662500000009</v>
       </c>
       <c r="IB3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="IC3">
-        <v>0</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="ID3">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="IE3">
-        <v>1.065631049167635</v>
+        <v>0.8992845485925071</v>
       </c>
       <c r="IF3">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="IG3">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="IH3">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="II3">
-        <v>10.46422476822817</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="IJ3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="IK3">
-        <v>10.46422476822817</v>
+        <v>4.112987559751022</v>
       </c>
       <c r="IL3">
-        <v>0.01699692208693601</v>
+        <v>0.1278640950890081</v>
       </c>
       <c r="IM3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="IN3">
-        <v>1.148176314979952</v>
+        <v>1.157039676136233</v>
       </c>
       <c r="IO3">
-        <v>1.007844984188925</v>
+        <v>1.002518952696975</v>
       </c>
       <c r="IP3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="IQ3">
         <v>1.474569492541108</v>
@@ -3444,205 +3580,205 @@
         <v>0</v>
       </c>
       <c r="IS3">
-        <v>1.044028342722282</v>
+        <v>1.038608318039793</v>
       </c>
       <c r="IT3">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="IU3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="IV3">
-        <v>26.1615</v>
+        <v>25.984</v>
       </c>
       <c r="IW3">
-        <v>26.16150000000001</v>
+        <v>25.98400000000001</v>
       </c>
       <c r="IX3">
         <v>0.5333333333333333</v>
       </c>
       <c r="IY3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="IZ3">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="JA3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="JB3">
-        <v>0.6293333333333331</v>
+        <v>0.6344827586206896</v>
       </c>
       <c r="JC3">
-        <v>0.2333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="JD3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="JE3">
         <v>0.4666666666666667</v>
       </c>
       <c r="JF3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="JG3">
-        <v>0.3706666666666668</v>
+        <v>0.3655172413793105</v>
       </c>
       <c r="JH3">
-        <v>-0.3521944099255266</v>
+        <v>-0.333333333333359</v>
       </c>
       <c r="JI3">
+        <v>29</v>
+      </c>
+      <c r="JJ3">
+        <v>0.3501035547207703</v>
+      </c>
+      <c r="JK3">
+        <v>0</v>
+      </c>
+      <c r="JL3">
+        <v>0.03872426938781769</v>
+      </c>
+      <c r="JM3">
+        <v>-0.2522699999999993</v>
+      </c>
+      <c r="JN3">
+        <v>12</v>
+      </c>
+      <c r="JO3">
+        <v>2.751700000000003</v>
+      </c>
+      <c r="JP3">
+        <v>0</v>
+      </c>
+      <c r="JQ3">
+        <v>0.198615632183908</v>
+      </c>
+      <c r="JR3">
+        <v>1</v>
+      </c>
+      <c r="JS3">
+        <v>1.363636363636364</v>
+      </c>
+      <c r="JT3">
+        <v>12</v>
+      </c>
+      <c r="JU3">
+        <v>1.051935656935657</v>
+      </c>
+      <c r="JV3">
+        <v>29</v>
+      </c>
+      <c r="JW3">
+        <v>1</v>
+      </c>
+      <c r="JX3">
+        <v>29</v>
+      </c>
+      <c r="JY3">
+        <v>0</v>
+      </c>
+      <c r="JZ3">
+        <v>1</v>
+      </c>
+      <c r="KA3">
+        <v>0</v>
+      </c>
+      <c r="KB3">
+        <v>0.2767361041229009</v>
+      </c>
+      <c r="KC3">
+        <v>0.5</v>
+      </c>
+      <c r="KD3">
+        <v>1.296193131510781</v>
+      </c>
+      <c r="KE3">
+        <v>1.006190429399627</v>
+      </c>
+      <c r="KF3">
+        <v>26</v>
+      </c>
+      <c r="KG3">
+        <v>1.500327944912885</v>
+      </c>
+      <c r="KH3">
+        <v>0</v>
+      </c>
+      <c r="KI3">
+        <v>1.058265782952919</v>
+      </c>
+      <c r="KJ3">
+        <v>29</v>
+      </c>
+      <c r="KK3">
+        <v>35</v>
+      </c>
+      <c r="KL3">
+        <v>24.198</v>
+      </c>
+      <c r="KM3">
+        <v>24.19799999999999</v>
+      </c>
+      <c r="KN3">
+        <v>0.5</v>
+      </c>
+      <c r="KO3">
         <v>11</v>
       </c>
-      <c r="JJ3">
-        <v>0.3382328228005306</v>
-      </c>
-      <c r="JK3">
-        <v>1</v>
-      </c>
-      <c r="JL3">
-        <v>0.09369767719707169</v>
-      </c>
-      <c r="JM3">
-        <v>-0.715326666666666</v>
-      </c>
-      <c r="JN3">
+      <c r="KP3">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="KQ3">
+        <v>17</v>
+      </c>
+      <c r="KR3">
+        <v>0.622549019607843</v>
+      </c>
+      <c r="KS3">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="KT3">
+        <v>17</v>
+      </c>
+      <c r="KU3">
+        <v>0.5</v>
+      </c>
+      <c r="KV3">
         <v>11</v>
       </c>
-      <c r="JO3">
-        <v>2.095979999999997</v>
-      </c>
-      <c r="JP3">
-        <v>0</v>
-      </c>
-      <c r="JQ3">
-        <v>0.2637229333333337</v>
-      </c>
-      <c r="JR3">
-        <v>0</v>
-      </c>
-      <c r="JS3">
-        <v>1.071428571428571</v>
-      </c>
-      <c r="JT3">
-        <v>15</v>
-      </c>
-      <c r="JU3">
-        <v>1.051104067796619</v>
-      </c>
-      <c r="JV3">
-        <v>25</v>
-      </c>
-      <c r="JW3">
-        <v>25</v>
-      </c>
-      <c r="JX3">
-        <v>13</v>
-      </c>
-      <c r="JY3">
-        <v>7</v>
-      </c>
-      <c r="JZ3">
-        <v>13</v>
-      </c>
-      <c r="KA3">
-        <v>7</v>
-      </c>
-      <c r="KB3">
-        <v>0.3382328228005306</v>
-      </c>
-      <c r="KC3">
-        <v>1</v>
-      </c>
-      <c r="KD3">
-        <v>1.339627372529354</v>
-      </c>
-      <c r="KE3">
-        <v>1.003894472795674</v>
-      </c>
-      <c r="KF3">
-        <v>25</v>
-      </c>
-      <c r="KG3">
-        <v>1.500327944912886</v>
-      </c>
-      <c r="KH3">
-        <v>0</v>
-      </c>
-      <c r="KI3">
-        <v>1.088313564275336</v>
-      </c>
-      <c r="KJ3">
-        <v>25</v>
-      </c>
-      <c r="KK3">
-        <v>32</v>
-      </c>
-      <c r="KL3">
-        <v>26.1519</v>
-      </c>
-      <c r="KM3">
-        <v>26.15189999999999</v>
-      </c>
-      <c r="KN3">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="KO3">
-        <v>1</v>
-      </c>
-      <c r="KP3">
-        <v>0.7666666666666667</v>
-      </c>
-      <c r="KQ3">
+      <c r="KW3">
+        <v>0.377450980392157</v>
+      </c>
+      <c r="KX3">
+        <v>-0.3585513024459013</v>
+      </c>
+      <c r="KY3">
+        <v>29</v>
+      </c>
+      <c r="KZ3">
+        <v>0.3416041193299448</v>
+      </c>
+      <c r="LA3">
         <v>4</v>
       </c>
-      <c r="KR3">
-        <v>0.6591397849462364</v>
-      </c>
-      <c r="KS3">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="KT3">
-        <v>4</v>
-      </c>
-      <c r="KU3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="KV3">
-        <v>1</v>
-      </c>
-      <c r="KW3">
-        <v>0.3408602150537635</v>
-      </c>
-      <c r="KX3">
-        <v>-0.353553390593314</v>
-      </c>
-      <c r="KY3">
-        <v>18</v>
-      </c>
-      <c r="KZ3">
-        <v>0.5451682144258539</v>
-      </c>
-      <c r="LA3">
-        <v>0</v>
-      </c>
       <c r="LB3">
-        <v>0.04032530251338247</v>
+        <v>0.0149498485188462</v>
       </c>
       <c r="LC3">
-        <v>-0.06936666666666724</v>
+        <v>-0.7355200000000011</v>
       </c>
       <c r="LD3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="LE3">
-        <v>4.15161333333333</v>
+        <v>1.918616666666665</v>
       </c>
       <c r="LF3">
         <v>0</v>
       </c>
       <c r="LG3">
-        <v>0.1045101075268816</v>
+        <v>0.1034973529411763</v>
       </c>
       <c r="LH3">
         <v>0.5</v>
@@ -3651,43 +3787,43 @@
         <v>0</v>
       </c>
       <c r="LJ3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="LK3">
-        <v>1.137780708874459</v>
+        <v>0.9955782312925164</v>
       </c>
       <c r="LL3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="LM3">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="LN3">
-        <v>31</v>
+        <v>22.5</v>
       </c>
       <c r="LO3">
-        <v>0</v>
+        <v>6.711308863900295</v>
       </c>
       <c r="LP3">
-        <v>1</v>
+        <v>12.5</v>
       </c>
       <c r="LQ3">
-        <v>0</v>
+        <v>6.711308863900295</v>
       </c>
       <c r="LR3">
-        <v>0.4454984712890275</v>
+        <v>0.2702581386816515</v>
       </c>
       <c r="LS3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="LT3">
-        <v>1.144129750440306</v>
+        <v>1.267676672426108</v>
       </c>
       <c r="LU3">
-        <v>1.001591987590139</v>
+        <v>1.009195900548039</v>
       </c>
       <c r="LV3">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="LW3">
         <v>1.397320820974311</v>
@@ -3696,124 +3832,124 @@
         <v>0</v>
       </c>
       <c r="LY3">
-        <v>1.009609846699262</v>
+        <v>1.076230166865246</v>
       </c>
       <c r="LZ3">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="MA3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="MB3">
-        <v>26.2095</v>
+        <v>26.0295</v>
       </c>
       <c r="MC3">
-        <v>26.20950000000001</v>
+        <v>26.0295</v>
       </c>
       <c r="MD3">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="ME3">
+        <v>0</v>
+      </c>
+      <c r="MF3">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="MG3">
+        <v>13</v>
+      </c>
+      <c r="MH3">
+        <v>0.6495495495495496</v>
+      </c>
+      <c r="MI3">
+        <v>0.2333333333333333</v>
+      </c>
+      <c r="MJ3">
+        <v>13</v>
+      </c>
+      <c r="MK3">
+        <v>0.5</v>
+      </c>
+      <c r="ML3">
+        <v>0</v>
+      </c>
+      <c r="MM3">
+        <v>0.3504504504504505</v>
+      </c>
+      <c r="MN3">
+        <v>-0.315244162495676</v>
+      </c>
+      <c r="MO3">
+        <v>28</v>
+      </c>
+      <c r="MP3">
+        <v>0.7325342022411906</v>
+      </c>
+      <c r="MQ3">
+        <v>0</v>
+      </c>
+      <c r="MR3">
+        <v>0.07658982262796622</v>
+      </c>
+      <c r="MS3">
+        <v>-0.3119966666666656</v>
+      </c>
+      <c r="MT3">
+        <v>6</v>
+      </c>
+      <c r="MU3">
+        <v>5.595793333333329</v>
+      </c>
+      <c r="MV3">
+        <v>0</v>
+      </c>
+      <c r="MW3">
+        <v>0.09799090090090096</v>
+      </c>
+      <c r="MX3">
+        <v>1</v>
+      </c>
+      <c r="MY3">
+        <v>1.25</v>
+      </c>
+      <c r="MZ3">
         <v>5</v>
       </c>
-      <c r="MF3">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="MG3">
-        <v>14</v>
-      </c>
-      <c r="MH3">
-        <v>0.6434343434343434</v>
-      </c>
-      <c r="MI3">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="MJ3">
-        <v>14</v>
-      </c>
-      <c r="MK3">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="ML3">
-        <v>5</v>
-      </c>
-      <c r="MM3">
-        <v>0.3565656565656566</v>
-      </c>
-      <c r="MN3">
-        <v>-0.3482055762956148</v>
-      </c>
-      <c r="MO3">
-        <v>10</v>
-      </c>
-      <c r="MP3">
-        <v>0.6397269286374955</v>
-      </c>
-      <c r="MQ3">
-        <v>1</v>
-      </c>
-      <c r="MR3">
-        <v>0.05970739142660422</v>
-      </c>
-      <c r="MS3">
-        <v>-1.161929999999998</v>
-      </c>
-      <c r="MT3">
-        <v>10</v>
-      </c>
-      <c r="MU3">
-        <v>3.879463333333334</v>
-      </c>
-      <c r="MV3">
-        <v>1</v>
-      </c>
-      <c r="MW3">
-        <v>0.1961373737373739</v>
-      </c>
-      <c r="MX3">
-        <v>0.5</v>
-      </c>
-      <c r="MY3">
-        <v>0</v>
-      </c>
-      <c r="MZ3">
-        <v>20</v>
-      </c>
       <c r="NA3">
-        <v>1.052349021719335</v>
+        <v>0.9989575126835907</v>
       </c>
       <c r="NB3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="NC3">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="ND3">
-        <v>26</v>
+        <v>18.5</v>
       </c>
       <c r="NE3">
-        <v>4.112987559751022</v>
+        <v>10.75290658380328</v>
       </c>
       <c r="NF3">
-        <v>8</v>
+        <v>19.5</v>
       </c>
       <c r="NG3">
-        <v>4.112987559751022</v>
+        <v>10.75290658380328</v>
       </c>
       <c r="NH3">
-        <v>0.6397269286374955</v>
+        <v>0.2471320950270069</v>
       </c>
       <c r="NI3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="NJ3">
-        <v>1.328187884325352</v>
+        <v>1.169866589814751</v>
       </c>
       <c r="NK3">
-        <v>1.001535002997784</v>
+        <v>1.000321149096318</v>
       </c>
       <c r="NL3">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="NM3">
         <v>1.559634246540297</v>
@@ -3822,313 +3958,373 @@
         <v>0</v>
       </c>
       <c r="NO3">
-        <v>1.043777877348603</v>
+        <v>1.026155784817259</v>
       </c>
       <c r="NP3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="NQ3">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="NR3">
-        <v>24.8919</v>
+        <v>26.2144</v>
       </c>
       <c r="NS3">
-        <v>24.8919</v>
+        <v>26.21439999999999</v>
       </c>
       <c r="NT3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="NU3">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="NV3">
         <v>0.7333333333333333</v>
       </c>
       <c r="NW3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="NX3">
-        <v>0.6414814814814815</v>
+        <v>0.6211111111111109</v>
       </c>
       <c r="NY3">
         <v>0.2666666666666667</v>
       </c>
       <c r="NZ3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="OA3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="OB3">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="OC3">
-        <v>0.3585185185185187</v>
+        <v>0.3788888888888889</v>
       </c>
       <c r="OD3">
-        <v>-0.6393541723172178</v>
+        <v>-0.3713906763442079</v>
       </c>
       <c r="OE3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="OF3">
-        <v>0.4228664938062471</v>
+        <v>0.4715251737076397</v>
       </c>
       <c r="OG3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="OH3">
-        <v>0.0380935455096779</v>
+        <v>0.07363486627704145</v>
       </c>
       <c r="OI3">
-        <v>-0.518220000000003</v>
+        <v>-0.2327166666666649</v>
       </c>
       <c r="OJ3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="OK3">
-        <v>2.518886666666667</v>
+        <v>3.372616666666669</v>
       </c>
       <c r="OL3">
         <v>0</v>
       </c>
       <c r="OM3">
-        <v>0.08294051851851836</v>
+        <v>0.1400364444444442</v>
       </c>
       <c r="ON3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="OO3">
-        <v>0</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="OP3">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="OQ3">
-        <v>0.9896721524781897</v>
+        <v>1.163382029263323</v>
       </c>
       <c r="OR3">
+        <v>0</v>
+      </c>
+      <c r="OS3">
+        <v>0</v>
+      </c>
+      <c r="OX3">
+        <v>0.107423657026674</v>
+      </c>
+      <c r="OY3">
+        <v>1</v>
+      </c>
+      <c r="OZ3">
+        <v>1.190843356563727</v>
+      </c>
+      <c r="PA3">
+        <v>1.000002034509348</v>
+      </c>
+      <c r="PB3">
+        <v>21</v>
+      </c>
+      <c r="PC3">
+        <v>1.406299874092644</v>
+      </c>
+      <c r="PD3">
+        <v>0</v>
+      </c>
+      <c r="PE3">
+        <v>1.020691727084031</v>
+      </c>
+      <c r="PF3">
+        <v>30</v>
+      </c>
+      <c r="PG3">
+        <v>0.4</v>
+      </c>
+      <c r="PH3">
+        <v>4</v>
+      </c>
+      <c r="PI3">
+        <v>13</v>
+      </c>
+      <c r="PJ3">
         <v>45</v>
       </c>
-      <c r="OS3">
-        <v>46</v>
-      </c>
-      <c r="OT3">
-        <v>22.5</v>
-      </c>
-      <c r="OU3">
-        <v>13.06235047761313</v>
-      </c>
-      <c r="OV3">
-        <v>23.5</v>
-      </c>
-      <c r="OW3">
-        <v>13.06235047761313</v>
-      </c>
-      <c r="OX3">
-        <v>-0.01554692187064815</v>
-      </c>
-      <c r="OY3">
-        <v>0</v>
-      </c>
-      <c r="OZ3">
-        <v>1.238885844124481</v>
-      </c>
-      <c r="PA3">
-        <v>1.002970807275476</v>
-      </c>
-      <c r="PB3">
-        <v>45</v>
-      </c>
-      <c r="PC3">
-        <v>1.406299874092643</v>
-      </c>
-      <c r="PD3">
-        <v>0</v>
-      </c>
-      <c r="PE3">
-        <v>1.063833726925809</v>
-      </c>
-      <c r="PF3">
-        <v>45</v>
-      </c>
-      <c r="PG3">
-        <v>0.1</v>
-      </c>
-      <c r="PH3">
-        <v>1</v>
-      </c>
-      <c r="PI3">
-        <v>25</v>
-      </c>
-      <c r="PJ3">
-        <v>25</v>
-      </c>
       <c r="PK3">
-        <v>25</v>
+        <v>29.5</v>
       </c>
       <c r="PL3">
-        <v>0</v>
+        <v>11.34680571791022</v>
       </c>
       <c r="PM3">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="PN3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="PO3">
         <v>0.7666666666666667</v>
       </c>
       <c r="PP3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="PQ3">
         <v>0.5</v>
       </c>
       <c r="PR3">
-        <v>0.7666666666666667</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="PS3">
-        <v>0.6402777777777773</v>
+        <v>0.630791847041847</v>
       </c>
       <c r="PT3">
-        <v>0</v>
+        <v>0.02357022603955158</v>
       </c>
       <c r="PU3">
-        <v>0</v>
+        <v>0.01443375672974069</v>
       </c>
       <c r="PV3">
-        <v>0</v>
+        <v>0.01055029263293936</v>
       </c>
       <c r="PW3">
         <v>0.2333333333333333</v>
       </c>
       <c r="PX3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="PY3">
-        <v>0.5</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="PZ3">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="QA3">
-        <v>0.2333333333333333</v>
+        <v>0.2583333333333333</v>
       </c>
       <c r="QB3">
         <v>0.5</v>
       </c>
       <c r="QC3">
-        <v>0.3597222222222221</v>
+        <v>0.369208152958153</v>
       </c>
       <c r="QD3">
-        <v>0</v>
+        <v>0.01443375672974064</v>
       </c>
       <c r="QE3">
-        <v>0</v>
+        <v>0.02357022603955158</v>
       </c>
       <c r="QF3">
-        <v>0</v>
+        <v>0.01055029263293937</v>
       </c>
       <c r="QG3">
-        <v>-0.2716340464031189</v>
+        <v>-0.3713906763442079</v>
       </c>
       <c r="QH3">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="QI3">
-        <v>0.3573404598775777</v>
+        <v>1.031356630441049</v>
       </c>
       <c r="QJ3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="QK3">
-        <v>-0.2716340464031189</v>
+        <v>-0.2690701393266353</v>
       </c>
       <c r="QL3">
-        <v>0.3573404598775777</v>
+        <v>0.6072611213980234</v>
       </c>
       <c r="QM3">
-        <v>0.091630711971551</v>
+        <v>0.09663518300223803</v>
       </c>
       <c r="QN3">
-        <v>0</v>
+        <v>0.1456194176217501</v>
       </c>
       <c r="QO3">
-        <v>0</v>
+        <v>0.2453179423314811</v>
       </c>
       <c r="QP3">
-        <v>0</v>
+        <v>0.06689165664520939</v>
       </c>
       <c r="QQ3">
-        <v>-0.4107666666666603</v>
+        <v>-0.993386666666666</v>
       </c>
       <c r="QR3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="QS3">
-        <v>2.194673333333323</v>
+        <v>8.354023333333323</v>
       </c>
       <c r="QT3">
         <v>0</v>
       </c>
       <c r="QU3">
-        <v>-0.4107666666666603</v>
+        <v>-0.4470475</v>
       </c>
       <c r="QV3">
-        <v>2.194673333333323</v>
+        <v>4.722307499999997</v>
       </c>
       <c r="QW3">
-        <v>0.2258518055555555</v>
+        <v>0.1755902835497834</v>
       </c>
       <c r="QX3">
-        <v>4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="QY3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="QZ3">
-        <v>4</v>
+        <v>1.194444444444444</v>
       </c>
       <c r="RA3">
-        <v>1.142857142857143</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="RB3">
-        <v>1.142857142857143</v>
+        <v>1.307692307692308</v>
       </c>
       <c r="RC3">
-        <v>1.142857142857143</v>
+        <v>1.195741758241758</v>
       </c>
       <c r="RD3">
-        <v>1.221241720776046</v>
+        <v>1.079385370330609</v>
       </c>
       <c r="RE3">
-        <v>1.221241720776046</v>
+        <v>1.522836523924057</v>
       </c>
       <c r="RF3">
-        <v>1.221241720776046</v>
+        <v>1.211853751874006</v>
       </c>
       <c r="RG3">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="RH3">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="RI3">
-        <v>35.66666666666666</v>
+        <v>31</v>
       </c>
       <c r="RJ3">
-        <v>7.195677714974301</v>
+        <v>6.708203932499369</v>
       </c>
       <c r="RK3">
-        <v>25.76465555555556</v>
+        <v>25.51075000000001</v>
       </c>
       <c r="RL3">
-        <v>0.5321779174321958</v>
+        <v>0.6515859133682991</v>
       </c>
       <c r="RM3">
-        <v>26.2095</v>
+        <v>26.0623</v>
+      </c>
+      <c r="RR3">
+        <v>21</v>
+      </c>
+      <c r="RT3">
+        <v>0</v>
+      </c>
+      <c r="RW3">
+        <v>0.1039948289205292</v>
+      </c>
+      <c r="RX3">
+        <v>0.4138711280996356</v>
+      </c>
+      <c r="RY3">
+        <v>0.1875342261428022</v>
+      </c>
+      <c r="RZ3">
+        <v>0.1309146470577465</v>
+      </c>
+      <c r="SA3">
+        <v>1</v>
+      </c>
+      <c r="SB3">
+        <v>6</v>
+      </c>
+      <c r="SC3">
+        <v>3.25</v>
+      </c>
+      <c r="SD3">
+        <v>1.785357107135713</v>
+      </c>
+      <c r="SE3">
+        <v>1.000002034509348</v>
+      </c>
+      <c r="SF3">
+        <v>21</v>
+      </c>
+      <c r="SG3">
+        <v>1.778761314148945</v>
+      </c>
+      <c r="SH3">
+        <v>0</v>
+      </c>
+      <c r="SI3">
+        <v>1.0009748154605</v>
+      </c>
+      <c r="SJ3">
+        <v>1.502010806379471</v>
+      </c>
+      <c r="SK3">
+        <v>1.039210333452114</v>
+      </c>
+      <c r="SL3">
+        <v>0.001326099277962739</v>
+      </c>
+      <c r="SM3">
+        <v>0.1598026754252904</v>
+      </c>
+      <c r="SN3">
+        <v>0.01250253757410787</v>
+      </c>
+      <c r="SO3">
+        <v>1.135241714797716</v>
+      </c>
+      <c r="SP3">
+        <v>1.192246829925876</v>
+      </c>
+      <c r="SQ3">
+        <v>1.173209054588983</v>
+      </c>
+      <c r="SR3">
+        <v>0.02300327200438646</v>
       </c>
     </row>
   </sheetData>
@@ -4143,7 +4339,7 @@
     <mergeCell ref="KK1:LZ1"/>
     <mergeCell ref="MA1:NP1"/>
     <mergeCell ref="NQ1:PF1"/>
-    <mergeCell ref="PG1:RV1"/>
+    <mergeCell ref="PG1:SR1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
